--- a/docs/Алгоритм.xlsx
+++ b/docs/Алгоритм.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="135" windowWidth="24240" windowHeight="14880" tabRatio="309" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="135" windowWidth="20730" windowHeight="11760" tabRatio="309" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Порядок действий" sheetId="1" r:id="rId1"/>
@@ -1050,7 +1050,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1161,28 +1161,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1199,9 +1187,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1210,9 +1195,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1227,16 +1209,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1244,17 +1232,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1265,17 +1247,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1285,6 +1264,31 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2192,20 +2196,20 @@
       <c r="A4" s="79"/>
       <c r="B4" s="79"/>
       <c r="C4" s="80"/>
-      <c r="D4" s="86" t="s">
+      <c r="D4" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="87"/>
-      <c r="F4" s="84" t="s">
+      <c r="E4" s="74"/>
+      <c r="F4" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
     </row>
     <row r="5" spans="1:16" s="20" customFormat="1" ht="78.75">
       <c r="A5" s="79"/>
@@ -2246,13 +2250,13 @@
       </c>
     </row>
     <row r="6" spans="1:16" s="21" customFormat="1">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="78"/>
+      <c r="C6" s="70"/>
       <c r="D6" s="33"/>
       <c r="E6" s="34"/>
       <c r="F6" s="32"/>
@@ -2278,11 +2282,11 @@
       </c>
     </row>
     <row r="7" spans="1:16" s="21" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A7" s="74"/>
-      <c r="B7" s="77" t="s">
+      <c r="A7" s="68"/>
+      <c r="B7" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="78"/>
+      <c r="C7" s="70"/>
       <c r="D7" s="33" t="s">
         <v>10</v>
       </c>
@@ -2314,11 +2318,11 @@
       </c>
     </row>
     <row r="8" spans="1:16" s="21" customFormat="1">
-      <c r="A8" s="74"/>
-      <c r="B8" s="75" t="s">
+      <c r="A8" s="68"/>
+      <c r="B8" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="76"/>
+      <c r="C8" s="72"/>
       <c r="D8" s="33"/>
       <c r="E8" s="34" t="s">
         <v>10</v>
@@ -2343,13 +2347,13 @@
       <c r="O8" s="28"/>
     </row>
     <row r="9" spans="1:16" s="21" customFormat="1">
-      <c r="A9" s="74" t="s">
+      <c r="A9" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="81" t="s">
+      <c r="B9" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="82"/>
+      <c r="C9" s="76"/>
       <c r="D9" s="33"/>
       <c r="E9" s="34"/>
       <c r="F9" s="32" t="s">
@@ -2370,11 +2374,11 @@
       <c r="O9" s="28"/>
     </row>
     <row r="10" spans="1:16" s="21" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A10" s="74"/>
-      <c r="B10" s="77" t="s">
+      <c r="A10" s="68"/>
+      <c r="B10" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="78"/>
+      <c r="C10" s="70"/>
       <c r="D10" s="33"/>
       <c r="E10" s="34"/>
       <c r="F10" s="32" t="s">
@@ -2395,11 +2399,11 @@
       </c>
     </row>
     <row r="11" spans="1:16" s="21" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A11" s="74"/>
-      <c r="B11" s="77" t="s">
+      <c r="A11" s="68"/>
+      <c r="B11" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="78"/>
+      <c r="C11" s="70"/>
       <c r="D11" s="33" t="s">
         <v>10</v>
       </c>
@@ -2429,8 +2433,8 @@
       </c>
     </row>
     <row r="12" spans="1:16" s="21" customFormat="1" ht="33.75">
-      <c r="A12" s="74"/>
-      <c r="B12" s="83" t="s">
+      <c r="A12" s="68"/>
+      <c r="B12" s="77" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="31" t="s">
@@ -2456,8 +2460,8 @@
       <c r="O12" s="28"/>
     </row>
     <row r="13" spans="1:16" s="21" customFormat="1">
-      <c r="A13" s="74"/>
-      <c r="B13" s="83"/>
+      <c r="A13" s="68"/>
+      <c r="B13" s="77"/>
       <c r="C13" s="31" t="s">
         <v>31</v>
       </c>
@@ -2479,11 +2483,11 @@
       <c r="O13" s="28"/>
     </row>
     <row r="14" spans="1:16" s="21" customFormat="1">
-      <c r="A14" s="74"/>
-      <c r="B14" s="77" t="s">
+      <c r="A14" s="68"/>
+      <c r="B14" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="78"/>
+      <c r="C14" s="70"/>
       <c r="D14" s="33"/>
       <c r="E14" s="34"/>
       <c r="F14" s="32"/>
@@ -2504,11 +2508,11 @@
       </c>
     </row>
     <row r="15" spans="1:16" s="21" customFormat="1">
-      <c r="A15" s="74"/>
-      <c r="B15" s="75" t="s">
+      <c r="A15" s="68"/>
+      <c r="B15" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="76"/>
+      <c r="C15" s="72"/>
       <c r="D15" s="33"/>
       <c r="E15" s="34" t="s">
         <v>10</v>
@@ -2531,13 +2535,13 @@
       <c r="O15" s="28"/>
     </row>
     <row r="16" spans="1:16" s="21" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A16" s="74" t="s">
+      <c r="A16" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="77" t="s">
+      <c r="B16" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="78"/>
+      <c r="C16" s="70"/>
       <c r="D16" s="33"/>
       <c r="E16" s="34"/>
       <c r="F16" s="32"/>
@@ -2560,11 +2564,11 @@
       </c>
     </row>
     <row r="17" spans="1:16" s="21" customFormat="1">
-      <c r="A17" s="74"/>
-      <c r="B17" s="77" t="s">
+      <c r="A17" s="68"/>
+      <c r="B17" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="78"/>
+      <c r="C17" s="70"/>
       <c r="D17" s="33" t="s">
         <v>10</v>
       </c>
@@ -2589,16 +2593,16 @@
         <v>12</v>
       </c>
       <c r="O17" s="28"/>
-      <c r="P17" s="73" t="s">
+      <c r="P17" s="78" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="21" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A18" s="74"/>
-      <c r="B18" s="75" t="s">
+      <c r="A18" s="68"/>
+      <c r="B18" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="76"/>
+      <c r="C18" s="72"/>
       <c r="D18" s="33"/>
       <c r="E18" s="34" t="s">
         <v>10</v>
@@ -2619,16 +2623,16 @@
         <v>13</v>
       </c>
       <c r="O18" s="28"/>
-      <c r="P18" s="73"/>
+      <c r="P18" s="78"/>
     </row>
     <row r="19" spans="1:16" s="21" customFormat="1">
-      <c r="A19" s="74" t="s">
+      <c r="A19" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="81" t="s">
+      <c r="B19" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="82"/>
+      <c r="C19" s="76"/>
       <c r="D19" s="33"/>
       <c r="E19" s="34"/>
       <c r="F19" s="32"/>
@@ -2649,14 +2653,14 @@
       <c r="O19" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="P19" s="73"/>
+      <c r="P19" s="78"/>
     </row>
     <row r="20" spans="1:16" s="21" customFormat="1">
-      <c r="A20" s="74"/>
-      <c r="B20" s="77" t="s">
+      <c r="A20" s="68"/>
+      <c r="B20" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="78"/>
+      <c r="C20" s="70"/>
       <c r="D20" s="33"/>
       <c r="E20" s="34"/>
       <c r="F20" s="32"/>
@@ -2673,14 +2677,14 @@
         <v>15</v>
       </c>
       <c r="O20" s="28"/>
-      <c r="P20" s="73"/>
+      <c r="P20" s="78"/>
     </row>
     <row r="21" spans="1:16" s="21" customFormat="1">
-      <c r="A21" s="74"/>
-      <c r="B21" s="77" t="s">
+      <c r="A21" s="68"/>
+      <c r="B21" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="78"/>
+      <c r="C21" s="70"/>
       <c r="D21" s="33" t="s">
         <v>10</v>
       </c>
@@ -2705,11 +2709,11 @@
         <v>16</v>
       </c>
       <c r="O21" s="28"/>
-      <c r="P21" s="73"/>
+      <c r="P21" s="78"/>
     </row>
     <row r="22" spans="1:16" s="21" customFormat="1" ht="33.75">
-      <c r="A22" s="74"/>
-      <c r="B22" s="83" t="s">
+      <c r="A22" s="68"/>
+      <c r="B22" s="77" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="31" t="s">
@@ -2733,11 +2737,11 @@
         <v>17</v>
       </c>
       <c r="O22" s="28"/>
-      <c r="P22" s="73"/>
+      <c r="P22" s="78"/>
     </row>
     <row r="23" spans="1:16" s="21" customFormat="1">
-      <c r="A23" s="74"/>
-      <c r="B23" s="83"/>
+      <c r="A23" s="68"/>
+      <c r="B23" s="77"/>
       <c r="C23" s="31" t="s">
         <v>31</v>
       </c>
@@ -2757,14 +2761,14 @@
         <v>18</v>
       </c>
       <c r="O23" s="28"/>
-      <c r="P23" s="73"/>
+      <c r="P23" s="78"/>
     </row>
     <row r="24" spans="1:16" s="21" customFormat="1">
-      <c r="A24" s="74"/>
-      <c r="B24" s="77" t="s">
+      <c r="A24" s="68"/>
+      <c r="B24" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="78"/>
+      <c r="C24" s="70"/>
       <c r="D24" s="33"/>
       <c r="E24" s="34"/>
       <c r="F24" s="32"/>
@@ -2783,14 +2787,14 @@
       <c r="O24" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="P24" s="73"/>
+      <c r="P24" s="78"/>
     </row>
     <row r="25" spans="1:16" s="21" customFormat="1">
-      <c r="A25" s="74"/>
-      <c r="B25" s="75" t="s">
+      <c r="A25" s="68"/>
+      <c r="B25" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="76"/>
+      <c r="C25" s="72"/>
       <c r="D25" s="33"/>
       <c r="E25" s="34" t="s">
         <v>10</v>
@@ -2811,16 +2815,16 @@
         <v>20</v>
       </c>
       <c r="O25" s="28"/>
-      <c r="P25" s="73"/>
+      <c r="P25" s="78"/>
     </row>
     <row r="26" spans="1:16" s="21" customFormat="1" ht="24" customHeight="1">
-      <c r="A26" s="74" t="s">
+      <c r="A26" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="77" t="s">
+      <c r="B26" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="78"/>
+      <c r="C26" s="70"/>
       <c r="D26" s="33"/>
       <c r="E26" s="34"/>
       <c r="F26" s="32"/>
@@ -2843,11 +2847,11 @@
       </c>
     </row>
     <row r="27" spans="1:16" s="21" customFormat="1">
-      <c r="A27" s="74"/>
-      <c r="B27" s="77" t="s">
+      <c r="A27" s="68"/>
+      <c r="B27" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="78"/>
+      <c r="C27" s="70"/>
       <c r="D27" s="33" t="s">
         <v>10</v>
       </c>
@@ -2874,11 +2878,11 @@
       <c r="O27" s="28"/>
     </row>
     <row r="28" spans="1:16" s="21" customFormat="1" ht="12" customHeight="1">
-      <c r="A28" s="74"/>
-      <c r="B28" s="75" t="s">
+      <c r="A28" s="68"/>
+      <c r="B28" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="76"/>
+      <c r="C28" s="72"/>
       <c r="D28" s="33"/>
       <c r="E28" s="34" t="s">
         <v>10</v>
@@ -2899,13 +2903,13 @@
       <c r="O28" s="28"/>
     </row>
     <row r="29" spans="1:16" s="21" customFormat="1">
-      <c r="A29" s="74" t="s">
+      <c r="A29" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="75" t="s">
+      <c r="B29" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="76"/>
+      <c r="C29" s="72"/>
       <c r="D29" s="33"/>
       <c r="E29" s="34"/>
       <c r="F29" s="32"/>
@@ -2926,11 +2930,11 @@
       </c>
     </row>
     <row r="30" spans="1:16" s="21" customFormat="1">
-      <c r="A30" s="74"/>
-      <c r="B30" s="77" t="s">
+      <c r="A30" s="68"/>
+      <c r="B30" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="78"/>
+      <c r="C30" s="70"/>
       <c r="D30" s="33"/>
       <c r="E30" s="34"/>
       <c r="F30" s="32"/>
@@ -3259,23 +3263,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="F4:M4"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B12:B13"/>
     <mergeCell ref="P17:P25"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="B29:C29"/>
@@ -3292,6 +3279,23 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="F4:M4"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D4:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3431,7 +3435,7 @@
       <c r="I11" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="M11" s="88" t="s">
+      <c r="M11" s="81" t="s">
         <v>62</v>
       </c>
       <c r="O11" s="17" t="s">
@@ -3442,7 +3446,7 @@
       <c r="E12" s="8"/>
       <c r="F12" s="9"/>
       <c r="G12" s="10"/>
-      <c r="M12" s="89"/>
+      <c r="M12" s="82"/>
     </row>
     <row r="13" spans="2:15" ht="34.5" thickBot="1">
       <c r="C13" s="17" t="s">
@@ -3459,7 +3463,7 @@
       <c r="K13" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="M13" s="90"/>
+      <c r="M13" s="83"/>
     </row>
     <row r="14" spans="2:15">
       <c r="E14" s="8"/>
@@ -3652,11 +3656,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:AA88"/>
+  <dimension ref="A1:AA88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R64" sqref="R64"/>
+      <pane ySplit="4" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3673,7 +3677,8 @@
     <col min="27" max="27" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:27">
+    <row r="1" spans="1:27" hidden="1"/>
+    <row r="2" spans="1:27" hidden="1">
       <c r="E2" t="s">
         <v>140</v>
       </c>
@@ -3682,7 +3687,7 @@
         <v xml:space="preserve">	</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" hidden="1">
       <c r="E3" s="1">
         <v>0</v>
       </c>
@@ -3724,113 +3729,114 @@
         <v xml:space="preserve">}, // </v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="143.25">
-      <c r="A4" s="46" t="s">
+    <row r="4" spans="1:27" ht="107.25">
+      <c r="A4" s="84" t="s">
         <v>153</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="71" t="s">
+      <c r="B4" s="84"/>
+      <c r="C4" s="85" t="s">
         <v>172</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="86" t="s">
         <v>90</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="G4" s="51" t="s">
+      <c r="G4" s="86" t="s">
         <v>137</v>
       </c>
-      <c r="H4" s="51" t="s">
+      <c r="H4" s="86" t="s">
         <v>141</v>
       </c>
-      <c r="I4" s="61" t="s">
+      <c r="I4" s="87" t="s">
         <v>142</v>
       </c>
-      <c r="J4" s="48" t="s">
+      <c r="J4" s="88" t="s">
         <v>92</v>
       </c>
-      <c r="K4" s="48" t="s">
+      <c r="K4" s="88" t="s">
         <v>93</v>
       </c>
-      <c r="L4" s="48" t="s">
+      <c r="L4" s="88" t="s">
         <v>94</v>
       </c>
-      <c r="M4" s="48" t="s">
+      <c r="M4" s="88" t="s">
         <v>95</v>
       </c>
-      <c r="N4" s="48" t="s">
+      <c r="N4" s="88" t="s">
         <v>96</v>
       </c>
-      <c r="O4" s="48" t="s">
+      <c r="O4" s="88" t="s">
         <v>97</v>
       </c>
-      <c r="P4" s="48" t="s">
+      <c r="P4" s="88" t="s">
         <v>98</v>
       </c>
-      <c r="Q4" s="48" t="s">
+      <c r="Q4" s="88" t="s">
         <v>103</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="R4" s="89" t="s">
         <v>113</v>
       </c>
-      <c r="S4" s="66" t="s">
+      <c r="S4" s="90" t="s">
         <v>170</v>
       </c>
-      <c r="T4" s="55" t="s">
+      <c r="T4" s="91" t="s">
         <v>80</v>
       </c>
-      <c r="U4" s="55" t="s">
+      <c r="U4" s="91" t="s">
         <v>116</v>
       </c>
-      <c r="V4" s="58" t="s">
+      <c r="V4" s="92" t="s">
         <v>133</v>
       </c>
-      <c r="W4" s="58" t="s">
+      <c r="W4" s="92" t="s">
         <v>132</v>
       </c>
-      <c r="X4" s="68" t="s">
+      <c r="X4" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="Y4" s="67"/>
-      <c r="Z4" s="67"/>
-      <c r="AA4" s="67"/>
+      <c r="Y4" s="61"/>
+      <c r="Z4" s="61"/>
+      <c r="AA4" s="61"/>
     </row>
     <row r="5" spans="1:27">
       <c r="A5">
         <v>0</v>
       </c>
-      <c r="C5" s="72" t="str">
+      <c r="C5" s="65" t="str">
         <f>DEC2HEX(A5,2)</f>
         <v>00</v>
       </c>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="49">
-        <v>0</v>
-      </c>
-      <c r="K5" s="49">
-        <v>0</v>
-      </c>
-      <c r="L5" s="49">
-        <v>1</v>
-      </c>
-      <c r="M5" s="49">
-        <v>1</v>
-      </c>
-      <c r="N5" s="49">
-        <v>0</v>
-      </c>
-      <c r="O5" s="49">
-        <v>1</v>
-      </c>
-      <c r="P5" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="49">
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="47">
+        <v>0</v>
+      </c>
+      <c r="K5" s="47">
+        <v>0</v>
+      </c>
+      <c r="L5" s="47">
+        <v>1</v>
+      </c>
+      <c r="M5" s="47">
+        <v>1</v>
+      </c>
+      <c r="N5" s="47">
+        <v>0</v>
+      </c>
+      <c r="O5" s="47">
+        <v>1</v>
+      </c>
+      <c r="P5" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="47">
         <v>0</v>
       </c>
       <c r="R5" s="4" t="s">
@@ -3840,18 +3846,18 @@
         <f>2^0*J5+2^1*K5+2^2*L5+2^3*M5+2^4*N5+2^5*O5+2^6*P5+2^7*Q5</f>
         <v>44</v>
       </c>
-      <c r="T5" s="56" t="s">
+      <c r="T5" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="U5" s="56" t="str">
+      <c r="U5" s="52" t="str">
         <f t="shared" ref="U5:U66" si="0">DEC2HEX(S5,2)</f>
         <v>2C</v>
       </c>
-      <c r="V5" s="56" t="str">
+      <c r="V5" s="52" t="str">
         <f>DEC2HEX(0,2)</f>
         <v>00</v>
       </c>
-      <c r="W5" s="56" t="str">
+      <c r="W5" s="52" t="str">
         <f>DEC2HEX(A5,2)</f>
         <v>00</v>
       </c>
@@ -3869,27 +3875,27 @@
         <f>A5+1</f>
         <v>1</v>
       </c>
-      <c r="C6" s="72" t="str">
+      <c r="C6" s="65" t="str">
         <f t="shared" ref="C6:C68" si="1">DEC2HEX(A6,2)</f>
         <v>01</v>
       </c>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52">
-        <v>0</v>
-      </c>
-      <c r="H6" s="52"/>
-      <c r="I6" s="62">
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49">
+        <v>0</v>
+      </c>
+      <c r="H6" s="49"/>
+      <c r="I6" s="57">
         <v>8</v>
       </c>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="49"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
       <c r="R6" s="4" t="s">
         <v>144</v>
       </c>
@@ -3897,18 +3903,18 @@
         <f>I6+G6*2^4</f>
         <v>8</v>
       </c>
-      <c r="T6" s="56" t="s">
+      <c r="T6" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="U6" s="56" t="str">
+      <c r="U6" s="52" t="str">
         <f t="shared" si="0"/>
         <v>08</v>
       </c>
-      <c r="V6" s="56" t="str">
+      <c r="V6" s="52" t="str">
         <f t="shared" ref="V6:V66" si="2">DEC2HEX(0,2)</f>
         <v>00</v>
       </c>
-      <c r="W6" s="56" t="str">
+      <c r="W6" s="52" t="str">
         <f t="shared" ref="W6:W66" si="3">DEC2HEX(A6,2)</f>
         <v>01</v>
       </c>
@@ -3922,29 +3928,29 @@
         <f t="shared" ref="A7:A68" si="5">A6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="72" t="str">
+      <c r="C7" s="65" t="str">
         <f t="shared" si="1"/>
         <v>02</v>
       </c>
-      <c r="E7" s="52">
-        <v>1</v>
-      </c>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52">
-        <v>0</v>
-      </c>
-      <c r="H7" s="52">
-        <v>1</v>
-      </c>
-      <c r="I7" s="62"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="49"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="49"/>
+      <c r="E7" s="49">
+        <v>1</v>
+      </c>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49">
+        <v>0</v>
+      </c>
+      <c r="H7" s="49">
+        <v>1</v>
+      </c>
+      <c r="I7" s="57"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
       <c r="R7" s="4" t="s">
         <v>115</v>
       </c>
@@ -3952,18 +3958,18 @@
         <f>2^0*E7+2^1*F7+H7*2^7+G7*2^4</f>
         <v>129</v>
       </c>
-      <c r="T7" s="56" t="s">
+      <c r="T7" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="U7" s="56" t="str">
+      <c r="U7" s="52" t="str">
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
-      <c r="V7" s="56" t="str">
+      <c r="V7" s="52" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="W7" s="56" t="str">
+      <c r="W7" s="52" t="str">
         <f t="shared" si="3"/>
         <v>02</v>
       </c>
@@ -3977,37 +3983,37 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="C8" s="72" t="str">
+      <c r="C8" s="65" t="str">
         <f t="shared" si="1"/>
         <v>03</v>
       </c>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="49">
-        <v>0</v>
-      </c>
-      <c r="K8" s="49">
-        <v>0</v>
-      </c>
-      <c r="L8" s="49">
-        <v>0</v>
-      </c>
-      <c r="M8" s="49">
-        <v>0</v>
-      </c>
-      <c r="N8" s="49">
-        <v>1</v>
-      </c>
-      <c r="O8" s="49">
-        <v>1</v>
-      </c>
-      <c r="P8" s="49">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="49">
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="47">
+        <v>0</v>
+      </c>
+      <c r="K8" s="47">
+        <v>0</v>
+      </c>
+      <c r="L8" s="47">
+        <v>0</v>
+      </c>
+      <c r="M8" s="47">
+        <v>0</v>
+      </c>
+      <c r="N8" s="47">
+        <v>1</v>
+      </c>
+      <c r="O8" s="47">
+        <v>1</v>
+      </c>
+      <c r="P8" s="47">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="47">
         <v>0</v>
       </c>
       <c r="R8" s="4" t="s">
@@ -4017,18 +4023,18 @@
         <f>2^0*J8+2^1*K8+2^2*L8+2^3*M8+2^4*N8+2^5*O8+2^6*P8+2^7*Q8</f>
         <v>112</v>
       </c>
-      <c r="T8" s="56" t="s">
+      <c r="T8" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="U8" s="56" t="str">
+      <c r="U8" s="52" t="str">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="V8" s="56" t="str">
+      <c r="V8" s="52" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="W8" s="56" t="str">
+      <c r="W8" s="52" t="str">
         <f t="shared" si="3"/>
         <v>03</v>
       </c>
@@ -4042,27 +4048,27 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="C9" s="72" t="str">
+      <c r="C9" s="65" t="str">
         <f t="shared" si="1"/>
         <v>04</v>
       </c>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52">
-        <v>0</v>
-      </c>
-      <c r="H9" s="52"/>
-      <c r="I9" s="62">
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49">
+        <v>0</v>
+      </c>
+      <c r="H9" s="49"/>
+      <c r="I9" s="57">
         <v>3</v>
       </c>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="49"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="47"/>
       <c r="R9" s="4" t="s">
         <v>143</v>
       </c>
@@ -4070,18 +4076,18 @@
         <f>I9+G9*2^4</f>
         <v>3</v>
       </c>
-      <c r="T9" s="56" t="s">
+      <c r="T9" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="U9" s="56" t="str">
+      <c r="U9" s="52" t="str">
         <f t="shared" si="0"/>
         <v>03</v>
       </c>
-      <c r="V9" s="56" t="str">
+      <c r="V9" s="52" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="W9" s="56" t="str">
+      <c r="W9" s="52" t="str">
         <f t="shared" si="3"/>
         <v>04</v>
       </c>
@@ -4095,25 +4101,25 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="C10" s="72" t="str">
+      <c r="C10" s="65" t="str">
         <f t="shared" si="1"/>
         <v>05</v>
       </c>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52">
-        <v>0</v>
-      </c>
-      <c r="H10" s="52"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49">
+        <v>0</v>
+      </c>
+      <c r="H10" s="49"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="47"/>
       <c r="R10" s="4" t="s">
         <v>125</v>
       </c>
@@ -4121,18 +4127,18 @@
         <f>2^0*E10+2^1*F10+H10*2^7+G10*2^4</f>
         <v>0</v>
       </c>
-      <c r="T10" s="56" t="s">
+      <c r="T10" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="U10" s="56" t="str">
+      <c r="U10" s="52" t="str">
         <f t="shared" ref="U10" si="6">DEC2HEX(S10,2)</f>
         <v>00</v>
       </c>
-      <c r="V10" s="56" t="str">
+      <c r="V10" s="52" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="W10" s="56" t="str">
+      <c r="W10" s="52" t="str">
         <f t="shared" si="3"/>
         <v>05</v>
       </c>
@@ -4146,37 +4152,37 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="C11" s="72" t="str">
+      <c r="C11" s="65" t="str">
         <f t="shared" si="1"/>
         <v>06</v>
       </c>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="49">
-        <v>0</v>
-      </c>
-      <c r="K11" s="49">
-        <v>0</v>
-      </c>
-      <c r="L11" s="49">
-        <v>0</v>
-      </c>
-      <c r="M11" s="49">
-        <v>0</v>
-      </c>
-      <c r="N11" s="49">
-        <v>0</v>
-      </c>
-      <c r="O11" s="49">
-        <v>0</v>
-      </c>
-      <c r="P11" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="49">
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="47">
+        <v>0</v>
+      </c>
+      <c r="K11" s="47">
+        <v>0</v>
+      </c>
+      <c r="L11" s="47">
+        <v>0</v>
+      </c>
+      <c r="M11" s="47">
+        <v>0</v>
+      </c>
+      <c r="N11" s="47">
+        <v>0</v>
+      </c>
+      <c r="O11" s="47">
+        <v>0</v>
+      </c>
+      <c r="P11" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="47">
         <v>0</v>
       </c>
       <c r="R11" s="4" t="s">
@@ -4186,18 +4192,18 @@
         <f>2^0*J11+2^1*K11+2^2*L11+2^3*M11+2^4*N11+2^5*O11+2^6*P11+2^7*Q11</f>
         <v>0</v>
       </c>
-      <c r="T11" s="56" t="s">
+      <c r="T11" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="U11" s="56" t="str">
+      <c r="U11" s="52" t="str">
         <f t="shared" si="0"/>
         <v>00</v>
       </c>
-      <c r="V11" s="56" t="str">
+      <c r="V11" s="52" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="W11" s="56" t="str">
+      <c r="W11" s="52" t="str">
         <f t="shared" si="3"/>
         <v>06</v>
       </c>
@@ -4211,27 +4217,27 @@
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="C12" s="72" t="str">
+      <c r="C12" s="65" t="str">
         <f t="shared" si="1"/>
         <v>07</v>
       </c>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52">
-        <v>0</v>
-      </c>
-      <c r="H12" s="52"/>
-      <c r="I12" s="62">
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49">
+        <v>0</v>
+      </c>
+      <c r="H12" s="49"/>
+      <c r="I12" s="57">
         <v>9</v>
       </c>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="49"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="49"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="47"/>
       <c r="R12" s="4" t="s">
         <v>145</v>
       </c>
@@ -4239,18 +4245,18 @@
         <f>I12+G12*2^4</f>
         <v>9</v>
       </c>
-      <c r="T12" s="56" t="s">
+      <c r="T12" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="U12" s="56" t="str">
+      <c r="U12" s="52" t="str">
         <f t="shared" si="0"/>
         <v>09</v>
       </c>
-      <c r="V12" s="56" t="str">
+      <c r="V12" s="52" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="W12" s="56" t="str">
+      <c r="W12" s="52" t="str">
         <f t="shared" si="3"/>
         <v>07</v>
       </c>
@@ -4264,54 +4270,54 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="C13" s="72" t="str">
+      <c r="C13" s="65" t="str">
         <f t="shared" si="1"/>
         <v>08</v>
       </c>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52">
-        <v>1</v>
-      </c>
-      <c r="G13" s="52">
-        <v>0</v>
-      </c>
-      <c r="H13" s="52">
-        <v>1</v>
-      </c>
-      <c r="I13" s="62"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49">
+        <v>1</v>
+      </c>
+      <c r="G13" s="49">
+        <v>0</v>
+      </c>
+      <c r="H13" s="49">
+        <v>0</v>
+      </c>
+      <c r="I13" s="57"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="47"/>
       <c r="R13" s="4" t="s">
         <v>126</v>
       </c>
       <c r="S13" s="1">
         <f>2^0*E13+2^1*F13+H13*2^7+G13*2^4</f>
-        <v>130</v>
-      </c>
-      <c r="T13" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="T13" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="U13" s="56" t="str">
+      <c r="U13" s="52" t="str">
         <f t="shared" ref="U13" si="7">DEC2HEX(S13,2)</f>
-        <v>82</v>
-      </c>
-      <c r="V13" s="56" t="str">
+        <v>02</v>
+      </c>
+      <c r="V13" s="52" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="W13" s="56" t="str">
+      <c r="W13" s="52" t="str">
         <f t="shared" si="3"/>
         <v>08</v>
       </c>
       <c r="X13" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'W', 0x82}, // 08: Ждем слива или ошибки окончания таймера</v>
+        <v xml:space="preserve">   {'W', 0x02}, // 08: Ждем слива или ошибки окончания таймера</v>
       </c>
     </row>
     <row r="14" spans="1:27">
@@ -4319,37 +4325,37 @@
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="C14" s="72" t="str">
+      <c r="C14" s="65" t="str">
         <f t="shared" si="1"/>
         <v>09</v>
       </c>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="49">
-        <v>1</v>
-      </c>
-      <c r="K14" s="49">
-        <v>0</v>
-      </c>
-      <c r="L14" s="49">
-        <v>0</v>
-      </c>
-      <c r="M14" s="49">
-        <v>1</v>
-      </c>
-      <c r="N14" s="49">
-        <v>0</v>
-      </c>
-      <c r="O14" s="49">
-        <v>1</v>
-      </c>
-      <c r="P14" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="49">
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="47">
+        <v>1</v>
+      </c>
+      <c r="K14" s="47">
+        <v>0</v>
+      </c>
+      <c r="L14" s="47">
+        <v>0</v>
+      </c>
+      <c r="M14" s="47">
+        <v>1</v>
+      </c>
+      <c r="N14" s="47">
+        <v>0</v>
+      </c>
+      <c r="O14" s="47">
+        <v>1</v>
+      </c>
+      <c r="P14" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="47">
         <v>0</v>
       </c>
       <c r="R14" s="4" t="s">
@@ -4359,18 +4365,18 @@
         <f>2^0*J14+2^1*K14+2^2*L14+2^3*M14+2^4*N14+2^5*O14+2^6*P14+2^7*Q14</f>
         <v>41</v>
       </c>
-      <c r="T14" s="56" t="s">
+      <c r="T14" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="U14" s="56" t="str">
+      <c r="U14" s="52" t="str">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="V14" s="56" t="str">
+      <c r="V14" s="52" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="W14" s="56" t="str">
+      <c r="W14" s="52" t="str">
         <f t="shared" si="3"/>
         <v>09</v>
       </c>
@@ -4384,25 +4390,25 @@
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="C15" s="72" t="str">
+      <c r="C15" s="65" t="str">
         <f t="shared" si="1"/>
         <v>0A</v>
       </c>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52">
-        <v>1</v>
-      </c>
-      <c r="H15" s="52"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="49"/>
-      <c r="Q15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49">
+        <v>1</v>
+      </c>
+      <c r="H15" s="49"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="47"/>
       <c r="R15" s="4" t="s">
         <v>165</v>
       </c>
@@ -4410,18 +4416,18 @@
         <f>I15+G15*2^4</f>
         <v>16</v>
       </c>
-      <c r="T15" s="56" t="s">
+      <c r="T15" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="U15" s="56" t="str">
+      <c r="U15" s="52" t="str">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="V15" s="56" t="str">
+      <c r="V15" s="52" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="W15" s="56" t="str">
+      <c r="W15" s="52" t="str">
         <f t="shared" si="3"/>
         <v>0A</v>
       </c>
@@ -4435,27 +4441,27 @@
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="C16" s="72" t="str">
+      <c r="C16" s="65" t="str">
         <f t="shared" si="1"/>
         <v>0B</v>
       </c>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52">
-        <v>0</v>
-      </c>
-      <c r="H16" s="52"/>
-      <c r="I16" s="62">
-        <v>1</v>
-      </c>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="49"/>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49">
+        <v>0</v>
+      </c>
+      <c r="H16" s="49"/>
+      <c r="I16" s="57">
+        <v>1</v>
+      </c>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="47"/>
       <c r="R16" s="4" t="s">
         <v>146</v>
       </c>
@@ -4463,18 +4469,18 @@
         <f>I16+G16*2^4</f>
         <v>1</v>
       </c>
-      <c r="T16" s="56" t="s">
+      <c r="T16" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="U16" s="56" t="str">
+      <c r="U16" s="52" t="str">
         <f t="shared" si="0"/>
         <v>01</v>
       </c>
-      <c r="V16" s="56" t="str">
+      <c r="V16" s="52" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="W16" s="56" t="str">
+      <c r="W16" s="52" t="str">
         <f t="shared" si="3"/>
         <v>0B</v>
       </c>
@@ -4488,27 +4494,27 @@
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="C17" s="72" t="str">
+      <c r="C17" s="65" t="str">
         <f t="shared" si="1"/>
         <v>0C</v>
       </c>
-      <c r="E17" s="52">
-        <v>1</v>
-      </c>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52">
-        <v>0</v>
-      </c>
-      <c r="H17" s="52"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="49"/>
-      <c r="P17" s="49"/>
-      <c r="Q17" s="49"/>
+      <c r="E17" s="49">
+        <v>1</v>
+      </c>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49">
+        <v>0</v>
+      </c>
+      <c r="H17" s="49"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="47"/>
       <c r="R17" s="4" t="s">
         <v>100</v>
       </c>
@@ -4516,18 +4522,18 @@
         <f>2^0*E17+2^1*F17+H17*2^7+G17*2^4</f>
         <v>1</v>
       </c>
-      <c r="T17" s="56" t="s">
+      <c r="T17" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="U17" s="56" t="str">
+      <c r="U17" s="52" t="str">
         <f t="shared" ref="U17" si="8">DEC2HEX(S17,2)</f>
         <v>01</v>
       </c>
-      <c r="V17" s="56" t="str">
+      <c r="V17" s="52" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="W17" s="56" t="str">
+      <c r="W17" s="52" t="str">
         <f t="shared" si="3"/>
         <v>0C</v>
       </c>
@@ -4541,37 +4547,37 @@
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="C18" s="72" t="str">
+      <c r="C18" s="65" t="str">
         <f t="shared" si="1"/>
         <v>0D</v>
       </c>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="49">
-        <v>0</v>
-      </c>
-      <c r="K18" s="49">
-        <v>0</v>
-      </c>
-      <c r="L18" s="49">
-        <v>0</v>
-      </c>
-      <c r="M18" s="49">
-        <v>1</v>
-      </c>
-      <c r="N18" s="49">
-        <v>0</v>
-      </c>
-      <c r="O18" s="49">
-        <v>1</v>
-      </c>
-      <c r="P18" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="49">
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="47">
+        <v>0</v>
+      </c>
+      <c r="K18" s="47">
+        <v>0</v>
+      </c>
+      <c r="L18" s="47">
+        <v>0</v>
+      </c>
+      <c r="M18" s="47">
+        <v>1</v>
+      </c>
+      <c r="N18" s="47">
+        <v>0</v>
+      </c>
+      <c r="O18" s="47">
+        <v>1</v>
+      </c>
+      <c r="P18" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="47">
         <v>0</v>
       </c>
       <c r="R18" s="4" t="s">
@@ -4581,18 +4587,18 @@
         <f>2^0*J18+2^1*K18+2^2*L18+2^3*M18+2^4*N18+2^5*O18+2^6*P18+2^7*Q18</f>
         <v>40</v>
       </c>
-      <c r="T18" s="56" t="s">
+      <c r="T18" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="U18" s="56" t="str">
+      <c r="U18" s="52" t="str">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="V18" s="56" t="str">
+      <c r="V18" s="52" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="W18" s="56" t="str">
+      <c r="W18" s="52" t="str">
         <f t="shared" si="3"/>
         <v>0D</v>
       </c>
@@ -4606,27 +4612,27 @@
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="C19" s="72" t="str">
+      <c r="C19" s="65" t="str">
         <f t="shared" si="1"/>
         <v>0E</v>
       </c>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52">
-        <v>0</v>
-      </c>
-      <c r="H19" s="52"/>
-      <c r="I19" s="62">
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49">
+        <v>0</v>
+      </c>
+      <c r="H19" s="49"/>
+      <c r="I19" s="57">
         <v>8</v>
       </c>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="49"/>
-      <c r="O19" s="49"/>
-      <c r="P19" s="49"/>
-      <c r="Q19" s="49"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="47"/>
+      <c r="Q19" s="47"/>
       <c r="R19" s="4" t="s">
         <v>144</v>
       </c>
@@ -4634,18 +4640,18 @@
         <f>I19+G19*2^4</f>
         <v>8</v>
       </c>
-      <c r="T19" s="56" t="s">
+      <c r="T19" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="U19" s="56" t="str">
+      <c r="U19" s="52" t="str">
         <f t="shared" si="0"/>
         <v>08</v>
       </c>
-      <c r="V19" s="56" t="str">
+      <c r="V19" s="52" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="W19" s="56" t="str">
+      <c r="W19" s="52" t="str">
         <f t="shared" si="3"/>
         <v>0E</v>
       </c>
@@ -4659,29 +4665,29 @@
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="C20" s="72" t="str">
+      <c r="C20" s="65" t="str">
         <f t="shared" si="1"/>
         <v>0F</v>
       </c>
-      <c r="E20" s="52">
-        <v>1</v>
-      </c>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52">
-        <v>0</v>
-      </c>
-      <c r="H20" s="52">
-        <v>1</v>
-      </c>
-      <c r="I20" s="62"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="49"/>
-      <c r="N20" s="49"/>
-      <c r="O20" s="49"/>
-      <c r="P20" s="49"/>
-      <c r="Q20" s="49"/>
+      <c r="E20" s="49">
+        <v>1</v>
+      </c>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49">
+        <v>0</v>
+      </c>
+      <c r="H20" s="49">
+        <v>1</v>
+      </c>
+      <c r="I20" s="57"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="47"/>
       <c r="R20" s="4" t="s">
         <v>115</v>
       </c>
@@ -4689,18 +4695,18 @@
         <f>2^0*E20+2^1*F20+H20*2^7+G20*2^4</f>
         <v>129</v>
       </c>
-      <c r="T20" s="56" t="s">
+      <c r="T20" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="U20" s="56" t="str">
+      <c r="U20" s="52" t="str">
         <f t="shared" ref="U20" si="9">DEC2HEX(S20,2)</f>
         <v>81</v>
       </c>
-      <c r="V20" s="56" t="str">
+      <c r="V20" s="52" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="W20" s="56" t="str">
+      <c r="W20" s="52" t="str">
         <f t="shared" si="3"/>
         <v>0F</v>
       </c>
@@ -4714,27 +4720,27 @@
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="C21" s="72" t="str">
+      <c r="C21" s="65" t="str">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52">
-        <v>1</v>
-      </c>
-      <c r="H21" s="52"/>
-      <c r="I21" s="62">
-        <v>0</v>
-      </c>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="49"/>
-      <c r="N21" s="49"/>
-      <c r="O21" s="49"/>
-      <c r="P21" s="49"/>
-      <c r="Q21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49">
+        <v>1</v>
+      </c>
+      <c r="H21" s="49"/>
+      <c r="I21" s="57">
+        <v>0</v>
+      </c>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="47"/>
+      <c r="Q21" s="47"/>
       <c r="R21" s="4" t="s">
         <v>162</v>
       </c>
@@ -4742,18 +4748,18 @@
         <f>I21+G21*2^4+2</f>
         <v>18</v>
       </c>
-      <c r="T21" s="56" t="s">
+      <c r="T21" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="U21" s="56" t="str">
+      <c r="U21" s="52" t="str">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="V21" s="56" t="str">
+      <c r="V21" s="52" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="W21" s="56" t="str">
+      <c r="W21" s="52" t="str">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
@@ -4767,37 +4773,37 @@
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="C22" s="72" t="str">
+      <c r="C22" s="65" t="str">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="49">
-        <v>0</v>
-      </c>
-      <c r="K22" s="49">
-        <v>0</v>
-      </c>
-      <c r="L22" s="49">
-        <v>0</v>
-      </c>
-      <c r="M22" s="49">
-        <v>0</v>
-      </c>
-      <c r="N22" s="49">
-        <v>1</v>
-      </c>
-      <c r="O22" s="49">
-        <v>1</v>
-      </c>
-      <c r="P22" s="49">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="49">
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="47">
+        <v>0</v>
+      </c>
+      <c r="K22" s="47">
+        <v>0</v>
+      </c>
+      <c r="L22" s="47">
+        <v>0</v>
+      </c>
+      <c r="M22" s="47">
+        <v>0</v>
+      </c>
+      <c r="N22" s="47">
+        <v>1</v>
+      </c>
+      <c r="O22" s="47">
+        <v>1</v>
+      </c>
+      <c r="P22" s="47">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="47">
         <v>0</v>
       </c>
       <c r="R22" s="4" t="s">
@@ -4807,18 +4813,18 @@
         <f>2^0*J22+2^1*K22+2^2*L22+2^3*M22+2^4*N22+2^5*O22+2^6*P22+2^7*Q22</f>
         <v>112</v>
       </c>
-      <c r="T22" s="56" t="s">
+      <c r="T22" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="U22" s="56" t="str">
+      <c r="U22" s="52" t="str">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="V22" s="56" t="str">
+      <c r="V22" s="52" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="W22" s="56" t="str">
+      <c r="W22" s="52" t="str">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
@@ -4832,27 +4838,27 @@
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="C23" s="72" t="str">
+      <c r="C23" s="65" t="str">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52">
-        <v>0</v>
-      </c>
-      <c r="H23" s="52"/>
-      <c r="I23" s="62">
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49">
+        <v>0</v>
+      </c>
+      <c r="H23" s="49"/>
+      <c r="I23" s="57">
         <v>4</v>
       </c>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="49"/>
-      <c r="P23" s="49"/>
-      <c r="Q23" s="49"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="47"/>
+      <c r="Q23" s="47"/>
       <c r="R23" s="4" t="s">
         <v>147</v>
       </c>
@@ -4860,18 +4866,18 @@
         <f>I23+G23*2^4</f>
         <v>4</v>
       </c>
-      <c r="T23" s="56" t="s">
+      <c r="T23" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="U23" s="56" t="str">
+      <c r="U23" s="52" t="str">
         <f t="shared" si="0"/>
         <v>04</v>
       </c>
-      <c r="V23" s="56" t="str">
+      <c r="V23" s="52" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="W23" s="56" t="str">
+      <c r="W23" s="52" t="str">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
@@ -4885,27 +4891,27 @@
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
-      <c r="C24" s="72" t="str">
+      <c r="C24" s="65" t="str">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52">
-        <v>1</v>
-      </c>
-      <c r="G24" s="52">
-        <v>0</v>
-      </c>
-      <c r="H24" s="52"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="49"/>
-      <c r="P24" s="49"/>
-      <c r="Q24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49">
+        <v>1</v>
+      </c>
+      <c r="G24" s="49">
+        <v>0</v>
+      </c>
+      <c r="H24" s="49"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="47"/>
+      <c r="Q24" s="47"/>
       <c r="R24" s="4" t="s">
         <v>104</v>
       </c>
@@ -4913,18 +4919,18 @@
         <f>2^0*E24+2^1*F24+H24*2^7+G24*2^4</f>
         <v>2</v>
       </c>
-      <c r="T24" s="56" t="s">
+      <c r="T24" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="U24" s="56" t="str">
+      <c r="U24" s="52" t="str">
         <f t="shared" si="0"/>
         <v>02</v>
       </c>
-      <c r="V24" s="56" t="str">
+      <c r="V24" s="52" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="W24" s="56" t="str">
+      <c r="W24" s="52" t="str">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
@@ -4938,28 +4944,28 @@
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="C25" s="72" t="str">
+      <c r="C25" s="65" t="str">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="D25" t="s">
         <v>106</v>
       </c>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52">
-        <v>0</v>
-      </c>
-      <c r="H25" s="52"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="49"/>
-      <c r="O25" s="49"/>
-      <c r="P25" s="49"/>
-      <c r="Q25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49">
+        <v>0</v>
+      </c>
+      <c r="H25" s="49"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="47"/>
+      <c r="Q25" s="47"/>
       <c r="R25" s="4" t="s">
         <v>105</v>
       </c>
@@ -4967,18 +4973,18 @@
         <f>I25+ROW(D31)-ROW(D25)</f>
         <v>6</v>
       </c>
-      <c r="T25" s="56" t="s">
+      <c r="T25" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="U25" s="56" t="str">
+      <c r="U25" s="52" t="str">
         <f t="shared" si="0"/>
         <v>06</v>
       </c>
-      <c r="V25" s="56" t="str">
+      <c r="V25" s="52" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="W25" s="56" t="str">
+      <c r="W25" s="52" t="str">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
@@ -4992,40 +4998,40 @@
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
-      <c r="C26" s="72" t="str">
+      <c r="C26" s="65" t="str">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="D26" t="s">
         <v>111</v>
       </c>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="49">
-        <v>0</v>
-      </c>
-      <c r="K26" s="49">
-        <v>0</v>
-      </c>
-      <c r="L26" s="49">
-        <v>0</v>
-      </c>
-      <c r="M26" s="49">
-        <v>1</v>
-      </c>
-      <c r="N26" s="49">
-        <v>1</v>
-      </c>
-      <c r="O26" s="49">
-        <v>1</v>
-      </c>
-      <c r="P26" s="49">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="49">
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="47">
+        <v>0</v>
+      </c>
+      <c r="K26" s="47">
+        <v>0</v>
+      </c>
+      <c r="L26" s="47">
+        <v>0</v>
+      </c>
+      <c r="M26" s="47">
+        <v>1</v>
+      </c>
+      <c r="N26" s="47">
+        <v>1</v>
+      </c>
+      <c r="O26" s="47">
+        <v>1</v>
+      </c>
+      <c r="P26" s="47">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="47">
         <v>0</v>
       </c>
       <c r="R26" s="4" t="s">
@@ -5035,18 +5041,18 @@
         <f>2^0*J26+2^1*K26+2^2*L26+2^3*M26+2^4*N26+2^5*O26+2^6*P26+2^7*Q26</f>
         <v>120</v>
       </c>
-      <c r="T26" s="56" t="s">
+      <c r="T26" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="U26" s="56" t="str">
+      <c r="U26" s="52" t="str">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
-      <c r="V26" s="56" t="str">
+      <c r="V26" s="52" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="W26" s="56" t="str">
+      <c r="W26" s="52" t="str">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
@@ -5060,30 +5066,30 @@
         <f t="shared" si="5"/>
         <v>22</v>
       </c>
-      <c r="C27" s="72" t="str">
+      <c r="C27" s="65" t="str">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="D27" t="s">
         <v>111</v>
       </c>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="64">
-        <v>1</v>
-      </c>
-      <c r="H27" s="64"/>
-      <c r="I27" s="65">
-        <v>0</v>
-      </c>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="49"/>
-      <c r="O27" s="49"/>
-      <c r="P27" s="49"/>
-      <c r="Q27" s="49"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59">
+        <v>1</v>
+      </c>
+      <c r="H27" s="59"/>
+      <c r="I27" s="60">
+        <v>0</v>
+      </c>
+      <c r="J27" s="47"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="47"/>
+      <c r="Q27" s="47"/>
       <c r="R27" s="4" t="s">
         <v>166</v>
       </c>
@@ -5091,18 +5097,18 @@
         <f>I27+G27*2^4</f>
         <v>16</v>
       </c>
-      <c r="T27" s="70" t="s">
+      <c r="T27" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="U27" s="56" t="str">
+      <c r="U27" s="52" t="str">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="V27" s="56" t="str">
+      <c r="V27" s="52" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="W27" s="56" t="str">
+      <c r="W27" s="52" t="str">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
@@ -5116,30 +5122,30 @@
         <f t="shared" si="5"/>
         <v>23</v>
       </c>
-      <c r="C28" s="72" t="str">
+      <c r="C28" s="65" t="str">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="D28" t="s">
         <v>111</v>
       </c>
-      <c r="E28" s="52">
-        <v>1</v>
-      </c>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52">
-        <v>1</v>
-      </c>
-      <c r="H28" s="52"/>
-      <c r="I28" s="62"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="50"/>
-      <c r="N28" s="50"/>
-      <c r="O28" s="50"/>
-      <c r="P28" s="50"/>
-      <c r="Q28" s="50"/>
+      <c r="E28" s="49">
+        <v>1</v>
+      </c>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49">
+        <v>1</v>
+      </c>
+      <c r="H28" s="49"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="48"/>
+      <c r="O28" s="48"/>
+      <c r="P28" s="48"/>
+      <c r="Q28" s="48"/>
       <c r="R28" s="4" t="s">
         <v>167</v>
       </c>
@@ -5147,18 +5153,18 @@
         <f>2^0*E28+2^1*F28+H28*2^7+G28*2^4</f>
         <v>17</v>
       </c>
-      <c r="T28" s="56" t="s">
+      <c r="T28" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="U28" s="56" t="str">
+      <c r="U28" s="52" t="str">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="V28" s="56" t="str">
+      <c r="V28" s="52" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="W28" s="56" t="str">
+      <c r="W28" s="52" t="str">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
@@ -5172,40 +5178,40 @@
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
-      <c r="C29" s="72" t="str">
+      <c r="C29" s="65" t="str">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="D29" t="s">
         <v>111</v>
       </c>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="49">
-        <v>0</v>
-      </c>
-      <c r="K29" s="49">
-        <v>0</v>
-      </c>
-      <c r="L29" s="49">
-        <v>0</v>
-      </c>
-      <c r="M29" s="49">
-        <v>0</v>
-      </c>
-      <c r="N29" s="49">
-        <v>1</v>
-      </c>
-      <c r="O29" s="49">
-        <v>1</v>
-      </c>
-      <c r="P29" s="49">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="49">
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="47">
+        <v>0</v>
+      </c>
+      <c r="K29" s="47">
+        <v>0</v>
+      </c>
+      <c r="L29" s="47">
+        <v>0</v>
+      </c>
+      <c r="M29" s="47">
+        <v>0</v>
+      </c>
+      <c r="N29" s="47">
+        <v>1</v>
+      </c>
+      <c r="O29" s="47">
+        <v>1</v>
+      </c>
+      <c r="P29" s="47">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="47">
         <v>0</v>
       </c>
       <c r="R29" s="4" t="s">
@@ -5215,18 +5221,18 @@
         <f>2^0*J29+2^1*K29+2^2*L29+2^3*M29+2^4*N29+2^5*O29+2^6*P29+2^7*Q29</f>
         <v>112</v>
       </c>
-      <c r="T29" s="56" t="s">
+      <c r="T29" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="U29" s="56" t="str">
+      <c r="U29" s="52" t="str">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="V29" s="56" t="str">
+      <c r="V29" s="52" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="W29" s="56" t="str">
+      <c r="W29" s="52" t="str">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
@@ -5240,49 +5246,49 @@
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="C30" s="72" t="str">
+      <c r="C30" s="65" t="str">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="D30" t="s">
         <v>111</v>
       </c>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52">
-        <v>1</v>
-      </c>
-      <c r="G30" s="52">
-        <v>0</v>
-      </c>
-      <c r="H30" s="52"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="49"/>
-      <c r="O30" s="49"/>
-      <c r="P30" s="49"/>
-      <c r="Q30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49">
+        <v>1</v>
+      </c>
+      <c r="G30" s="49">
+        <v>0</v>
+      </c>
+      <c r="H30" s="49"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="47"/>
+      <c r="M30" s="47"/>
+      <c r="N30" s="47"/>
+      <c r="O30" s="47"/>
+      <c r="P30" s="47"/>
+      <c r="Q30" s="47"/>
       <c r="R30" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="S30" s="69">
+      <c r="S30" s="63">
         <f>2^0*E30+2^1*F30+H30*2^7+G30*2^4</f>
         <v>2</v>
       </c>
-      <c r="T30" s="57" t="s">
+      <c r="T30" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="U30" s="57" t="str">
+      <c r="U30" s="53" t="str">
         <f t="shared" si="0"/>
         <v>02</v>
       </c>
-      <c r="V30" s="57" t="str">
+      <c r="V30" s="53" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="W30" s="57" t="str">
+      <c r="W30" s="53" t="str">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
@@ -5296,40 +5302,40 @@
         <f t="shared" si="5"/>
         <v>26</v>
       </c>
-      <c r="C31" s="72" t="str">
+      <c r="C31" s="65" t="str">
         <f t="shared" si="1"/>
         <v>1A</v>
       </c>
-      <c r="D31" s="47" t="s">
+      <c r="D31" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="49">
-        <v>0</v>
-      </c>
-      <c r="K31" s="49">
-        <v>0</v>
-      </c>
-      <c r="L31" s="49">
-        <v>0</v>
-      </c>
-      <c r="M31" s="49">
-        <v>0</v>
-      </c>
-      <c r="N31" s="49">
-        <v>1</v>
-      </c>
-      <c r="O31" s="49">
-        <v>0</v>
-      </c>
-      <c r="P31" s="49">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="49">
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="47">
+        <v>0</v>
+      </c>
+      <c r="K31" s="47">
+        <v>0</v>
+      </c>
+      <c r="L31" s="47">
+        <v>0</v>
+      </c>
+      <c r="M31" s="47">
+        <v>0</v>
+      </c>
+      <c r="N31" s="47">
+        <v>1</v>
+      </c>
+      <c r="O31" s="47">
+        <v>0</v>
+      </c>
+      <c r="P31" s="47">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="47">
         <v>0</v>
       </c>
       <c r="R31" s="4" t="s">
@@ -5339,18 +5345,18 @@
         <f>2^0*J31+2^1*K31+2^2*L31+2^3*M31+2^4*N31+2^5*O31+2^6*P31+2^7*Q31</f>
         <v>80</v>
       </c>
-      <c r="T31" s="56" t="s">
+      <c r="T31" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="U31" s="56" t="str">
+      <c r="U31" s="52" t="str">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="V31" s="56" t="str">
+      <c r="V31" s="52" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="W31" s="56" t="str">
+      <c r="W31" s="52" t="str">
         <f t="shared" si="3"/>
         <v>1A</v>
       </c>
@@ -5364,28 +5370,28 @@
         <f t="shared" si="5"/>
         <v>27</v>
       </c>
-      <c r="C32" s="72" t="str">
+      <c r="C32" s="65" t="str">
         <f t="shared" si="1"/>
         <v>1B</v>
       </c>
-      <c r="D32" s="47"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52">
-        <v>0</v>
-      </c>
-      <c r="H32" s="52"/>
-      <c r="I32" s="62">
+      <c r="D32" s="46"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49">
+        <v>0</v>
+      </c>
+      <c r="H32" s="49"/>
+      <c r="I32" s="57">
         <v>9</v>
       </c>
-      <c r="J32" s="49"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="49"/>
-      <c r="M32" s="49"/>
-      <c r="N32" s="49"/>
-      <c r="O32" s="49"/>
-      <c r="P32" s="49"/>
-      <c r="Q32" s="49"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="47"/>
+      <c r="O32" s="47"/>
+      <c r="P32" s="47"/>
+      <c r="Q32" s="47"/>
       <c r="R32" s="4" t="s">
         <v>145</v>
       </c>
@@ -5393,18 +5399,18 @@
         <f>I32+G32*2^4</f>
         <v>9</v>
       </c>
-      <c r="T32" s="56" t="s">
+      <c r="T32" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="U32" s="56" t="str">
+      <c r="U32" s="52" t="str">
         <f t="shared" si="0"/>
         <v>09</v>
       </c>
-      <c r="V32" s="56" t="str">
+      <c r="V32" s="52" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="W32" s="56" t="str">
+      <c r="W32" s="52" t="str">
         <f t="shared" si="3"/>
         <v>1B</v>
       </c>
@@ -5418,54 +5424,54 @@
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="C33" s="72" t="str">
+      <c r="C33" s="65" t="str">
         <f t="shared" si="1"/>
         <v>1C</v>
       </c>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52">
-        <v>1</v>
-      </c>
-      <c r="G33" s="52">
-        <v>0</v>
-      </c>
-      <c r="H33" s="52">
-        <v>1</v>
-      </c>
-      <c r="I33" s="62"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="49"/>
-      <c r="L33" s="49"/>
-      <c r="M33" s="49"/>
-      <c r="N33" s="49"/>
-      <c r="O33" s="49"/>
-      <c r="P33" s="49"/>
-      <c r="Q33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49">
+        <v>1</v>
+      </c>
+      <c r="G33" s="49">
+        <v>0</v>
+      </c>
+      <c r="H33" s="49">
+        <v>0</v>
+      </c>
+      <c r="I33" s="57"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="47"/>
+      <c r="L33" s="47"/>
+      <c r="M33" s="47"/>
+      <c r="N33" s="47"/>
+      <c r="O33" s="47"/>
+      <c r="P33" s="47"/>
+      <c r="Q33" s="47"/>
       <c r="R33" s="4" t="s">
         <v>126</v>
       </c>
       <c r="S33" s="1">
         <f>2^0*E33+2^1*F33+H33*2^7+G33*2^4</f>
-        <v>130</v>
-      </c>
-      <c r="T33" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="T33" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="U33" s="56" t="str">
+      <c r="U33" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>82</v>
-      </c>
-      <c r="V33" s="56" t="str">
+        <v>02</v>
+      </c>
+      <c r="V33" s="52" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="W33" s="56" t="str">
+      <c r="W33" s="52" t="str">
         <f t="shared" si="3"/>
         <v>1C</v>
       </c>
       <c r="X33" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'W', 0x82}, // 1C: Ждем слива или ошибки окончания таймера</v>
+        <v xml:space="preserve">   {'W', 0x02}, // 1C: Ждем слива или ошибки окончания таймера</v>
       </c>
     </row>
     <row r="34" spans="1:24">
@@ -5473,37 +5479,37 @@
         <f t="shared" si="5"/>
         <v>29</v>
       </c>
-      <c r="C34" s="72" t="str">
+      <c r="C34" s="65" t="str">
         <f t="shared" si="1"/>
         <v>1D</v>
       </c>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="62"/>
-      <c r="J34" s="49">
-        <v>0</v>
-      </c>
-      <c r="K34" s="49">
-        <v>0</v>
-      </c>
-      <c r="L34" s="49">
-        <v>1</v>
-      </c>
-      <c r="M34" s="49">
-        <v>0</v>
-      </c>
-      <c r="N34" s="49">
-        <v>0</v>
-      </c>
-      <c r="O34" s="49">
-        <v>1</v>
-      </c>
-      <c r="P34" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="49">
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="47">
+        <v>0</v>
+      </c>
+      <c r="K34" s="47">
+        <v>0</v>
+      </c>
+      <c r="L34" s="47">
+        <v>1</v>
+      </c>
+      <c r="M34" s="47">
+        <v>0</v>
+      </c>
+      <c r="N34" s="47">
+        <v>0</v>
+      </c>
+      <c r="O34" s="47">
+        <v>1</v>
+      </c>
+      <c r="P34" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="47">
         <v>0</v>
       </c>
       <c r="R34" s="4" t="s">
@@ -5513,18 +5519,18 @@
         <f>2^0*J34+2^1*K34+2^2*L34+2^3*M34+2^4*N34+2^5*O34+2^6*P34+2^7*Q34</f>
         <v>36</v>
       </c>
-      <c r="T34" s="56" t="s">
+      <c r="T34" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="U34" s="56" t="str">
+      <c r="U34" s="52" t="str">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="V34" s="56" t="str">
+      <c r="V34" s="52" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="W34" s="56" t="str">
+      <c r="W34" s="52" t="str">
         <f t="shared" si="3"/>
         <v>1D</v>
       </c>
@@ -5538,25 +5544,25 @@
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="C35" s="72" t="str">
+      <c r="C35" s="65" t="str">
         <f t="shared" si="1"/>
         <v>1E</v>
       </c>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="62">
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="57">
         <v>8</v>
       </c>
-      <c r="J35" s="49"/>
-      <c r="K35" s="49"/>
-      <c r="L35" s="49"/>
-      <c r="M35" s="49"/>
-      <c r="N35" s="49"/>
-      <c r="O35" s="49"/>
-      <c r="P35" s="49"/>
-      <c r="Q35" s="49"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="47"/>
+      <c r="L35" s="47"/>
+      <c r="M35" s="47"/>
+      <c r="N35" s="47"/>
+      <c r="O35" s="47"/>
+      <c r="P35" s="47"/>
+      <c r="Q35" s="47"/>
       <c r="R35" s="4" t="s">
         <v>144</v>
       </c>
@@ -5564,18 +5570,18 @@
         <f>I35+G35*2^4</f>
         <v>8</v>
       </c>
-      <c r="T35" s="56" t="s">
+      <c r="T35" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="U35" s="56" t="str">
+      <c r="U35" s="52" t="str">
         <f t="shared" si="0"/>
         <v>08</v>
       </c>
-      <c r="V35" s="56" t="str">
+      <c r="V35" s="52" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="W35" s="56" t="str">
+      <c r="W35" s="52" t="str">
         <f t="shared" si="3"/>
         <v>1E</v>
       </c>
@@ -5589,29 +5595,29 @@
         <f t="shared" si="5"/>
         <v>31</v>
       </c>
-      <c r="C36" s="72" t="str">
+      <c r="C36" s="65" t="str">
         <f t="shared" si="1"/>
         <v>1F</v>
       </c>
-      <c r="E36" s="52">
-        <v>1</v>
-      </c>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52">
-        <v>0</v>
-      </c>
-      <c r="H36" s="52">
-        <v>1</v>
-      </c>
-      <c r="I36" s="62"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="49"/>
-      <c r="L36" s="49"/>
-      <c r="M36" s="49"/>
-      <c r="N36" s="49"/>
-      <c r="O36" s="49"/>
-      <c r="P36" s="49"/>
-      <c r="Q36" s="49"/>
+      <c r="E36" s="49">
+        <v>1</v>
+      </c>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49">
+        <v>0</v>
+      </c>
+      <c r="H36" s="49">
+        <v>1</v>
+      </c>
+      <c r="I36" s="57"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="47"/>
+      <c r="N36" s="47"/>
+      <c r="O36" s="47"/>
+      <c r="P36" s="47"/>
+      <c r="Q36" s="47"/>
       <c r="R36" s="4" t="s">
         <v>115</v>
       </c>
@@ -5619,18 +5625,18 @@
         <f>2^0*E36+2^1*F36+H36*2^7+G36*2^4</f>
         <v>129</v>
       </c>
-      <c r="T36" s="56" t="s">
+      <c r="T36" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="U36" s="56" t="str">
+      <c r="U36" s="52" t="str">
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
-      <c r="V36" s="56" t="str">
+      <c r="V36" s="52" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="W36" s="56" t="str">
+      <c r="W36" s="52" t="str">
         <f t="shared" si="3"/>
         <v>1F</v>
       </c>
@@ -5644,37 +5650,37 @@
         <f t="shared" si="5"/>
         <v>32</v>
       </c>
-      <c r="C37" s="72" t="str">
+      <c r="C37" s="65" t="str">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="E37" s="52"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="62"/>
-      <c r="J37" s="49">
-        <v>0</v>
-      </c>
-      <c r="K37" s="49">
-        <v>0</v>
-      </c>
-      <c r="L37" s="49">
-        <v>0</v>
-      </c>
-      <c r="M37" s="49">
-        <v>0</v>
-      </c>
-      <c r="N37" s="49">
-        <v>1</v>
-      </c>
-      <c r="O37" s="49">
-        <v>0</v>
-      </c>
-      <c r="P37" s="49">
-        <v>1</v>
-      </c>
-      <c r="Q37" s="49">
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="57"/>
+      <c r="J37" s="47">
+        <v>0</v>
+      </c>
+      <c r="K37" s="47">
+        <v>0</v>
+      </c>
+      <c r="L37" s="47">
+        <v>0</v>
+      </c>
+      <c r="M37" s="47">
+        <v>0</v>
+      </c>
+      <c r="N37" s="47">
+        <v>1</v>
+      </c>
+      <c r="O37" s="47">
+        <v>0</v>
+      </c>
+      <c r="P37" s="47">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="47">
         <v>0</v>
       </c>
       <c r="R37" s="4" t="s">
@@ -5684,18 +5690,18 @@
         <f>2^0*J37+2^1*K37+2^2*L37+2^3*M37+2^4*N37+2^5*O37+2^6*P37+2^7*Q37</f>
         <v>80</v>
       </c>
-      <c r="T37" s="56" t="s">
+      <c r="T37" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="U37" s="56" t="str">
+      <c r="U37" s="52" t="str">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="V37" s="56" t="str">
+      <c r="V37" s="52" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="W37" s="56" t="str">
+      <c r="W37" s="52" t="str">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
@@ -5709,27 +5715,27 @@
         <f t="shared" si="5"/>
         <v>33</v>
       </c>
-      <c r="C38" s="72" t="str">
+      <c r="C38" s="65" t="str">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="E38" s="52"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="52">
-        <v>0</v>
-      </c>
-      <c r="H38" s="52"/>
-      <c r="I38" s="62">
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49">
+        <v>0</v>
+      </c>
+      <c r="H38" s="49"/>
+      <c r="I38" s="57">
         <v>9</v>
       </c>
-      <c r="J38" s="49"/>
-      <c r="K38" s="49"/>
-      <c r="L38" s="49"/>
-      <c r="M38" s="49"/>
-      <c r="N38" s="49"/>
-      <c r="O38" s="49"/>
-      <c r="P38" s="49"/>
-      <c r="Q38" s="49"/>
+      <c r="J38" s="47"/>
+      <c r="K38" s="47"/>
+      <c r="L38" s="47"/>
+      <c r="M38" s="47"/>
+      <c r="N38" s="47"/>
+      <c r="O38" s="47"/>
+      <c r="P38" s="47"/>
+      <c r="Q38" s="47"/>
       <c r="R38" s="4" t="s">
         <v>145</v>
       </c>
@@ -5737,18 +5743,18 @@
         <f>I38+G38*2^4</f>
         <v>9</v>
       </c>
-      <c r="T38" s="56" t="s">
+      <c r="T38" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="U38" s="56" t="str">
+      <c r="U38" s="52" t="str">
         <f t="shared" si="0"/>
         <v>09</v>
       </c>
-      <c r="V38" s="56" t="str">
+      <c r="V38" s="52" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="W38" s="56" t="str">
+      <c r="W38" s="52" t="str">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
@@ -5762,54 +5768,54 @@
         <f t="shared" si="5"/>
         <v>34</v>
       </c>
-      <c r="C39" s="72" t="str">
+      <c r="C39" s="65" t="str">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="E39" s="52"/>
-      <c r="F39" s="52">
-        <v>1</v>
-      </c>
-      <c r="G39" s="52">
-        <v>0</v>
-      </c>
-      <c r="H39" s="52">
-        <v>1</v>
-      </c>
-      <c r="I39" s="62"/>
-      <c r="J39" s="49"/>
-      <c r="K39" s="49"/>
-      <c r="L39" s="49"/>
-      <c r="M39" s="49"/>
-      <c r="N39" s="49"/>
-      <c r="O39" s="49"/>
-      <c r="P39" s="49"/>
-      <c r="Q39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49">
+        <v>1</v>
+      </c>
+      <c r="G39" s="49">
+        <v>0</v>
+      </c>
+      <c r="H39" s="49">
+        <v>0</v>
+      </c>
+      <c r="I39" s="57"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="47"/>
+      <c r="L39" s="47"/>
+      <c r="M39" s="47"/>
+      <c r="N39" s="47"/>
+      <c r="O39" s="47"/>
+      <c r="P39" s="47"/>
+      <c r="Q39" s="47"/>
       <c r="R39" s="4" t="s">
         <v>126</v>
       </c>
       <c r="S39" s="1">
         <f>2^0*E39+2^1*F39+H39*2^7+G39*2^4</f>
-        <v>130</v>
-      </c>
-      <c r="T39" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="T39" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="U39" s="56" t="str">
+      <c r="U39" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>82</v>
-      </c>
-      <c r="V39" s="56" t="str">
+        <v>02</v>
+      </c>
+      <c r="V39" s="52" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="W39" s="56" t="str">
+      <c r="W39" s="52" t="str">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="X39" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'W', 0x82}, // 22: Ждем слива или ошибки окончания таймера</v>
+        <v xml:space="preserve">   {'W', 0x02}, // 22: Ждем слива или ошибки окончания таймера</v>
       </c>
     </row>
     <row r="40" spans="1:24">
@@ -5817,37 +5823,37 @@
         <f t="shared" si="5"/>
         <v>35</v>
       </c>
-      <c r="C40" s="72" t="str">
+      <c r="C40" s="65" t="str">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="62"/>
-      <c r="J40" s="49">
-        <v>0</v>
-      </c>
-      <c r="K40" s="49">
-        <v>1</v>
-      </c>
-      <c r="L40" s="49">
-        <v>0</v>
-      </c>
-      <c r="M40" s="49">
-        <v>1</v>
-      </c>
-      <c r="N40" s="49">
-        <v>0</v>
-      </c>
-      <c r="O40" s="49">
-        <v>1</v>
-      </c>
-      <c r="P40" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="49">
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="49"/>
+      <c r="I40" s="57"/>
+      <c r="J40" s="47">
+        <v>0</v>
+      </c>
+      <c r="K40" s="47">
+        <v>1</v>
+      </c>
+      <c r="L40" s="47">
+        <v>0</v>
+      </c>
+      <c r="M40" s="47">
+        <v>1</v>
+      </c>
+      <c r="N40" s="47">
+        <v>0</v>
+      </c>
+      <c r="O40" s="47">
+        <v>1</v>
+      </c>
+      <c r="P40" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="47">
         <v>0</v>
       </c>
       <c r="R40" s="4" t="s">
@@ -5857,18 +5863,18 @@
         <f>2^0*J40+2^1*K40+2^2*L40+2^3*M40+2^4*N40+2^5*O40+2^6*P40+2^7*Q40</f>
         <v>42</v>
       </c>
-      <c r="T40" s="56" t="s">
+      <c r="T40" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="U40" s="56" t="str">
+      <c r="U40" s="52" t="str">
         <f t="shared" si="0"/>
         <v>2A</v>
       </c>
-      <c r="V40" s="56" t="str">
+      <c r="V40" s="52" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="W40" s="56" t="str">
+      <c r="W40" s="52" t="str">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
@@ -5882,27 +5888,27 @@
         <f t="shared" si="5"/>
         <v>36</v>
       </c>
-      <c r="C41" s="72" t="str">
+      <c r="C41" s="65" t="str">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="E41" s="52"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="52">
-        <v>0</v>
-      </c>
-      <c r="H41" s="52"/>
-      <c r="I41" s="62">
+      <c r="E41" s="49"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="49">
+        <v>0</v>
+      </c>
+      <c r="H41" s="49"/>
+      <c r="I41" s="57">
         <v>2</v>
       </c>
-      <c r="J41" s="49"/>
-      <c r="K41" s="49"/>
-      <c r="L41" s="49"/>
-      <c r="M41" s="49"/>
-      <c r="N41" s="49"/>
-      <c r="O41" s="49"/>
-      <c r="P41" s="49"/>
-      <c r="Q41" s="49"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="47"/>
+      <c r="M41" s="47"/>
+      <c r="N41" s="47"/>
+      <c r="O41" s="47"/>
+      <c r="P41" s="47"/>
+      <c r="Q41" s="47"/>
       <c r="R41" s="4" t="s">
         <v>168</v>
       </c>
@@ -5910,18 +5916,18 @@
         <f>I41+G41*2^4</f>
         <v>2</v>
       </c>
-      <c r="T41" s="56" t="s">
+      <c r="T41" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="U41" s="56" t="str">
+      <c r="U41" s="52" t="str">
         <f t="shared" si="0"/>
         <v>02</v>
       </c>
-      <c r="V41" s="56" t="str">
+      <c r="V41" s="52" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="W41" s="56" t="str">
+      <c r="W41" s="52" t="str">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
@@ -5935,27 +5941,27 @@
         <f t="shared" si="5"/>
         <v>37</v>
       </c>
-      <c r="C42" s="72" t="str">
+      <c r="C42" s="65" t="str">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="E42" s="52">
-        <v>1</v>
-      </c>
-      <c r="F42" s="52"/>
-      <c r="G42" s="52">
-        <v>0</v>
-      </c>
-      <c r="H42" s="52"/>
-      <c r="I42" s="62"/>
-      <c r="J42" s="49"/>
-      <c r="K42" s="49"/>
-      <c r="L42" s="49"/>
-      <c r="M42" s="49"/>
-      <c r="N42" s="49"/>
-      <c r="O42" s="49"/>
-      <c r="P42" s="49"/>
-      <c r="Q42" s="49"/>
+      <c r="E42" s="49">
+        <v>1</v>
+      </c>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49">
+        <v>0</v>
+      </c>
+      <c r="H42" s="49"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="47"/>
+      <c r="K42" s="47"/>
+      <c r="L42" s="47"/>
+      <c r="M42" s="47"/>
+      <c r="N42" s="47"/>
+      <c r="O42" s="47"/>
+      <c r="P42" s="47"/>
+      <c r="Q42" s="47"/>
       <c r="R42" s="4" t="s">
         <v>110</v>
       </c>
@@ -5963,18 +5969,18 @@
         <f>2^0*E42+2^1*F42+H42*2^7+G42*2^4</f>
         <v>1</v>
       </c>
-      <c r="T42" s="56" t="s">
+      <c r="T42" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="U42" s="56" t="str">
+      <c r="U42" s="52" t="str">
         <f t="shared" si="0"/>
         <v>01</v>
       </c>
-      <c r="V42" s="56" t="str">
+      <c r="V42" s="52" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="W42" s="56" t="str">
+      <c r="W42" s="52" t="str">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
@@ -5988,37 +5994,37 @@
         <f t="shared" si="5"/>
         <v>38</v>
       </c>
-      <c r="C43" s="72" t="str">
+      <c r="C43" s="65" t="str">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="E43" s="52"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="52"/>
-      <c r="H43" s="52"/>
-      <c r="I43" s="62"/>
-      <c r="J43" s="49">
-        <v>0</v>
-      </c>
-      <c r="K43" s="49">
-        <v>0</v>
-      </c>
-      <c r="L43" s="49">
-        <v>0</v>
-      </c>
-      <c r="M43" s="49">
-        <v>1</v>
-      </c>
-      <c r="N43" s="49">
-        <v>0</v>
-      </c>
-      <c r="O43" s="49">
-        <v>1</v>
-      </c>
-      <c r="P43" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="49">
+      <c r="E43" s="49"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="49"/>
+      <c r="I43" s="57"/>
+      <c r="J43" s="47">
+        <v>0</v>
+      </c>
+      <c r="K43" s="47">
+        <v>0</v>
+      </c>
+      <c r="L43" s="47">
+        <v>0</v>
+      </c>
+      <c r="M43" s="47">
+        <v>1</v>
+      </c>
+      <c r="N43" s="47">
+        <v>0</v>
+      </c>
+      <c r="O43" s="47">
+        <v>1</v>
+      </c>
+      <c r="P43" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="47">
         <v>0</v>
       </c>
       <c r="R43" s="4" t="s">
@@ -6028,18 +6034,18 @@
         <f>2^0*J43+2^1*K43+2^2*L43+2^3*M43+2^4*N43+2^5*O43+2^6*P43+2^7*Q43</f>
         <v>40</v>
       </c>
-      <c r="T43" s="56" t="s">
+      <c r="T43" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="U43" s="56" t="str">
+      <c r="U43" s="52" t="str">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="V43" s="56" t="str">
+      <c r="V43" s="52" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="W43" s="56" t="str">
+      <c r="W43" s="52" t="str">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
@@ -6053,27 +6059,27 @@
         <f t="shared" si="5"/>
         <v>39</v>
       </c>
-      <c r="C44" s="72" t="str">
+      <c r="C44" s="65" t="str">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="E44" s="52"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="52">
-        <v>0</v>
-      </c>
-      <c r="H44" s="52"/>
-      <c r="I44" s="62">
+      <c r="E44" s="49"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="49">
+        <v>0</v>
+      </c>
+      <c r="H44" s="49"/>
+      <c r="I44" s="57">
         <v>8</v>
       </c>
-      <c r="J44" s="49"/>
-      <c r="K44" s="49"/>
-      <c r="L44" s="49"/>
-      <c r="M44" s="49"/>
-      <c r="N44" s="49"/>
-      <c r="O44" s="49"/>
-      <c r="P44" s="49"/>
-      <c r="Q44" s="49"/>
+      <c r="J44" s="47"/>
+      <c r="K44" s="47"/>
+      <c r="L44" s="47"/>
+      <c r="M44" s="47"/>
+      <c r="N44" s="47"/>
+      <c r="O44" s="47"/>
+      <c r="P44" s="47"/>
+      <c r="Q44" s="47"/>
       <c r="R44" s="4" t="s">
         <v>144</v>
       </c>
@@ -6081,18 +6087,18 @@
         <f>I44+G44*2^4</f>
         <v>8</v>
       </c>
-      <c r="T44" s="56" t="s">
+      <c r="T44" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="U44" s="56" t="str">
+      <c r="U44" s="52" t="str">
         <f t="shared" si="0"/>
         <v>08</v>
       </c>
-      <c r="V44" s="56" t="str">
+      <c r="V44" s="52" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="W44" s="56" t="str">
+      <c r="W44" s="52" t="str">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
@@ -6106,29 +6112,29 @@
         <f t="shared" si="5"/>
         <v>40</v>
       </c>
-      <c r="C45" s="72" t="str">
+      <c r="C45" s="65" t="str">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="E45" s="52">
-        <v>1</v>
-      </c>
-      <c r="F45" s="52"/>
-      <c r="G45" s="52">
-        <v>0</v>
-      </c>
-      <c r="H45" s="52">
-        <v>1</v>
-      </c>
-      <c r="I45" s="62"/>
-      <c r="J45" s="49"/>
-      <c r="K45" s="49"/>
-      <c r="L45" s="49"/>
-      <c r="M45" s="49"/>
-      <c r="N45" s="49"/>
-      <c r="O45" s="49"/>
-      <c r="P45" s="49"/>
-      <c r="Q45" s="49"/>
+      <c r="E45" s="49">
+        <v>1</v>
+      </c>
+      <c r="F45" s="49"/>
+      <c r="G45" s="49">
+        <v>0</v>
+      </c>
+      <c r="H45" s="49">
+        <v>1</v>
+      </c>
+      <c r="I45" s="57"/>
+      <c r="J45" s="47"/>
+      <c r="K45" s="47"/>
+      <c r="L45" s="47"/>
+      <c r="M45" s="47"/>
+      <c r="N45" s="47"/>
+      <c r="O45" s="47"/>
+      <c r="P45" s="47"/>
+      <c r="Q45" s="47"/>
       <c r="R45" s="4" t="s">
         <v>115</v>
       </c>
@@ -6136,18 +6142,18 @@
         <f>2^0*E45+2^1*F45+H45*2^7+G45*2^4</f>
         <v>129</v>
       </c>
-      <c r="T45" s="56" t="s">
+      <c r="T45" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="U45" s="56" t="str">
+      <c r="U45" s="52" t="str">
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
-      <c r="V45" s="56" t="str">
+      <c r="V45" s="52" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="W45" s="56" t="str">
+      <c r="W45" s="52" t="str">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
@@ -6161,37 +6167,37 @@
         <f t="shared" si="5"/>
         <v>41</v>
       </c>
-      <c r="C46" s="72" t="str">
+      <c r="C46" s="65" t="str">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="E46" s="53"/>
-      <c r="F46" s="52"/>
-      <c r="G46" s="52"/>
-      <c r="H46" s="52"/>
-      <c r="I46" s="62"/>
-      <c r="J46" s="49">
-        <v>0</v>
-      </c>
-      <c r="K46" s="49">
-        <v>0</v>
-      </c>
-      <c r="L46" s="49">
-        <v>0</v>
-      </c>
-      <c r="M46" s="49">
-        <v>0</v>
-      </c>
-      <c r="N46" s="49">
-        <v>1</v>
-      </c>
-      <c r="O46" s="49">
-        <v>1</v>
-      </c>
-      <c r="P46" s="49">
-        <v>1</v>
-      </c>
-      <c r="Q46" s="49">
+      <c r="E46" s="50"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="49"/>
+      <c r="H46" s="49"/>
+      <c r="I46" s="57"/>
+      <c r="J46" s="47">
+        <v>0</v>
+      </c>
+      <c r="K46" s="47">
+        <v>0</v>
+      </c>
+      <c r="L46" s="47">
+        <v>0</v>
+      </c>
+      <c r="M46" s="47">
+        <v>0</v>
+      </c>
+      <c r="N46" s="47">
+        <v>1</v>
+      </c>
+      <c r="O46" s="47">
+        <v>1</v>
+      </c>
+      <c r="P46" s="47">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="47">
         <v>0</v>
       </c>
       <c r="R46" s="4" t="s">
@@ -6201,18 +6207,18 @@
         <f>2^0*J46+2^1*K46+2^2*L46+2^3*M46+2^4*N46+2^5*O46+2^6*P46+2^7*Q46</f>
         <v>112</v>
       </c>
-      <c r="T46" s="56" t="s">
+      <c r="T46" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="U46" s="56" t="str">
+      <c r="U46" s="52" t="str">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="V46" s="56" t="str">
+      <c r="V46" s="52" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="W46" s="56" t="str">
+      <c r="W46" s="52" t="str">
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
@@ -6226,27 +6232,27 @@
         <f t="shared" si="5"/>
         <v>42</v>
       </c>
-      <c r="C47" s="72" t="str">
+      <c r="C47" s="65" t="str">
         <f t="shared" si="1"/>
         <v>2A</v>
       </c>
-      <c r="E47" s="53"/>
-      <c r="F47" s="52"/>
-      <c r="G47" s="52">
-        <v>0</v>
-      </c>
-      <c r="H47" s="52"/>
-      <c r="I47" s="62">
+      <c r="E47" s="50"/>
+      <c r="F47" s="49"/>
+      <c r="G47" s="49">
+        <v>0</v>
+      </c>
+      <c r="H47" s="49"/>
+      <c r="I47" s="57">
         <v>5</v>
       </c>
-      <c r="J47" s="49"/>
-      <c r="K47" s="49"/>
-      <c r="L47" s="49"/>
-      <c r="M47" s="49"/>
-      <c r="N47" s="49"/>
-      <c r="O47" s="49"/>
-      <c r="P47" s="49"/>
-      <c r="Q47" s="49"/>
+      <c r="J47" s="47"/>
+      <c r="K47" s="47"/>
+      <c r="L47" s="47"/>
+      <c r="M47" s="47"/>
+      <c r="N47" s="47"/>
+      <c r="O47" s="47"/>
+      <c r="P47" s="47"/>
+      <c r="Q47" s="47"/>
       <c r="R47" s="4" t="s">
         <v>169</v>
       </c>
@@ -6254,18 +6260,18 @@
         <f>I47+G47*2^4</f>
         <v>5</v>
       </c>
-      <c r="T47" s="56" t="s">
+      <c r="T47" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="U47" s="56" t="str">
+      <c r="U47" s="52" t="str">
         <f t="shared" si="0"/>
         <v>05</v>
       </c>
-      <c r="V47" s="56" t="str">
+      <c r="V47" s="52" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="W47" s="56" t="str">
+      <c r="W47" s="52" t="str">
         <f t="shared" si="3"/>
         <v>2A</v>
       </c>
@@ -6279,27 +6285,27 @@
         <f t="shared" si="5"/>
         <v>43</v>
       </c>
-      <c r="C48" s="72" t="str">
+      <c r="C48" s="65" t="str">
         <f t="shared" si="1"/>
         <v>2B</v>
       </c>
-      <c r="E48" s="52"/>
-      <c r="F48" s="52">
-        <v>1</v>
-      </c>
-      <c r="G48" s="52">
-        <v>0</v>
-      </c>
-      <c r="H48" s="52"/>
-      <c r="I48" s="62"/>
-      <c r="J48" s="49"/>
-      <c r="K48" s="49"/>
-      <c r="L48" s="49"/>
-      <c r="M48" s="49"/>
-      <c r="N48" s="49"/>
-      <c r="O48" s="49"/>
-      <c r="P48" s="49"/>
-      <c r="Q48" s="49"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="49">
+        <v>1</v>
+      </c>
+      <c r="G48" s="49">
+        <v>0</v>
+      </c>
+      <c r="H48" s="49"/>
+      <c r="I48" s="57"/>
+      <c r="J48" s="47"/>
+      <c r="K48" s="47"/>
+      <c r="L48" s="47"/>
+      <c r="M48" s="47"/>
+      <c r="N48" s="47"/>
+      <c r="O48" s="47"/>
+      <c r="P48" s="47"/>
+      <c r="Q48" s="47"/>
       <c r="R48" s="4" t="s">
         <v>104</v>
       </c>
@@ -6307,18 +6313,18 @@
         <f>2^0*E48+2^1*F48+H48*2^7+G48*2^4</f>
         <v>2</v>
       </c>
-      <c r="T48" s="56" t="s">
+      <c r="T48" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="U48" s="56" t="str">
+      <c r="U48" s="52" t="str">
         <f t="shared" si="0"/>
         <v>02</v>
       </c>
-      <c r="V48" s="56" t="str">
+      <c r="V48" s="52" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="W48" s="56" t="str">
+      <c r="W48" s="52" t="str">
         <f t="shared" si="3"/>
         <v>2B</v>
       </c>
@@ -6332,28 +6338,28 @@
         <f t="shared" si="5"/>
         <v>44</v>
       </c>
-      <c r="C49" s="72" t="str">
+      <c r="C49" s="65" t="str">
         <f t="shared" si="1"/>
         <v>2C</v>
       </c>
       <c r="D49" t="s">
         <v>106</v>
       </c>
-      <c r="E49" s="52"/>
-      <c r="F49" s="52"/>
-      <c r="G49" s="52">
-        <v>0</v>
-      </c>
-      <c r="H49" s="52"/>
-      <c r="I49" s="62"/>
-      <c r="J49" s="49"/>
-      <c r="K49" s="49"/>
-      <c r="L49" s="49"/>
-      <c r="M49" s="49"/>
-      <c r="N49" s="49"/>
-      <c r="O49" s="49"/>
-      <c r="P49" s="49"/>
-      <c r="Q49" s="49"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="49">
+        <v>0</v>
+      </c>
+      <c r="H49" s="49"/>
+      <c r="I49" s="57"/>
+      <c r="J49" s="47"/>
+      <c r="K49" s="47"/>
+      <c r="L49" s="47"/>
+      <c r="M49" s="47"/>
+      <c r="N49" s="47"/>
+      <c r="O49" s="47"/>
+      <c r="P49" s="47"/>
+      <c r="Q49" s="47"/>
       <c r="R49" s="4" t="s">
         <v>105</v>
       </c>
@@ -6361,18 +6367,18 @@
         <f>I49+ROW(D55)-ROW(D49)</f>
         <v>6</v>
       </c>
-      <c r="T49" s="56" t="s">
+      <c r="T49" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="U49" s="56" t="str">
+      <c r="U49" s="52" t="str">
         <f t="shared" si="0"/>
         <v>06</v>
       </c>
-      <c r="V49" s="56" t="str">
+      <c r="V49" s="52" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="W49" s="56" t="str">
+      <c r="W49" s="52" t="str">
         <f t="shared" si="3"/>
         <v>2C</v>
       </c>
@@ -6386,40 +6392,40 @@
         <f t="shared" si="5"/>
         <v>45</v>
       </c>
-      <c r="C50" s="72" t="str">
+      <c r="C50" s="65" t="str">
         <f t="shared" si="1"/>
         <v>2D</v>
       </c>
       <c r="D50" t="s">
         <v>111</v>
       </c>
-      <c r="E50" s="53"/>
-      <c r="F50" s="53"/>
-      <c r="G50" s="53"/>
-      <c r="H50" s="53"/>
-      <c r="I50" s="63"/>
-      <c r="J50" s="49">
-        <v>0</v>
-      </c>
-      <c r="K50" s="49">
-        <v>0</v>
-      </c>
-      <c r="L50" s="49">
-        <v>0</v>
-      </c>
-      <c r="M50" s="49">
-        <v>1</v>
-      </c>
-      <c r="N50" s="49">
-        <v>1</v>
-      </c>
-      <c r="O50" s="49">
-        <v>1</v>
-      </c>
-      <c r="P50" s="49">
-        <v>1</v>
-      </c>
-      <c r="Q50" s="49">
+      <c r="E50" s="50"/>
+      <c r="F50" s="50"/>
+      <c r="G50" s="50"/>
+      <c r="H50" s="50"/>
+      <c r="I50" s="58"/>
+      <c r="J50" s="47">
+        <v>0</v>
+      </c>
+      <c r="K50" s="47">
+        <v>0</v>
+      </c>
+      <c r="L50" s="47">
+        <v>0</v>
+      </c>
+      <c r="M50" s="47">
+        <v>1</v>
+      </c>
+      <c r="N50" s="47">
+        <v>1</v>
+      </c>
+      <c r="O50" s="47">
+        <v>1</v>
+      </c>
+      <c r="P50" s="47">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="47">
         <v>0</v>
       </c>
       <c r="R50" s="4" t="s">
@@ -6429,18 +6435,18 @@
         <f>2^0*J50+2^1*K50+2^2*L50+2^3*M50+2^4*N50+2^5*O50+2^6*P50+2^7*Q50</f>
         <v>120</v>
       </c>
-      <c r="T50" s="56" t="s">
+      <c r="T50" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="U50" s="56" t="str">
+      <c r="U50" s="52" t="str">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
-      <c r="V50" s="56" t="str">
+      <c r="V50" s="52" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="W50" s="56" t="str">
+      <c r="W50" s="52" t="str">
         <f t="shared" si="3"/>
         <v>2D</v>
       </c>
@@ -6454,30 +6460,30 @@
         <f t="shared" si="5"/>
         <v>46</v>
       </c>
-      <c r="C51" s="72" t="str">
+      <c r="C51" s="65" t="str">
         <f t="shared" si="1"/>
         <v>2E</v>
       </c>
       <c r="D51" t="s">
         <v>111</v>
       </c>
-      <c r="E51" s="64"/>
-      <c r="F51" s="64"/>
-      <c r="G51" s="64">
-        <v>1</v>
-      </c>
-      <c r="H51" s="64"/>
-      <c r="I51" s="65">
-        <v>0</v>
-      </c>
-      <c r="J51" s="49"/>
-      <c r="K51" s="49"/>
-      <c r="L51" s="49"/>
-      <c r="M51" s="49"/>
-      <c r="N51" s="49"/>
-      <c r="O51" s="49"/>
-      <c r="P51" s="49"/>
-      <c r="Q51" s="49"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="59">
+        <v>1</v>
+      </c>
+      <c r="H51" s="59"/>
+      <c r="I51" s="60">
+        <v>0</v>
+      </c>
+      <c r="J51" s="47"/>
+      <c r="K51" s="47"/>
+      <c r="L51" s="47"/>
+      <c r="M51" s="47"/>
+      <c r="N51" s="47"/>
+      <c r="O51" s="47"/>
+      <c r="P51" s="47"/>
+      <c r="Q51" s="47"/>
       <c r="R51" s="4" t="s">
         <v>166</v>
       </c>
@@ -6485,18 +6491,18 @@
         <f>I51+G51*2^4</f>
         <v>16</v>
       </c>
-      <c r="T51" s="70" t="s">
+      <c r="T51" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="U51" s="56" t="str">
+      <c r="U51" s="52" t="str">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="V51" s="56" t="str">
+      <c r="V51" s="52" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="W51" s="56" t="str">
+      <c r="W51" s="52" t="str">
         <f t="shared" si="3"/>
         <v>2E</v>
       </c>
@@ -6510,30 +6516,30 @@
         <f t="shared" si="5"/>
         <v>47</v>
       </c>
-      <c r="C52" s="72" t="str">
+      <c r="C52" s="65" t="str">
         <f t="shared" si="1"/>
         <v>2F</v>
       </c>
       <c r="D52" t="s">
         <v>111</v>
       </c>
-      <c r="E52" s="52">
-        <v>1</v>
-      </c>
-      <c r="F52" s="52"/>
-      <c r="G52" s="52">
-        <v>1</v>
-      </c>
-      <c r="H52" s="52"/>
-      <c r="I52" s="62"/>
-      <c r="J52" s="50"/>
-      <c r="K52" s="50"/>
-      <c r="L52" s="50"/>
-      <c r="M52" s="50"/>
-      <c r="N52" s="50"/>
-      <c r="O52" s="50"/>
-      <c r="P52" s="50"/>
-      <c r="Q52" s="50"/>
+      <c r="E52" s="49">
+        <v>1</v>
+      </c>
+      <c r="F52" s="49"/>
+      <c r="G52" s="49">
+        <v>1</v>
+      </c>
+      <c r="H52" s="49"/>
+      <c r="I52" s="57"/>
+      <c r="J52" s="48"/>
+      <c r="K52" s="48"/>
+      <c r="L52" s="48"/>
+      <c r="M52" s="48"/>
+      <c r="N52" s="48"/>
+      <c r="O52" s="48"/>
+      <c r="P52" s="48"/>
+      <c r="Q52" s="48"/>
       <c r="R52" s="4" t="s">
         <v>167</v>
       </c>
@@ -6541,18 +6547,18 @@
         <f>2^0*E52+2^1*F52+H52*2^7+G52*2^4</f>
         <v>17</v>
       </c>
-      <c r="T52" s="56" t="s">
+      <c r="T52" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="U52" s="56" t="str">
+      <c r="U52" s="52" t="str">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="V52" s="56" t="str">
+      <c r="V52" s="52" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="W52" s="56" t="str">
+      <c r="W52" s="52" t="str">
         <f t="shared" si="3"/>
         <v>2F</v>
       </c>
@@ -6566,40 +6572,40 @@
         <f t="shared" si="5"/>
         <v>48</v>
       </c>
-      <c r="C53" s="72" t="str">
+      <c r="C53" s="65" t="str">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="D53" t="s">
         <v>111</v>
       </c>
-      <c r="E53" s="52"/>
-      <c r="F53" s="52"/>
-      <c r="G53" s="52"/>
-      <c r="H53" s="52"/>
-      <c r="I53" s="62"/>
-      <c r="J53" s="49">
-        <v>0</v>
-      </c>
-      <c r="K53" s="49">
-        <v>0</v>
-      </c>
-      <c r="L53" s="49">
-        <v>0</v>
-      </c>
-      <c r="M53" s="49">
-        <v>0</v>
-      </c>
-      <c r="N53" s="49">
-        <v>1</v>
-      </c>
-      <c r="O53" s="49">
-        <v>1</v>
-      </c>
-      <c r="P53" s="49">
-        <v>1</v>
-      </c>
-      <c r="Q53" s="49">
+      <c r="E53" s="49"/>
+      <c r="F53" s="49"/>
+      <c r="G53" s="49"/>
+      <c r="H53" s="49"/>
+      <c r="I53" s="57"/>
+      <c r="J53" s="47">
+        <v>0</v>
+      </c>
+      <c r="K53" s="47">
+        <v>0</v>
+      </c>
+      <c r="L53" s="47">
+        <v>0</v>
+      </c>
+      <c r="M53" s="47">
+        <v>0</v>
+      </c>
+      <c r="N53" s="47">
+        <v>1</v>
+      </c>
+      <c r="O53" s="47">
+        <v>1</v>
+      </c>
+      <c r="P53" s="47">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="47">
         <v>0</v>
       </c>
       <c r="R53" s="4" t="s">
@@ -6609,18 +6615,18 @@
         <f>2^0*J53+2^1*K53+2^2*L53+2^3*M53+2^4*N53+2^5*O53+2^6*P53+2^7*Q53</f>
         <v>112</v>
       </c>
-      <c r="T53" s="56" t="s">
+      <c r="T53" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="U53" s="56" t="str">
+      <c r="U53" s="52" t="str">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="V53" s="56" t="str">
+      <c r="V53" s="52" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="W53" s="56" t="str">
+      <c r="W53" s="52" t="str">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
@@ -6634,30 +6640,30 @@
         <f t="shared" si="5"/>
         <v>49</v>
       </c>
-      <c r="C54" s="72" t="str">
+      <c r="C54" s="65" t="str">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="D54" t="s">
         <v>111</v>
       </c>
-      <c r="E54" s="52"/>
-      <c r="F54" s="52">
-        <v>1</v>
-      </c>
-      <c r="G54" s="52">
-        <v>0</v>
-      </c>
-      <c r="H54" s="52"/>
-      <c r="I54" s="62"/>
-      <c r="J54" s="49"/>
-      <c r="K54" s="49"/>
-      <c r="L54" s="49"/>
-      <c r="M54" s="49"/>
-      <c r="N54" s="49"/>
-      <c r="O54" s="49"/>
-      <c r="P54" s="49"/>
-      <c r="Q54" s="49"/>
+      <c r="E54" s="49"/>
+      <c r="F54" s="49">
+        <v>1</v>
+      </c>
+      <c r="G54" s="49">
+        <v>0</v>
+      </c>
+      <c r="H54" s="49"/>
+      <c r="I54" s="57"/>
+      <c r="J54" s="47"/>
+      <c r="K54" s="47"/>
+      <c r="L54" s="47"/>
+      <c r="M54" s="47"/>
+      <c r="N54" s="47"/>
+      <c r="O54" s="47"/>
+      <c r="P54" s="47"/>
+      <c r="Q54" s="47"/>
       <c r="R54" s="4" t="s">
         <v>108</v>
       </c>
@@ -6665,18 +6671,18 @@
         <f>2^0*E54+2^1*F54+H54*2^7+G54*2^4</f>
         <v>2</v>
       </c>
-      <c r="T54" s="56" t="s">
+      <c r="T54" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="U54" s="56" t="str">
+      <c r="U54" s="52" t="str">
         <f t="shared" si="0"/>
         <v>02</v>
       </c>
-      <c r="V54" s="56" t="str">
+      <c r="V54" s="52" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="W54" s="56" t="str">
+      <c r="W54" s="52" t="str">
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
@@ -6690,40 +6696,40 @@
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="C55" s="72" t="str">
+      <c r="C55" s="65" t="str">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="D55" s="47" t="s">
+      <c r="D55" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="E55" s="52"/>
-      <c r="F55" s="52"/>
-      <c r="G55" s="52"/>
-      <c r="H55" s="52"/>
-      <c r="I55" s="62"/>
-      <c r="J55" s="49">
-        <v>0</v>
-      </c>
-      <c r="K55" s="49">
-        <v>0</v>
-      </c>
-      <c r="L55" s="49">
-        <v>0</v>
-      </c>
-      <c r="M55" s="49">
-        <v>0</v>
-      </c>
-      <c r="N55" s="49">
-        <v>1</v>
-      </c>
-      <c r="O55" s="49">
-        <v>0</v>
-      </c>
-      <c r="P55" s="49">
-        <v>1</v>
-      </c>
-      <c r="Q55" s="49">
+      <c r="E55" s="49"/>
+      <c r="F55" s="49"/>
+      <c r="G55" s="49"/>
+      <c r="H55" s="49"/>
+      <c r="I55" s="57"/>
+      <c r="J55" s="47">
+        <v>0</v>
+      </c>
+      <c r="K55" s="47">
+        <v>0</v>
+      </c>
+      <c r="L55" s="47">
+        <v>0</v>
+      </c>
+      <c r="M55" s="47">
+        <v>0</v>
+      </c>
+      <c r="N55" s="47">
+        <v>1</v>
+      </c>
+      <c r="O55" s="47">
+        <v>0</v>
+      </c>
+      <c r="P55" s="47">
+        <v>1</v>
+      </c>
+      <c r="Q55" s="47">
         <v>0</v>
       </c>
       <c r="R55" s="4" t="s">
@@ -6733,18 +6739,18 @@
         <f>2^0*J55+2^1*K55+2^2*L55+2^3*M55+2^4*N55+2^5*O55+2^6*P55+2^7*Q55</f>
         <v>80</v>
       </c>
-      <c r="T55" s="56" t="s">
+      <c r="T55" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="U55" s="56" t="str">
+      <c r="U55" s="52" t="str">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="V55" s="56" t="str">
+      <c r="V55" s="52" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="W55" s="56" t="str">
+      <c r="W55" s="52" t="str">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
@@ -6758,28 +6764,28 @@
         <f t="shared" si="5"/>
         <v>51</v>
       </c>
-      <c r="C56" s="72" t="str">
+      <c r="C56" s="65" t="str">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="D56" s="47"/>
-      <c r="E56" s="52"/>
-      <c r="F56" s="52"/>
-      <c r="G56" s="52">
-        <v>0</v>
-      </c>
-      <c r="H56" s="52"/>
-      <c r="I56" s="62">
+      <c r="D56" s="46"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="49"/>
+      <c r="G56" s="49">
+        <v>0</v>
+      </c>
+      <c r="H56" s="49"/>
+      <c r="I56" s="57">
         <v>9</v>
       </c>
-      <c r="J56" s="49"/>
-      <c r="K56" s="49"/>
-      <c r="L56" s="49"/>
-      <c r="M56" s="49"/>
-      <c r="N56" s="49"/>
-      <c r="O56" s="49"/>
-      <c r="P56" s="49"/>
-      <c r="Q56" s="49"/>
+      <c r="J56" s="47"/>
+      <c r="K56" s="47"/>
+      <c r="L56" s="47"/>
+      <c r="M56" s="47"/>
+      <c r="N56" s="47"/>
+      <c r="O56" s="47"/>
+      <c r="P56" s="47"/>
+      <c r="Q56" s="47"/>
       <c r="R56" s="4" t="s">
         <v>145</v>
       </c>
@@ -6787,18 +6793,18 @@
         <f>I56+G56*2^4</f>
         <v>9</v>
       </c>
-      <c r="T56" s="56" t="s">
+      <c r="T56" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="U56" s="56" t="str">
+      <c r="U56" s="52" t="str">
         <f t="shared" si="0"/>
         <v>09</v>
       </c>
-      <c r="V56" s="56" t="str">
+      <c r="V56" s="52" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="W56" s="56" t="str">
+      <c r="W56" s="52" t="str">
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
@@ -6812,54 +6818,54 @@
         <f t="shared" si="5"/>
         <v>52</v>
       </c>
-      <c r="C57" s="72" t="str">
+      <c r="C57" s="65" t="str">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="E57" s="52"/>
-      <c r="F57" s="52">
-        <v>1</v>
-      </c>
-      <c r="G57" s="52">
-        <v>0</v>
-      </c>
-      <c r="H57" s="52">
-        <v>1</v>
-      </c>
-      <c r="I57" s="62"/>
-      <c r="J57" s="49"/>
-      <c r="K57" s="49"/>
-      <c r="L57" s="49"/>
-      <c r="M57" s="49"/>
-      <c r="N57" s="49"/>
-      <c r="O57" s="49"/>
-      <c r="P57" s="49"/>
-      <c r="Q57" s="49"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="49">
+        <v>1</v>
+      </c>
+      <c r="G57" s="49">
+        <v>0</v>
+      </c>
+      <c r="H57" s="49">
+        <v>0</v>
+      </c>
+      <c r="I57" s="57"/>
+      <c r="J57" s="47"/>
+      <c r="K57" s="47"/>
+      <c r="L57" s="47"/>
+      <c r="M57" s="47"/>
+      <c r="N57" s="47"/>
+      <c r="O57" s="47"/>
+      <c r="P57" s="47"/>
+      <c r="Q57" s="47"/>
       <c r="R57" s="4" t="s">
         <v>126</v>
       </c>
       <c r="S57" s="1">
         <f>2^0*E57+2^1*F57+H57*2^7+G57*2^4</f>
-        <v>130</v>
-      </c>
-      <c r="T57" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="T57" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="U57" s="56" t="str">
+      <c r="U57" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>82</v>
-      </c>
-      <c r="V57" s="56" t="str">
+        <v>02</v>
+      </c>
+      <c r="V57" s="52" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="W57" s="56" t="str">
+      <c r="W57" s="52" t="str">
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="X57" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'W', 0x82}, // 34: Ждем слива или ошибки окончания таймера</v>
+        <v xml:space="preserve">   {'W', 0x02}, // 34: Ждем слива или ошибки окончания таймера</v>
       </c>
     </row>
     <row r="58" spans="1:24">
@@ -6867,37 +6873,37 @@
         <f t="shared" si="5"/>
         <v>53</v>
       </c>
-      <c r="C58" s="72" t="str">
+      <c r="C58" s="65" t="str">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="E58" s="52"/>
-      <c r="F58" s="52"/>
-      <c r="G58" s="52"/>
-      <c r="H58" s="52"/>
-      <c r="I58" s="62"/>
-      <c r="J58" s="49">
-        <v>0</v>
-      </c>
-      <c r="K58" s="49">
-        <v>0</v>
-      </c>
-      <c r="L58" s="49">
-        <v>1</v>
-      </c>
-      <c r="M58" s="49">
-        <v>0</v>
-      </c>
-      <c r="N58" s="49">
-        <v>0</v>
-      </c>
-      <c r="O58" s="49">
-        <v>1</v>
-      </c>
-      <c r="P58" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="49">
+      <c r="E58" s="49"/>
+      <c r="F58" s="49"/>
+      <c r="G58" s="49"/>
+      <c r="H58" s="49"/>
+      <c r="I58" s="57"/>
+      <c r="J58" s="47">
+        <v>0</v>
+      </c>
+      <c r="K58" s="47">
+        <v>0</v>
+      </c>
+      <c r="L58" s="47">
+        <v>1</v>
+      </c>
+      <c r="M58" s="47">
+        <v>0</v>
+      </c>
+      <c r="N58" s="47">
+        <v>0</v>
+      </c>
+      <c r="O58" s="47">
+        <v>1</v>
+      </c>
+      <c r="P58" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="47">
         <v>0</v>
       </c>
       <c r="R58" s="4" t="s">
@@ -6907,18 +6913,18 @@
         <f>2^0*J58+2^1*K58+2^2*L58+2^3*M58+2^4*N58+2^5*O58+2^6*P58+2^7*Q58</f>
         <v>36</v>
       </c>
-      <c r="T58" s="56" t="s">
+      <c r="T58" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="U58" s="56" t="str">
+      <c r="U58" s="52" t="str">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="V58" s="56" t="str">
+      <c r="V58" s="52" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="W58" s="56" t="str">
+      <c r="W58" s="52" t="str">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
@@ -6932,27 +6938,27 @@
         <f t="shared" si="5"/>
         <v>54</v>
       </c>
-      <c r="C59" s="72" t="str">
+      <c r="C59" s="65" t="str">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="E59" s="52"/>
-      <c r="F59" s="52"/>
-      <c r="G59" s="52">
-        <v>0</v>
-      </c>
-      <c r="H59" s="52"/>
-      <c r="I59" s="62">
+      <c r="E59" s="49"/>
+      <c r="F59" s="49"/>
+      <c r="G59" s="49">
+        <v>0</v>
+      </c>
+      <c r="H59" s="49"/>
+      <c r="I59" s="57">
         <v>8</v>
       </c>
-      <c r="J59" s="49"/>
-      <c r="K59" s="49"/>
-      <c r="L59" s="49"/>
-      <c r="M59" s="49"/>
-      <c r="N59" s="49"/>
-      <c r="O59" s="49"/>
-      <c r="P59" s="49"/>
-      <c r="Q59" s="49"/>
+      <c r="J59" s="47"/>
+      <c r="K59" s="47"/>
+      <c r="L59" s="47"/>
+      <c r="M59" s="47"/>
+      <c r="N59" s="47"/>
+      <c r="O59" s="47"/>
+      <c r="P59" s="47"/>
+      <c r="Q59" s="47"/>
       <c r="R59" s="4" t="s">
         <v>144</v>
       </c>
@@ -6960,18 +6966,18 @@
         <f>I59+G59*2^4</f>
         <v>8</v>
       </c>
-      <c r="T59" s="56" t="s">
+      <c r="T59" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="U59" s="56" t="str">
+      <c r="U59" s="52" t="str">
         <f t="shared" si="0"/>
         <v>08</v>
       </c>
-      <c r="V59" s="56" t="str">
+      <c r="V59" s="52" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="W59" s="56" t="str">
+      <c r="W59" s="52" t="str">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
@@ -6985,29 +6991,29 @@
         <f t="shared" si="5"/>
         <v>55</v>
       </c>
-      <c r="C60" s="72" t="str">
+      <c r="C60" s="65" t="str">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="E60" s="52">
-        <v>1</v>
-      </c>
-      <c r="F60" s="52"/>
-      <c r="G60" s="52">
-        <v>0</v>
-      </c>
-      <c r="H60" s="52">
-        <v>1</v>
-      </c>
-      <c r="I60" s="62"/>
-      <c r="J60" s="49"/>
-      <c r="K60" s="49"/>
-      <c r="L60" s="49"/>
-      <c r="M60" s="49"/>
-      <c r="N60" s="49"/>
-      <c r="O60" s="49"/>
-      <c r="P60" s="49"/>
-      <c r="Q60" s="49"/>
+      <c r="E60" s="49">
+        <v>1</v>
+      </c>
+      <c r="F60" s="49"/>
+      <c r="G60" s="49">
+        <v>0</v>
+      </c>
+      <c r="H60" s="49">
+        <v>1</v>
+      </c>
+      <c r="I60" s="57"/>
+      <c r="J60" s="47"/>
+      <c r="K60" s="47"/>
+      <c r="L60" s="47"/>
+      <c r="M60" s="47"/>
+      <c r="N60" s="47"/>
+      <c r="O60" s="47"/>
+      <c r="P60" s="47"/>
+      <c r="Q60" s="47"/>
       <c r="R60" s="4" t="s">
         <v>115</v>
       </c>
@@ -7015,18 +7021,18 @@
         <f>2^0*E60+2^1*F60+H60*2^7+G60*2^4</f>
         <v>129</v>
       </c>
-      <c r="T60" s="56" t="s">
+      <c r="T60" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="U60" s="56" t="str">
+      <c r="U60" s="52" t="str">
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
-      <c r="V60" s="56" t="str">
+      <c r="V60" s="52" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="W60" s="56" t="str">
+      <c r="W60" s="52" t="str">
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
@@ -7040,37 +7046,37 @@
         <f t="shared" si="5"/>
         <v>56</v>
       </c>
-      <c r="C61" s="72" t="str">
+      <c r="C61" s="65" t="str">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="E61" s="52"/>
-      <c r="F61" s="52"/>
-      <c r="G61" s="52"/>
-      <c r="H61" s="52"/>
-      <c r="I61" s="62"/>
-      <c r="J61" s="49">
-        <v>0</v>
-      </c>
-      <c r="K61" s="49">
-        <v>0</v>
-      </c>
-      <c r="L61" s="49">
-        <v>0</v>
-      </c>
-      <c r="M61" s="49">
-        <v>0</v>
-      </c>
-      <c r="N61" s="49">
-        <v>1</v>
-      </c>
-      <c r="O61" s="49">
-        <v>0</v>
-      </c>
-      <c r="P61" s="49">
-        <v>1</v>
-      </c>
-      <c r="Q61" s="49">
+      <c r="E61" s="49"/>
+      <c r="F61" s="49"/>
+      <c r="G61" s="49"/>
+      <c r="H61" s="49"/>
+      <c r="I61" s="57"/>
+      <c r="J61" s="47">
+        <v>0</v>
+      </c>
+      <c r="K61" s="47">
+        <v>0</v>
+      </c>
+      <c r="L61" s="47">
+        <v>0</v>
+      </c>
+      <c r="M61" s="47">
+        <v>0</v>
+      </c>
+      <c r="N61" s="47">
+        <v>1</v>
+      </c>
+      <c r="O61" s="47">
+        <v>0</v>
+      </c>
+      <c r="P61" s="47">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="47">
         <v>0</v>
       </c>
       <c r="R61" s="4" t="s">
@@ -7080,18 +7086,18 @@
         <f>2^0*J61+2^1*K61+2^2*L61+2^3*M61+2^4*N61+2^5*O61+2^6*P61+2^7*Q61</f>
         <v>80</v>
       </c>
-      <c r="T61" s="56" t="s">
+      <c r="T61" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="U61" s="56" t="str">
+      <c r="U61" s="52" t="str">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="V61" s="56" t="str">
+      <c r="V61" s="52" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="W61" s="56" t="str">
+      <c r="W61" s="52" t="str">
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
@@ -7105,27 +7111,27 @@
         <f t="shared" si="5"/>
         <v>57</v>
       </c>
-      <c r="C62" s="72" t="str">
+      <c r="C62" s="65" t="str">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="E62" s="52"/>
-      <c r="F62" s="52"/>
-      <c r="G62" s="52">
-        <v>0</v>
-      </c>
-      <c r="H62" s="52"/>
-      <c r="I62" s="62">
+      <c r="E62" s="49"/>
+      <c r="F62" s="49"/>
+      <c r="G62" s="49">
+        <v>0</v>
+      </c>
+      <c r="H62" s="49"/>
+      <c r="I62" s="57">
         <v>9</v>
       </c>
-      <c r="J62" s="49"/>
-      <c r="K62" s="49"/>
-      <c r="L62" s="49"/>
-      <c r="M62" s="49"/>
-      <c r="N62" s="49"/>
-      <c r="O62" s="49"/>
-      <c r="P62" s="49"/>
-      <c r="Q62" s="49"/>
+      <c r="J62" s="47"/>
+      <c r="K62" s="47"/>
+      <c r="L62" s="47"/>
+      <c r="M62" s="47"/>
+      <c r="N62" s="47"/>
+      <c r="O62" s="47"/>
+      <c r="P62" s="47"/>
+      <c r="Q62" s="47"/>
       <c r="R62" s="4" t="s">
         <v>145</v>
       </c>
@@ -7133,18 +7139,18 @@
         <f>I62+G62*2^4</f>
         <v>9</v>
       </c>
-      <c r="T62" s="56" t="s">
+      <c r="T62" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="U62" s="56" t="str">
+      <c r="U62" s="52" t="str">
         <f t="shared" si="0"/>
         <v>09</v>
       </c>
-      <c r="V62" s="56" t="str">
+      <c r="V62" s="52" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="W62" s="56" t="str">
+      <c r="W62" s="52" t="str">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
@@ -7158,54 +7164,54 @@
         <f t="shared" si="5"/>
         <v>58</v>
       </c>
-      <c r="C63" s="72" t="str">
+      <c r="C63" s="65" t="str">
         <f t="shared" si="1"/>
         <v>3A</v>
       </c>
-      <c r="E63" s="52"/>
-      <c r="F63" s="52">
-        <v>1</v>
-      </c>
-      <c r="G63" s="52">
-        <v>0</v>
-      </c>
-      <c r="H63" s="52">
-        <v>1</v>
-      </c>
-      <c r="I63" s="62"/>
-      <c r="J63" s="49"/>
-      <c r="K63" s="49"/>
-      <c r="L63" s="49"/>
-      <c r="M63" s="49"/>
-      <c r="N63" s="49"/>
-      <c r="O63" s="49"/>
-      <c r="P63" s="49"/>
-      <c r="Q63" s="49"/>
+      <c r="E63" s="49"/>
+      <c r="F63" s="49">
+        <v>1</v>
+      </c>
+      <c r="G63" s="49">
+        <v>0</v>
+      </c>
+      <c r="H63" s="49">
+        <v>0</v>
+      </c>
+      <c r="I63" s="57"/>
+      <c r="J63" s="47"/>
+      <c r="K63" s="47"/>
+      <c r="L63" s="47"/>
+      <c r="M63" s="47"/>
+      <c r="N63" s="47"/>
+      <c r="O63" s="47"/>
+      <c r="P63" s="47"/>
+      <c r="Q63" s="47"/>
       <c r="R63" s="4" t="s">
         <v>126</v>
       </c>
       <c r="S63" s="1">
         <f>2^0*E63+2^1*F63+H63*2^7+G63*2^4</f>
-        <v>130</v>
-      </c>
-      <c r="T63" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="T63" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="U63" s="56" t="str">
+      <c r="U63" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>82</v>
-      </c>
-      <c r="V63" s="56" t="str">
+        <v>02</v>
+      </c>
+      <c r="V63" s="52" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="W63" s="56" t="str">
+      <c r="W63" s="52" t="str">
         <f t="shared" si="3"/>
         <v>3A</v>
       </c>
       <c r="X63" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'W', 0x82}, // 3A: Ждем слива или ошибки окончания таймера</v>
+        <v xml:space="preserve">   {'W', 0x02}, // 3A: Ждем слива или ошибки окончания таймера</v>
       </c>
     </row>
     <row r="64" spans="1:24">
@@ -7213,27 +7219,27 @@
         <f t="shared" si="5"/>
         <v>59</v>
       </c>
-      <c r="C64" s="72" t="str">
+      <c r="C64" s="65" t="str">
         <f t="shared" si="1"/>
         <v>3B</v>
       </c>
-      <c r="E64" s="52"/>
-      <c r="F64" s="52"/>
-      <c r="G64" s="52">
-        <v>0</v>
-      </c>
-      <c r="H64" s="52"/>
-      <c r="I64" s="62">
+      <c r="E64" s="49"/>
+      <c r="F64" s="49"/>
+      <c r="G64" s="49">
+        <v>0</v>
+      </c>
+      <c r="H64" s="49"/>
+      <c r="I64" s="57">
         <v>7</v>
       </c>
-      <c r="J64" s="49"/>
-      <c r="K64" s="49"/>
-      <c r="L64" s="49"/>
-      <c r="M64" s="49"/>
-      <c r="N64" s="49"/>
-      <c r="O64" s="49"/>
-      <c r="P64" s="49"/>
-      <c r="Q64" s="49"/>
+      <c r="J64" s="47"/>
+      <c r="K64" s="47"/>
+      <c r="L64" s="47"/>
+      <c r="M64" s="47"/>
+      <c r="N64" s="47"/>
+      <c r="O64" s="47"/>
+      <c r="P64" s="47"/>
+      <c r="Q64" s="47"/>
       <c r="R64" s="4" t="s">
         <v>173</v>
       </c>
@@ -7241,18 +7247,18 @@
         <f>I64+G64*2^4</f>
         <v>7</v>
       </c>
-      <c r="T64" s="56" t="s">
+      <c r="T64" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="U64" s="56" t="str">
+      <c r="U64" s="52" t="str">
         <f t="shared" si="0"/>
         <v>07</v>
       </c>
-      <c r="V64" s="56" t="str">
+      <c r="V64" s="52" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="W64" s="56" t="str">
+      <c r="W64" s="52" t="str">
         <f t="shared" si="3"/>
         <v>3B</v>
       </c>
@@ -7266,25 +7272,25 @@
         <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="C65" s="72" t="str">
+      <c r="C65" s="65" t="str">
         <f t="shared" si="1"/>
         <v>3C</v>
       </c>
-      <c r="E65" s="52"/>
-      <c r="F65" s="52"/>
-      <c r="G65" s="52">
-        <v>0</v>
-      </c>
-      <c r="H65" s="52"/>
-      <c r="I65" s="62"/>
-      <c r="J65" s="49"/>
-      <c r="K65" s="49"/>
-      <c r="L65" s="49"/>
-      <c r="M65" s="49"/>
-      <c r="N65" s="49"/>
-      <c r="O65" s="49"/>
-      <c r="P65" s="49"/>
-      <c r="Q65" s="49"/>
+      <c r="E65" s="49"/>
+      <c r="F65" s="49"/>
+      <c r="G65" s="49">
+        <v>0</v>
+      </c>
+      <c r="H65" s="49"/>
+      <c r="I65" s="57"/>
+      <c r="J65" s="47"/>
+      <c r="K65" s="47"/>
+      <c r="L65" s="47"/>
+      <c r="M65" s="47"/>
+      <c r="N65" s="47"/>
+      <c r="O65" s="47"/>
+      <c r="P65" s="47"/>
+      <c r="Q65" s="47"/>
       <c r="R65" s="4" t="s">
         <v>130</v>
       </c>
@@ -7292,18 +7298,18 @@
         <f>2^0*E65+2^1*F65+H65*2^7+G65*2^4</f>
         <v>0</v>
       </c>
-      <c r="T65" s="56" t="s">
+      <c r="T65" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="U65" s="56" t="str">
+      <c r="U65" s="52" t="str">
         <f t="shared" si="0"/>
         <v>00</v>
       </c>
-      <c r="V65" s="56" t="str">
+      <c r="V65" s="52" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="W65" s="56" t="str">
+      <c r="W65" s="52" t="str">
         <f t="shared" si="3"/>
         <v>3C</v>
       </c>
@@ -7317,37 +7323,37 @@
         <f t="shared" si="5"/>
         <v>61</v>
       </c>
-      <c r="C66" s="72" t="str">
+      <c r="C66" s="65" t="str">
         <f t="shared" si="1"/>
         <v>3D</v>
       </c>
-      <c r="E66" s="53"/>
-      <c r="F66" s="53"/>
-      <c r="G66" s="53"/>
-      <c r="H66" s="53"/>
-      <c r="I66" s="63"/>
-      <c r="J66" s="49">
-        <v>0</v>
-      </c>
-      <c r="K66" s="49">
-        <v>0</v>
-      </c>
-      <c r="L66" s="49">
-        <v>0</v>
-      </c>
-      <c r="M66" s="49">
-        <v>0</v>
-      </c>
-      <c r="N66" s="49">
-        <v>0</v>
-      </c>
-      <c r="O66" s="49">
-        <v>0</v>
-      </c>
-      <c r="P66" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="49">
+      <c r="E66" s="50"/>
+      <c r="F66" s="50"/>
+      <c r="G66" s="50"/>
+      <c r="H66" s="50"/>
+      <c r="I66" s="58"/>
+      <c r="J66" s="47">
+        <v>0</v>
+      </c>
+      <c r="K66" s="47">
+        <v>0</v>
+      </c>
+      <c r="L66" s="47">
+        <v>0</v>
+      </c>
+      <c r="M66" s="47">
+        <v>0</v>
+      </c>
+      <c r="N66" s="47">
+        <v>0</v>
+      </c>
+      <c r="O66" s="47">
+        <v>0</v>
+      </c>
+      <c r="P66" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="47">
         <v>0</v>
       </c>
       <c r="R66" s="4" t="s">
@@ -7357,18 +7363,18 @@
         <f>2^0*J66+2^1*K66+2^2*L66+2^3*M66+2^4*N66+2^5*O66+2^6*P66+2^7*Q66</f>
         <v>0</v>
       </c>
-      <c r="T66" s="56" t="s">
+      <c r="T66" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="U66" s="56" t="str">
+      <c r="U66" s="52" t="str">
         <f t="shared" si="0"/>
         <v>00</v>
       </c>
-      <c r="V66" s="56" t="str">
+      <c r="V66" s="52" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="W66" s="56" t="str">
+      <c r="W66" s="52" t="str">
         <f t="shared" si="3"/>
         <v>3D</v>
       </c>
@@ -7382,70 +7388,70 @@
         <f t="shared" si="5"/>
         <v>62</v>
       </c>
-      <c r="C67" s="72" t="str">
+      <c r="C67" s="65" t="str">
         <f t="shared" si="1"/>
         <v>3E</v>
       </c>
-      <c r="E67" s="53"/>
-      <c r="F67" s="53"/>
-      <c r="G67" s="53"/>
-      <c r="H67" s="53"/>
-      <c r="I67" s="63"/>
-      <c r="J67" s="50"/>
-      <c r="K67" s="50"/>
-      <c r="L67" s="50"/>
-      <c r="M67" s="50"/>
-      <c r="N67" s="50"/>
-      <c r="O67" s="50"/>
-      <c r="P67" s="50"/>
-      <c r="Q67" s="50"/>
+      <c r="E67" s="50"/>
+      <c r="F67" s="50"/>
+      <c r="G67" s="50"/>
+      <c r="H67" s="50"/>
+      <c r="I67" s="58"/>
+      <c r="J67" s="48"/>
+      <c r="K67" s="48"/>
+      <c r="L67" s="48"/>
+      <c r="M67" s="48"/>
+      <c r="N67" s="48"/>
+      <c r="O67" s="48"/>
+      <c r="P67" s="48"/>
+      <c r="Q67" s="48"/>
       <c r="R67" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="T67" s="56"/>
-      <c r="U67" s="56"/>
-      <c r="V67" s="59"/>
-      <c r="W67" s="59"/>
+      <c r="T67" s="52"/>
+      <c r="U67" s="52"/>
+      <c r="V67" s="55"/>
+      <c r="W67" s="55"/>
     </row>
     <row r="68" spans="1:24">
       <c r="A68">
         <f t="shared" si="5"/>
         <v>63</v>
       </c>
-      <c r="C68" s="72" t="str">
+      <c r="C68" s="65" t="str">
         <f t="shared" si="1"/>
         <v>3F</v>
       </c>
-      <c r="E68" s="53"/>
-      <c r="F68" s="53"/>
-      <c r="G68" s="53"/>
-      <c r="H68" s="53"/>
-      <c r="I68" s="63"/>
-      <c r="J68" s="50"/>
-      <c r="K68" s="50"/>
-      <c r="L68" s="50"/>
-      <c r="M68" s="50"/>
-      <c r="N68" s="50"/>
-      <c r="O68" s="50"/>
-      <c r="P68" s="50"/>
-      <c r="Q68" s="50"/>
+      <c r="E68" s="50"/>
+      <c r="F68" s="50"/>
+      <c r="G68" s="50"/>
+      <c r="H68" s="50"/>
+      <c r="I68" s="58"/>
+      <c r="J68" s="48"/>
+      <c r="K68" s="48"/>
+      <c r="L68" s="48"/>
+      <c r="M68" s="48"/>
+      <c r="N68" s="48"/>
+      <c r="O68" s="48"/>
+      <c r="P68" s="48"/>
+      <c r="Q68" s="48"/>
       <c r="R68" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="T68" s="56"/>
-      <c r="U68" s="56"/>
-      <c r="V68" s="59"/>
-      <c r="W68" s="59"/>
+      <c r="T68" s="52"/>
+      <c r="U68" s="52"/>
+      <c r="V68" s="55"/>
+      <c r="W68" s="55"/>
     </row>
     <row r="71" spans="1:24" ht="61.5">
-      <c r="E71" s="54" t="s">
+      <c r="E71" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="F71" s="54" t="s">
+      <c r="F71" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="G71" s="58"/>
-      <c r="H71" s="58"/>
+      <c r="G71" s="54"/>
+      <c r="H71" s="54"/>
     </row>
     <row r="72" spans="1:24">
       <c r="E72" s="1">
@@ -7636,7 +7642,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="4" spans="3:5">
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="56" t="s">
         <v>135</v>
       </c>
     </row>

--- a/docs/Алгоритм.xlsx
+++ b/docs/Алгоритм.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="135" windowWidth="20730" windowHeight="11760" tabRatio="309" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="135" windowWidth="20730" windowHeight="11760" tabRatio="309" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Порядок действий" sheetId="1" r:id="rId1"/>
@@ -503,9 +503,6 @@
     <t>Если кончилась мойка - переход</t>
   </si>
   <si>
-    <t>G+5</t>
-  </si>
-  <si>
     <t>Продолжаем мойку</t>
   </si>
   <si>
@@ -705,6 +702,9 @@
   </si>
   <si>
     <t>Взводим таймер на t7 = 2 мин</t>
+  </si>
+  <si>
+    <t>G+6</t>
   </si>
 </sst>
 </file>
@@ -1211,6 +1211,31 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1264,31 +1289,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2193,28 +2193,28 @@
   <sheetData>
     <row r="3" spans="1:16" ht="12" thickBot="1"/>
     <row r="4" spans="1:16" ht="15" customHeight="1">
-      <c r="A4" s="79"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="73" t="s">
+      <c r="A4" s="88"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="74"/>
-      <c r="F4" s="66" t="s">
+      <c r="E4" s="83"/>
+      <c r="F4" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
     </row>
     <row r="5" spans="1:16" s="20" customFormat="1" ht="78.75">
-      <c r="A5" s="79"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="80"/>
+      <c r="A5" s="88"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="89"/>
       <c r="D5" s="33" t="s">
         <v>6</v>
       </c>
@@ -2250,13 +2250,13 @@
       </c>
     </row>
     <row r="6" spans="1:16" s="21" customFormat="1">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="70"/>
+      <c r="C6" s="79"/>
       <c r="D6" s="33"/>
       <c r="E6" s="34"/>
       <c r="F6" s="32"/>
@@ -2282,11 +2282,11 @@
       </c>
     </row>
     <row r="7" spans="1:16" s="21" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A7" s="68"/>
-      <c r="B7" s="69" t="s">
+      <c r="A7" s="77"/>
+      <c r="B7" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="70"/>
+      <c r="C7" s="79"/>
       <c r="D7" s="33" t="s">
         <v>10</v>
       </c>
@@ -2318,11 +2318,11 @@
       </c>
     </row>
     <row r="8" spans="1:16" s="21" customFormat="1">
-      <c r="A8" s="68"/>
-      <c r="B8" s="71" t="s">
+      <c r="A8" s="77"/>
+      <c r="B8" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="72"/>
+      <c r="C8" s="81"/>
       <c r="D8" s="33"/>
       <c r="E8" s="34" t="s">
         <v>10</v>
@@ -2347,13 +2347,13 @@
       <c r="O8" s="28"/>
     </row>
     <row r="9" spans="1:16" s="21" customFormat="1">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="76"/>
+      <c r="C9" s="85"/>
       <c r="D9" s="33"/>
       <c r="E9" s="34"/>
       <c r="F9" s="32" t="s">
@@ -2374,11 +2374,11 @@
       <c r="O9" s="28"/>
     </row>
     <row r="10" spans="1:16" s="21" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A10" s="68"/>
-      <c r="B10" s="69" t="s">
+      <c r="A10" s="77"/>
+      <c r="B10" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="70"/>
+      <c r="C10" s="79"/>
       <c r="D10" s="33"/>
       <c r="E10" s="34"/>
       <c r="F10" s="32" t="s">
@@ -2399,11 +2399,11 @@
       </c>
     </row>
     <row r="11" spans="1:16" s="21" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A11" s="68"/>
-      <c r="B11" s="69" t="s">
+      <c r="A11" s="77"/>
+      <c r="B11" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="70"/>
+      <c r="C11" s="79"/>
       <c r="D11" s="33" t="s">
         <v>10</v>
       </c>
@@ -2433,8 +2433,8 @@
       </c>
     </row>
     <row r="12" spans="1:16" s="21" customFormat="1" ht="33.75">
-      <c r="A12" s="68"/>
-      <c r="B12" s="77" t="s">
+      <c r="A12" s="77"/>
+      <c r="B12" s="86" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="31" t="s">
@@ -2460,8 +2460,8 @@
       <c r="O12" s="28"/>
     </row>
     <row r="13" spans="1:16" s="21" customFormat="1">
-      <c r="A13" s="68"/>
-      <c r="B13" s="77"/>
+      <c r="A13" s="77"/>
+      <c r="B13" s="86"/>
       <c r="C13" s="31" t="s">
         <v>31</v>
       </c>
@@ -2483,11 +2483,11 @@
       <c r="O13" s="28"/>
     </row>
     <row r="14" spans="1:16" s="21" customFormat="1">
-      <c r="A14" s="68"/>
-      <c r="B14" s="69" t="s">
+      <c r="A14" s="77"/>
+      <c r="B14" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="70"/>
+      <c r="C14" s="79"/>
       <c r="D14" s="33"/>
       <c r="E14" s="34"/>
       <c r="F14" s="32"/>
@@ -2508,11 +2508,11 @@
       </c>
     </row>
     <row r="15" spans="1:16" s="21" customFormat="1">
-      <c r="A15" s="68"/>
-      <c r="B15" s="71" t="s">
+      <c r="A15" s="77"/>
+      <c r="B15" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="72"/>
+      <c r="C15" s="81"/>
       <c r="D15" s="33"/>
       <c r="E15" s="34" t="s">
         <v>10</v>
@@ -2535,13 +2535,13 @@
       <c r="O15" s="28"/>
     </row>
     <row r="16" spans="1:16" s="21" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A16" s="68" t="s">
+      <c r="A16" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="69" t="s">
+      <c r="B16" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="70"/>
+      <c r="C16" s="79"/>
       <c r="D16" s="33"/>
       <c r="E16" s="34"/>
       <c r="F16" s="32"/>
@@ -2564,11 +2564,11 @@
       </c>
     </row>
     <row r="17" spans="1:16" s="21" customFormat="1">
-      <c r="A17" s="68"/>
-      <c r="B17" s="69" t="s">
+      <c r="A17" s="77"/>
+      <c r="B17" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="70"/>
+      <c r="C17" s="79"/>
       <c r="D17" s="33" t="s">
         <v>10</v>
       </c>
@@ -2593,16 +2593,16 @@
         <v>12</v>
       </c>
       <c r="O17" s="28"/>
-      <c r="P17" s="78" t="s">
+      <c r="P17" s="87" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="21" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A18" s="68"/>
-      <c r="B18" s="71" t="s">
+      <c r="A18" s="77"/>
+      <c r="B18" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="72"/>
+      <c r="C18" s="81"/>
       <c r="D18" s="33"/>
       <c r="E18" s="34" t="s">
         <v>10</v>
@@ -2623,16 +2623,16 @@
         <v>13</v>
       </c>
       <c r="O18" s="28"/>
-      <c r="P18" s="78"/>
+      <c r="P18" s="87"/>
     </row>
     <row r="19" spans="1:16" s="21" customFormat="1">
-      <c r="A19" s="68" t="s">
+      <c r="A19" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="75" t="s">
+      <c r="B19" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="76"/>
+      <c r="C19" s="85"/>
       <c r="D19" s="33"/>
       <c r="E19" s="34"/>
       <c r="F19" s="32"/>
@@ -2653,14 +2653,14 @@
       <c r="O19" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="P19" s="78"/>
+      <c r="P19" s="87"/>
     </row>
     <row r="20" spans="1:16" s="21" customFormat="1">
-      <c r="A20" s="68"/>
-      <c r="B20" s="69" t="s">
+      <c r="A20" s="77"/>
+      <c r="B20" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="70"/>
+      <c r="C20" s="79"/>
       <c r="D20" s="33"/>
       <c r="E20" s="34"/>
       <c r="F20" s="32"/>
@@ -2677,14 +2677,14 @@
         <v>15</v>
       </c>
       <c r="O20" s="28"/>
-      <c r="P20" s="78"/>
+      <c r="P20" s="87"/>
     </row>
     <row r="21" spans="1:16" s="21" customFormat="1">
-      <c r="A21" s="68"/>
-      <c r="B21" s="69" t="s">
+      <c r="A21" s="77"/>
+      <c r="B21" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="70"/>
+      <c r="C21" s="79"/>
       <c r="D21" s="33" t="s">
         <v>10</v>
       </c>
@@ -2709,11 +2709,11 @@
         <v>16</v>
       </c>
       <c r="O21" s="28"/>
-      <c r="P21" s="78"/>
+      <c r="P21" s="87"/>
     </row>
     <row r="22" spans="1:16" s="21" customFormat="1" ht="33.75">
-      <c r="A22" s="68"/>
-      <c r="B22" s="77" t="s">
+      <c r="A22" s="77"/>
+      <c r="B22" s="86" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="31" t="s">
@@ -2737,11 +2737,11 @@
         <v>17</v>
       </c>
       <c r="O22" s="28"/>
-      <c r="P22" s="78"/>
+      <c r="P22" s="87"/>
     </row>
     <row r="23" spans="1:16" s="21" customFormat="1">
-      <c r="A23" s="68"/>
-      <c r="B23" s="77"/>
+      <c r="A23" s="77"/>
+      <c r="B23" s="86"/>
       <c r="C23" s="31" t="s">
         <v>31</v>
       </c>
@@ -2761,14 +2761,14 @@
         <v>18</v>
       </c>
       <c r="O23" s="28"/>
-      <c r="P23" s="78"/>
+      <c r="P23" s="87"/>
     </row>
     <row r="24" spans="1:16" s="21" customFormat="1">
-      <c r="A24" s="68"/>
-      <c r="B24" s="69" t="s">
+      <c r="A24" s="77"/>
+      <c r="B24" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="70"/>
+      <c r="C24" s="79"/>
       <c r="D24" s="33"/>
       <c r="E24" s="34"/>
       <c r="F24" s="32"/>
@@ -2787,14 +2787,14 @@
       <c r="O24" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="P24" s="78"/>
+      <c r="P24" s="87"/>
     </row>
     <row r="25" spans="1:16" s="21" customFormat="1">
-      <c r="A25" s="68"/>
-      <c r="B25" s="71" t="s">
+      <c r="A25" s="77"/>
+      <c r="B25" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="72"/>
+      <c r="C25" s="81"/>
       <c r="D25" s="33"/>
       <c r="E25" s="34" t="s">
         <v>10</v>
@@ -2815,16 +2815,16 @@
         <v>20</v>
       </c>
       <c r="O25" s="28"/>
-      <c r="P25" s="78"/>
+      <c r="P25" s="87"/>
     </row>
     <row r="26" spans="1:16" s="21" customFormat="1" ht="24" customHeight="1">
-      <c r="A26" s="68" t="s">
+      <c r="A26" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="69" t="s">
+      <c r="B26" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="70"/>
+      <c r="C26" s="79"/>
       <c r="D26" s="33"/>
       <c r="E26" s="34"/>
       <c r="F26" s="32"/>
@@ -2847,11 +2847,11 @@
       </c>
     </row>
     <row r="27" spans="1:16" s="21" customFormat="1">
-      <c r="A27" s="68"/>
-      <c r="B27" s="69" t="s">
+      <c r="A27" s="77"/>
+      <c r="B27" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="70"/>
+      <c r="C27" s="79"/>
       <c r="D27" s="33" t="s">
         <v>10</v>
       </c>
@@ -2878,11 +2878,11 @@
       <c r="O27" s="28"/>
     </row>
     <row r="28" spans="1:16" s="21" customFormat="1" ht="12" customHeight="1">
-      <c r="A28" s="68"/>
-      <c r="B28" s="71" t="s">
+      <c r="A28" s="77"/>
+      <c r="B28" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="72"/>
+      <c r="C28" s="81"/>
       <c r="D28" s="33"/>
       <c r="E28" s="34" t="s">
         <v>10</v>
@@ -2903,13 +2903,13 @@
       <c r="O28" s="28"/>
     </row>
     <row r="29" spans="1:16" s="21" customFormat="1">
-      <c r="A29" s="68" t="s">
+      <c r="A29" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="71" t="s">
+      <c r="B29" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="72"/>
+      <c r="C29" s="81"/>
       <c r="D29" s="33"/>
       <c r="E29" s="34"/>
       <c r="F29" s="32"/>
@@ -2930,11 +2930,11 @@
       </c>
     </row>
     <row r="30" spans="1:16" s="21" customFormat="1">
-      <c r="A30" s="68"/>
-      <c r="B30" s="69" t="s">
+      <c r="A30" s="77"/>
+      <c r="B30" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="70"/>
+      <c r="C30" s="79"/>
       <c r="D30" s="33"/>
       <c r="E30" s="34"/>
       <c r="F30" s="32"/>
@@ -3435,7 +3435,7 @@
       <c r="I11" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="M11" s="81" t="s">
+      <c r="M11" s="90" t="s">
         <v>62</v>
       </c>
       <c r="O11" s="17" t="s">
@@ -3446,7 +3446,7 @@
       <c r="E12" s="8"/>
       <c r="F12" s="9"/>
       <c r="G12" s="10"/>
-      <c r="M12" s="82"/>
+      <c r="M12" s="91"/>
     </row>
     <row r="13" spans="2:15" ht="34.5" thickBot="1">
       <c r="C13" s="17" t="s">
@@ -3463,7 +3463,7 @@
       <c r="K13" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="M13" s="83"/>
+      <c r="M13" s="92"/>
     </row>
     <row r="14" spans="2:15">
       <c r="E14" s="8"/>
@@ -3552,10 +3552,10 @@
         <v>82</v>
       </c>
       <c r="D5" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="E5" t="s">
         <v>149</v>
-      </c>
-      <c r="E5" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -3566,10 +3566,10 @@
         <v>78</v>
       </c>
       <c r="D6" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" t="s">
         <v>138</v>
-      </c>
-      <c r="E6" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="7" spans="2:5">
@@ -3580,10 +3580,10 @@
         <v>84</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -3594,10 +3594,10 @@
         <v>88</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -3608,10 +3608,10 @@
         <v>77</v>
       </c>
       <c r="D9" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>163</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -3619,13 +3619,13 @@
         <v>7</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -3633,13 +3633,13 @@
         <v>8</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D11" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>154</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -3659,8 +3659,8 @@
   <dimension ref="A1:AA88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H49" sqref="H49"/>
+      <pane ySplit="4" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3680,7 +3680,7 @@
     <row r="1" spans="1:27" hidden="1"/>
     <row r="2" spans="1:27" hidden="1">
       <c r="E2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Y2" s="1" t="str">
         <f>CHAR(9)</f>
@@ -3722,7 +3722,7 @@
         <v>7</v>
       </c>
       <c r="X3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Y3" s="1" t="str">
         <f>CONCATENATE("},",CHAR(32),"// ")</f>
@@ -3730,73 +3730,73 @@
       </c>
     </row>
     <row r="4" spans="1:27" ht="107.25">
-      <c r="A4" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="B4" s="84"/>
-      <c r="C4" s="85" t="s">
-        <v>172</v>
+      <c r="A4" s="66" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" s="66"/>
+      <c r="C4" s="67" t="s">
+        <v>171</v>
       </c>
       <c r="D4" s="19"/>
-      <c r="E4" s="86" t="s">
+      <c r="E4" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="F4" s="86" t="s">
+      <c r="F4" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="G4" s="86" t="s">
-        <v>137</v>
-      </c>
-      <c r="H4" s="86" t="s">
+      <c r="G4" s="68" t="s">
+        <v>136</v>
+      </c>
+      <c r="H4" s="68" t="s">
+        <v>140</v>
+      </c>
+      <c r="I4" s="69" t="s">
         <v>141</v>
       </c>
-      <c r="I4" s="87" t="s">
-        <v>142</v>
-      </c>
-      <c r="J4" s="88" t="s">
+      <c r="J4" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="K4" s="88" t="s">
+      <c r="K4" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="L4" s="88" t="s">
+      <c r="L4" s="70" t="s">
         <v>94</v>
       </c>
-      <c r="M4" s="88" t="s">
+      <c r="M4" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="N4" s="88" t="s">
+      <c r="N4" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="O4" s="88" t="s">
+      <c r="O4" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="P4" s="88" t="s">
+      <c r="P4" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="Q4" s="88" t="s">
+      <c r="Q4" s="70" t="s">
         <v>103</v>
       </c>
-      <c r="R4" s="89" t="s">
-        <v>113</v>
-      </c>
-      <c r="S4" s="90" t="s">
+      <c r="R4" s="71" t="s">
+        <v>112</v>
+      </c>
+      <c r="S4" s="72" t="s">
+        <v>169</v>
+      </c>
+      <c r="T4" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="U4" s="73" t="s">
+        <v>115</v>
+      </c>
+      <c r="V4" s="74" t="s">
+        <v>132</v>
+      </c>
+      <c r="W4" s="74" t="s">
+        <v>131</v>
+      </c>
+      <c r="X4" s="62" t="s">
         <v>170</v>
-      </c>
-      <c r="T4" s="91" t="s">
-        <v>80</v>
-      </c>
-      <c r="U4" s="91" t="s">
-        <v>116</v>
-      </c>
-      <c r="V4" s="92" t="s">
-        <v>133</v>
-      </c>
-      <c r="W4" s="92" t="s">
-        <v>132</v>
-      </c>
-      <c r="X4" s="62" t="s">
-        <v>171</v>
       </c>
       <c r="Y4" s="61"/>
       <c r="Z4" s="61"/>
@@ -3804,11 +3804,11 @@
     </row>
     <row r="5" spans="1:27">
       <c r="A5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="65" t="str">
         <f>DEC2HEX(A5,2)</f>
-        <v>00</v>
+        <v>01</v>
       </c>
       <c r="E5" s="49"/>
       <c r="F5" s="49"/>
@@ -3859,25 +3859,25 @@
       </c>
       <c r="W5" s="52" t="str">
         <f>DEC2HEX(A5,2)</f>
-        <v>00</v>
+        <v>01</v>
       </c>
       <c r="X5" t="str">
-        <f>CONCATENATE($X$3,"'",T5,"', 0x",U5,$Y$3,DEC2HEX(A5,2),": ",R5)</f>
-        <v xml:space="preserve">   {'P', 0x2C}, // 00: Наполнение основного бака для полоскания</v>
+        <f>CONCATENATE($X$3,"'",T5,"', 0x",U5,$Y$3,A5,": ",R5)</f>
+        <v xml:space="preserve">   {'P', 0x2C}, // 1: Наполнение основного бака для полоскания</v>
       </c>
       <c r="Y5" s="1" t="str">
         <f>X5</f>
-        <v xml:space="preserve">   {'P', 0x2C}, // 00: Наполнение основного бака для полоскания</v>
+        <v xml:space="preserve">   {'P', 0x2C}, // 1: Наполнение основного бака для полоскания</v>
       </c>
     </row>
     <row r="6" spans="1:27">
       <c r="A6">
         <f>A5+1</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="65" t="str">
         <f t="shared" ref="C6:C68" si="1">DEC2HEX(A6,2)</f>
-        <v>01</v>
+        <v>02</v>
       </c>
       <c r="E6" s="49"/>
       <c r="F6" s="49"/>
@@ -3897,7 +3897,7 @@
       <c r="P6" s="47"/>
       <c r="Q6" s="47"/>
       <c r="R6" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="S6" s="1">
         <f>I6+G6*2^4</f>
@@ -3916,21 +3916,21 @@
       </c>
       <c r="W6" s="52" t="str">
         <f t="shared" ref="W6:W66" si="3">DEC2HEX(A6,2)</f>
-        <v>01</v>
+        <v>02</v>
       </c>
       <c r="X6" t="str">
-        <f t="shared" ref="X6:X66" si="4">CONCATENATE($X$3,"'",T6,"', 0x",U6,$Y$3,DEC2HEX(A6,2),": ",R6)</f>
-        <v xml:space="preserve">   {'T', 0x08}, // 01: Взводим таймер на t8 = 10 мин</v>
+        <f t="shared" ref="X6:X66" si="4">CONCATENATE($X$3,"'",T6,"', 0x",U6,$Y$3,A6,": ",R6)</f>
+        <v xml:space="preserve">   {'T', 0x08}, // 2: Взводим таймер на t8 = 10 мин</v>
       </c>
     </row>
     <row r="7" spans="1:27">
       <c r="A7">
         <f t="shared" ref="A7:A68" si="5">A6+1</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>02</v>
+        <v>03</v>
       </c>
       <c r="E7" s="49">
         <v>1</v>
@@ -3952,7 +3952,7 @@
       <c r="P7" s="47"/>
       <c r="Q7" s="47"/>
       <c r="R7" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="S7" s="1">
         <f>2^0*E7+2^1*F7+H7*2^7+G7*2^4</f>
@@ -3971,21 +3971,21 @@
       </c>
       <c r="W7" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>02</v>
+        <v>03</v>
       </c>
       <c r="X7" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'W', 0x81}, // 02: Ждем наполнения или ошибки окончания таймера</v>
+        <v xml:space="preserve">   {'W', 0x81}, // 3: Ждем наполнения или ошибки окончания таймера</v>
       </c>
     </row>
     <row r="8" spans="1:27">
       <c r="A8">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>03</v>
+        <v>04</v>
       </c>
       <c r="E8" s="49"/>
       <c r="F8" s="49"/>
@@ -4036,21 +4036,21 @@
       </c>
       <c r="W8" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>03</v>
+        <v>04</v>
       </c>
       <c r="X8" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'P', 0x70}, // 03: начать полоскание достаточно теплой водой</v>
+        <v xml:space="preserve">   {'P', 0x70}, // 4: начать полоскание достаточно теплой водой</v>
       </c>
     </row>
     <row r="9" spans="1:27">
       <c r="A9">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>04</v>
+        <v>05</v>
       </c>
       <c r="E9" s="49"/>
       <c r="F9" s="49"/>
@@ -4070,7 +4070,7 @@
       <c r="P9" s="47"/>
       <c r="Q9" s="47"/>
       <c r="R9" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="S9" s="1">
         <f>I9+G9*2^4</f>
@@ -4089,21 +4089,21 @@
       </c>
       <c r="W9" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>04</v>
+        <v>05</v>
       </c>
       <c r="X9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'T', 0x03}, // 04: Взводим таймер на t3 = 5 мин</v>
+        <v xml:space="preserve">   {'T', 0x03}, // 5: Взводим таймер на t3 = 5 мин</v>
       </c>
     </row>
     <row r="10" spans="1:27">
       <c r="A10">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>05</v>
+        <v>06</v>
       </c>
       <c r="E10" s="49"/>
       <c r="F10" s="49"/>
@@ -4121,7 +4121,7 @@
       <c r="P10" s="47"/>
       <c r="Q10" s="47"/>
       <c r="R10" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="S10" s="1">
         <f>2^0*E10+2^1*F10+H10*2^7+G10*2^4</f>
@@ -4140,21 +4140,21 @@
       </c>
       <c r="W10" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>05</v>
+        <v>06</v>
       </c>
       <c r="X10" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'W', 0x00}, // 05: Ждем таймер</v>
+        <v xml:space="preserve">   {'W', 0x00}, // 6: Ждем таймер</v>
       </c>
     </row>
     <row r="11" spans="1:27">
       <c r="A11">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>06</v>
+        <v>07</v>
       </c>
       <c r="E11" s="49"/>
       <c r="F11" s="49"/>
@@ -4205,21 +4205,21 @@
       </c>
       <c r="W11" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>06</v>
+        <v>07</v>
       </c>
       <c r="X11" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'P', 0x00}, // 06: Слив</v>
+        <v xml:space="preserve">   {'P', 0x00}, // 7: Слив</v>
       </c>
     </row>
     <row r="12" spans="1:27">
       <c r="A12">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>07</v>
+        <v>08</v>
       </c>
       <c r="E12" s="49"/>
       <c r="F12" s="49"/>
@@ -4239,7 +4239,7 @@
       <c r="P12" s="47"/>
       <c r="Q12" s="47"/>
       <c r="R12" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="S12" s="1">
         <f>I12+G12*2^4</f>
@@ -4258,21 +4258,21 @@
       </c>
       <c r="W12" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>07</v>
+        <v>08</v>
       </c>
       <c r="X12" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'T', 0x09}, // 07: Взводим таймер на t9 = 15 мин</v>
+        <v xml:space="preserve">   {'T', 0x09}, // 8: Взводим таймер на t9 = 15 мин</v>
       </c>
     </row>
     <row r="13" spans="1:27">
       <c r="A13">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>08</v>
+        <v>09</v>
       </c>
       <c r="E13" s="49"/>
       <c r="F13" s="49">
@@ -4294,7 +4294,7 @@
       <c r="P13" s="47"/>
       <c r="Q13" s="47"/>
       <c r="R13" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S13" s="1">
         <f>2^0*E13+2^1*F13+H13*2^7+G13*2^4</f>
@@ -4313,21 +4313,21 @@
       </c>
       <c r="W13" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>08</v>
+        <v>09</v>
       </c>
       <c r="X13" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'W', 0x02}, // 08: Ждем слива или ошибки окончания таймера</v>
+        <v xml:space="preserve">   {'W', 0x02}, // 9: Ждем слива или ошибки окончания таймера</v>
       </c>
     </row>
     <row r="14" spans="1:27">
       <c r="A14">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C14" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>09</v>
+        <v>0A</v>
       </c>
       <c r="E14" s="49"/>
       <c r="F14" s="49"/>
@@ -4378,21 +4378,21 @@
       </c>
       <c r="W14" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>09</v>
+        <v>0A</v>
       </c>
       <c r="X14" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'P', 0x29}, // 09: Наполнение основного бака для мойки 1</v>
+        <v xml:space="preserve">   {'P', 0x29}, // 10: Наполнение основного бака для мойки 1</v>
       </c>
     </row>
     <row r="15" spans="1:27">
       <c r="A15">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C15" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>0A</v>
+        <v>0B</v>
       </c>
       <c r="E15" s="49"/>
       <c r="F15" s="49"/>
@@ -4410,7 +4410,7 @@
       <c r="P15" s="47"/>
       <c r="Q15" s="47"/>
       <c r="R15" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S15" s="1">
         <f>I15+G15*2^4</f>
@@ -4429,21 +4429,21 @@
       </c>
       <c r="W15" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>0A</v>
+        <v>0B</v>
       </c>
       <c r="X15" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'C', 0x10}, // 0A: Засекаем время для расчетного периода, используя таймер 1</v>
+        <v xml:space="preserve">   {'C', 0x10}, // 11: Засекаем время для расчетного периода, используя таймер 1</v>
       </c>
     </row>
     <row r="16" spans="1:27">
       <c r="A16">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C16" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>0B</v>
+        <v>0C</v>
       </c>
       <c r="E16" s="49"/>
       <c r="F16" s="49"/>
@@ -4463,7 +4463,7 @@
       <c r="P16" s="47"/>
       <c r="Q16" s="47"/>
       <c r="R16" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S16" s="1">
         <f>I16+G16*2^4</f>
@@ -4482,21 +4482,21 @@
       </c>
       <c r="W16" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>0B</v>
+        <v>0C</v>
       </c>
       <c r="X16" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'T', 0x01}, // 0B: Взводим таймер на t1 = 30 сек</v>
+        <v xml:space="preserve">   {'T', 0x01}, // 12: Взводим таймер на t1 = 30 сек</v>
       </c>
     </row>
     <row r="17" spans="1:24">
       <c r="A17">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C17" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>0C</v>
+        <v>0D</v>
       </c>
       <c r="E17" s="49">
         <v>1</v>
@@ -4535,21 +4535,21 @@
       </c>
       <c r="W17" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>0C</v>
+        <v>0D</v>
       </c>
       <c r="X17" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'W', 0x01}, // 0C: Ждем наполнения или T1</v>
+        <v xml:space="preserve">   {'W', 0x01}, // 13: Ждем наполнения или T1</v>
       </c>
     </row>
     <row r="18" spans="1:24">
       <c r="A18">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C18" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>0D</v>
+        <v>0E</v>
       </c>
       <c r="E18" s="49"/>
       <c r="F18" s="49"/>
@@ -4600,21 +4600,21 @@
       </c>
       <c r="W18" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>0D</v>
+        <v>0E</v>
       </c>
       <c r="X18" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'P', 0x28}, // 0D: Откл.моющую жидкость</v>
+        <v xml:space="preserve">   {'P', 0x28}, // 14: Откл.моющую жидкость</v>
       </c>
     </row>
     <row r="19" spans="1:24">
       <c r="A19">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C19" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>0E</v>
+        <v>0F</v>
       </c>
       <c r="E19" s="49"/>
       <c r="F19" s="49"/>
@@ -4634,7 +4634,7 @@
       <c r="P19" s="47"/>
       <c r="Q19" s="47"/>
       <c r="R19" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="S19" s="1">
         <f>I19+G19*2^4</f>
@@ -4653,21 +4653,21 @@
       </c>
       <c r="W19" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>0E</v>
+        <v>0F</v>
       </c>
       <c r="X19" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'T', 0x08}, // 0E: Взводим таймер на t8 = 10 мин</v>
+        <v xml:space="preserve">   {'T', 0x08}, // 15: Взводим таймер на t8 = 10 мин</v>
       </c>
     </row>
     <row r="20" spans="1:24">
       <c r="A20">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C20" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>0F</v>
+        <v>10</v>
       </c>
       <c r="E20" s="49">
         <v>1</v>
@@ -4689,7 +4689,7 @@
       <c r="P20" s="47"/>
       <c r="Q20" s="47"/>
       <c r="R20" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="S20" s="1">
         <f>2^0*E20+2^1*F20+H20*2^7+G20*2^4</f>
@@ -4708,21 +4708,21 @@
       </c>
       <c r="W20" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>0F</v>
+        <v>10</v>
       </c>
       <c r="X20" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'W', 0x81}, // 0F: Ждем наполнения или ошибки окончания таймера</v>
+        <v xml:space="preserve">   {'W', 0x81}, // 16: Ждем наполнения или ошибки окончания таймера</v>
       </c>
     </row>
     <row r="21" spans="1:24">
       <c r="A21">
         <f t="shared" si="5"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C21" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" s="49"/>
       <c r="F21" s="49"/>
@@ -4742,7 +4742,7 @@
       <c r="P21" s="47"/>
       <c r="Q21" s="47"/>
       <c r="R21" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="S21" s="1">
         <f>I21+G21*2^4+2</f>
@@ -4761,21 +4761,21 @@
       </c>
       <c r="W21" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X21" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'S', 0x12}, // 10: Запоминаем время заполнения бака / 2 в длительность N 0</v>
+        <v xml:space="preserve">   {'S', 0x12}, // 17: Запоминаем время заполнения бака / 2 в длительность N 0</v>
       </c>
     </row>
     <row r="22" spans="1:24">
       <c r="A22">
         <f t="shared" si="5"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C22" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E22" s="49"/>
       <c r="F22" s="49"/>
@@ -4826,21 +4826,21 @@
       </c>
       <c r="W22" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X22" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'P', 0x70}, // 11: Мойка</v>
+        <v xml:space="preserve">   {'P', 0x70}, // 18: Мойка</v>
       </c>
     </row>
     <row r="23" spans="1:24">
       <c r="A23">
         <f t="shared" si="5"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C23" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E23" s="49"/>
       <c r="F23" s="49"/>
@@ -4860,7 +4860,7 @@
       <c r="P23" s="47"/>
       <c r="Q23" s="47"/>
       <c r="R23" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S23" s="1">
         <f>I23+G23*2^4</f>
@@ -4879,21 +4879,21 @@
       </c>
       <c r="W23" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X23" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'T', 0x04}, // 12: Взводим таймер на t4 = 15 мин</v>
+        <v xml:space="preserve">   {'T', 0x04}, // 19: Взводим таймер на t4 = 15 мин</v>
       </c>
     </row>
     <row r="24" spans="1:24">
       <c r="A24">
         <f t="shared" si="5"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C24" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E24" s="49"/>
       <c r="F24" s="49">
@@ -4932,24 +4932,24 @@
       </c>
       <c r="W24" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="X24" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'W', 0x02}, // 13: Кончилась вода|Закончилась мойка</v>
+        <v xml:space="preserve">   {'W', 0x02}, // 20: Кончилась вода|Закончилась мойка</v>
       </c>
     </row>
     <row r="25" spans="1:24">
       <c r="A25">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C25" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>106</v>
+        <v>173</v>
       </c>
       <c r="E25" s="49"/>
       <c r="F25" s="49"/>
@@ -4986,24 +4986,24 @@
       </c>
       <c r="W25" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="X25" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'I', 0x06}, // 14: Если кончилась мойка - переход</v>
+        <v xml:space="preserve">   {'I', 0x06}, // 21: Если кончилась мойка - переход</v>
       </c>
     </row>
     <row r="26" spans="1:24">
       <c r="A26">
         <f t="shared" si="5"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C26" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E26" s="50"/>
       <c r="F26" s="50"/>
@@ -5035,7 +5035,7 @@
         <v>0</v>
       </c>
       <c r="R26" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="S26" s="1">
         <f>2^0*J26+2^1*K26+2^2*L26+2^3*M26+2^4*N26+2^5*O26+2^6*P26+2^7*Q26</f>
@@ -5054,24 +5054,24 @@
       </c>
       <c r="W26" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="X26" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'P', 0x78}, // 15: Иначе долив полбака горячей</v>
+        <v xml:space="preserve">   {'P', 0x78}, // 22: Иначе долив полбака горячей</v>
       </c>
     </row>
     <row r="27" spans="1:24">
       <c r="A27">
         <f t="shared" si="5"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C27" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E27" s="59"/>
       <c r="F27" s="59"/>
@@ -5091,7 +5091,7 @@
       <c r="P27" s="47"/>
       <c r="Q27" s="47"/>
       <c r="R27" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="S27" s="1">
         <f>I27+G27*2^4</f>
@@ -5110,24 +5110,24 @@
       </c>
       <c r="W27" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="X27" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'T', 0x10}, // 16: Взводим доп.таймер на посчитанную длительность полбака</v>
+        <v xml:space="preserve">   {'T', 0x10}, // 23: Взводим доп.таймер на посчитанную длительность полбака</v>
       </c>
     </row>
     <row r="28" spans="1:24">
       <c r="A28">
         <f t="shared" si="5"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C28" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E28" s="49">
         <v>1</v>
@@ -5147,7 +5147,7 @@
       <c r="P28" s="48"/>
       <c r="Q28" s="48"/>
       <c r="R28" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S28" s="1">
         <f>2^0*E28+2^1*F28+H28*2^7+G28*2^4</f>
@@ -5166,24 +5166,24 @@
       </c>
       <c r="W28" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="X28" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'W', 0x11}, // 17: Ждем таймер (полбака) или переполнение</v>
+        <v xml:space="preserve">   {'W', 0x11}, // 24: Ждем таймер (полбака) или переполнение</v>
       </c>
     </row>
     <row r="29" spans="1:24">
       <c r="A29">
         <f t="shared" si="5"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C29" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E29" s="49"/>
       <c r="F29" s="49"/>
@@ -5215,7 +5215,7 @@
         <v>0</v>
       </c>
       <c r="R29" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S29" s="1">
         <f>2^0*J29+2^1*K29+2^2*L29+2^3*M29+2^4*N29+2^5*O29+2^6*P29+2^7*Q29</f>
@@ -5234,24 +5234,24 @@
       </c>
       <c r="W29" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="X29" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'P', 0x70}, // 18: Продолжаем мойку и слив</v>
+        <v xml:space="preserve">   {'P', 0x70}, // 25: Продолжаем мойку и слив</v>
       </c>
     </row>
     <row r="30" spans="1:24">
       <c r="A30">
         <f t="shared" si="5"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>1A</v>
       </c>
       <c r="D30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E30" s="49"/>
       <c r="F30" s="49">
@@ -5271,7 +5271,7 @@
       <c r="P30" s="47"/>
       <c r="Q30" s="47"/>
       <c r="R30" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="S30" s="63">
         <f>2^0*E30+2^1*F30+H30*2^7+G30*2^4</f>
@@ -5290,24 +5290,24 @@
       </c>
       <c r="W30" s="53" t="str">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>1A</v>
       </c>
       <c r="X30" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'W', 0x02}, // 19: Ждем окончания или пустого бака</v>
+        <v xml:space="preserve">   {'W', 0x02}, // 26: Ждем окончания или пустого бака</v>
       </c>
     </row>
     <row r="31" spans="1:24">
       <c r="A31">
         <f t="shared" si="5"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C31" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>1A</v>
+        <v>1B</v>
       </c>
       <c r="D31" s="46" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E31" s="49"/>
       <c r="F31" s="49"/>
@@ -5358,21 +5358,21 @@
       </c>
       <c r="W31" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>1A</v>
+        <v>1B</v>
       </c>
       <c r="X31" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'P', 0x50}, // 1A: Слив</v>
+        <v xml:space="preserve">   {'P', 0x50}, // 27: Слив</v>
       </c>
     </row>
     <row r="32" spans="1:24">
       <c r="A32">
         <f t="shared" si="5"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C32" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>1B</v>
+        <v>1C</v>
       </c>
       <c r="D32" s="46"/>
       <c r="E32" s="49"/>
@@ -5393,7 +5393,7 @@
       <c r="P32" s="47"/>
       <c r="Q32" s="47"/>
       <c r="R32" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="S32" s="1">
         <f>I32+G32*2^4</f>
@@ -5412,21 +5412,21 @@
       </c>
       <c r="W32" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>1B</v>
+        <v>1C</v>
       </c>
       <c r="X32" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'T', 0x09}, // 1B: Взводим таймер на t9 = 15 мин</v>
+        <v xml:space="preserve">   {'T', 0x09}, // 28: Взводим таймер на t9 = 15 мин</v>
       </c>
     </row>
     <row r="33" spans="1:24">
       <c r="A33">
         <f t="shared" si="5"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C33" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>1C</v>
+        <v>1D</v>
       </c>
       <c r="E33" s="49"/>
       <c r="F33" s="49">
@@ -5448,7 +5448,7 @@
       <c r="P33" s="47"/>
       <c r="Q33" s="47"/>
       <c r="R33" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S33" s="1">
         <f>2^0*E33+2^1*F33+H33*2^7+G33*2^4</f>
@@ -5467,21 +5467,21 @@
       </c>
       <c r="W33" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>1C</v>
+        <v>1D</v>
       </c>
       <c r="X33" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'W', 0x02}, // 1C: Ждем слива или ошибки окончания таймера</v>
+        <v xml:space="preserve">   {'W', 0x02}, // 29: Ждем слива или ошибки окончания таймера</v>
       </c>
     </row>
     <row r="34" spans="1:24">
       <c r="A34">
         <f t="shared" si="5"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C34" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>1D</v>
+        <v>1E</v>
       </c>
       <c r="E34" s="49"/>
       <c r="F34" s="49"/>
@@ -5532,21 +5532,21 @@
       </c>
       <c r="W34" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>1D</v>
+        <v>1E</v>
       </c>
       <c r="X34" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'P', 0x24}, // 1D: Наполнение основного бака для полоскания - холодная вода</v>
+        <v xml:space="preserve">   {'P', 0x24}, // 30: Наполнение основного бака для полоскания - холодная вода</v>
       </c>
     </row>
     <row r="35" spans="1:24">
       <c r="A35">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C35" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>1E</v>
+        <v>1F</v>
       </c>
       <c r="E35" s="49"/>
       <c r="F35" s="49"/>
@@ -5564,7 +5564,7 @@
       <c r="P35" s="47"/>
       <c r="Q35" s="47"/>
       <c r="R35" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="S35" s="1">
         <f>I35+G35*2^4</f>
@@ -5583,21 +5583,21 @@
       </c>
       <c r="W35" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>1E</v>
+        <v>1F</v>
       </c>
       <c r="X35" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'T', 0x08}, // 1E: Взводим таймер на t8 = 10 мин</v>
+        <v xml:space="preserve">   {'T', 0x08}, // 31: Взводим таймер на t8 = 10 мин</v>
       </c>
     </row>
     <row r="36" spans="1:24">
       <c r="A36">
         <f t="shared" si="5"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C36" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>1F</v>
+        <v>20</v>
       </c>
       <c r="E36" s="49">
         <v>1</v>
@@ -5619,7 +5619,7 @@
       <c r="P36" s="47"/>
       <c r="Q36" s="47"/>
       <c r="R36" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="S36" s="1">
         <f>2^0*E36+2^1*F36+H36*2^7+G36*2^4</f>
@@ -5638,21 +5638,21 @@
       </c>
       <c r="W36" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>1F</v>
+        <v>20</v>
       </c>
       <c r="X36" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'W', 0x81}, // 1F: Ждем наполнения или ошибки окончания таймера</v>
+        <v xml:space="preserve">   {'W', 0x81}, // 32: Ждем наполнения или ошибки окончания таймера</v>
       </c>
     </row>
     <row r="37" spans="1:24">
       <c r="A37">
         <f t="shared" si="5"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C37" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E37" s="49"/>
       <c r="F37" s="49"/>
@@ -5684,7 +5684,7 @@
         <v>0</v>
       </c>
       <c r="R37" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S37" s="1">
         <f>2^0*J37+2^1*K37+2^2*L37+2^3*M37+2^4*N37+2^5*O37+2^6*P37+2^7*Q37</f>
@@ -5703,21 +5703,21 @@
       </c>
       <c r="W37" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X37" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'P', 0x50}, // 20: Полоскание + слив</v>
+        <v xml:space="preserve">   {'P', 0x50}, // 33: Полоскание + слив</v>
       </c>
     </row>
     <row r="38" spans="1:24">
       <c r="A38">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C38" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E38" s="49"/>
       <c r="F38" s="49"/>
@@ -5737,7 +5737,7 @@
       <c r="P38" s="47"/>
       <c r="Q38" s="47"/>
       <c r="R38" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="S38" s="1">
         <f>I38+G38*2^4</f>
@@ -5756,21 +5756,21 @@
       </c>
       <c r="W38" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X38" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'T', 0x09}, // 21: Взводим таймер на t9 = 15 мин</v>
+        <v xml:space="preserve">   {'T', 0x09}, // 34: Взводим таймер на t9 = 15 мин</v>
       </c>
     </row>
     <row r="39" spans="1:24">
       <c r="A39">
         <f t="shared" si="5"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E39" s="49"/>
       <c r="F39" s="49">
@@ -5792,7 +5792,7 @@
       <c r="P39" s="47"/>
       <c r="Q39" s="47"/>
       <c r="R39" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S39" s="1">
         <f>2^0*E39+2^1*F39+H39*2^7+G39*2^4</f>
@@ -5811,21 +5811,21 @@
       </c>
       <c r="W39" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="X39" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'W', 0x02}, // 22: Ждем слива или ошибки окончания таймера</v>
+        <v xml:space="preserve">   {'W', 0x02}, // 35: Ждем слива или ошибки окончания таймера</v>
       </c>
     </row>
     <row r="40" spans="1:24">
       <c r="A40">
         <f t="shared" si="5"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C40" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E40" s="49"/>
       <c r="F40" s="49"/>
@@ -5876,21 +5876,21 @@
       </c>
       <c r="W40" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="X40" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'P', 0x2A}, // 23: Наполнение основного бака для мойки 2</v>
+        <v xml:space="preserve">   {'P', 0x2A}, // 36: Наполнение основного бака для мойки 2</v>
       </c>
     </row>
     <row r="41" spans="1:24">
       <c r="A41">
         <f t="shared" si="5"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C41" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E41" s="49"/>
       <c r="F41" s="49"/>
@@ -5910,7 +5910,7 @@
       <c r="P41" s="47"/>
       <c r="Q41" s="47"/>
       <c r="R41" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="S41" s="1">
         <f>I41+G41*2^4</f>
@@ -5929,21 +5929,21 @@
       </c>
       <c r="W41" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="X41" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'T', 0x02}, // 24: Взводим таймер на t2 = 30 сек</v>
+        <v xml:space="preserve">   {'T', 0x02}, // 37: Взводим таймер на t2 = 30 сек</v>
       </c>
     </row>
     <row r="42" spans="1:24">
       <c r="A42">
         <f t="shared" si="5"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C42" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E42" s="49">
         <v>1</v>
@@ -5963,7 +5963,7 @@
       <c r="P42" s="47"/>
       <c r="Q42" s="47"/>
       <c r="R42" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S42" s="1">
         <f>2^0*E42+2^1*F42+H42*2^7+G42*2^4</f>
@@ -5982,21 +5982,21 @@
       </c>
       <c r="W42" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="X42" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'W', 0x01}, // 25: Ждем наполнения или T2</v>
+        <v xml:space="preserve">   {'W', 0x01}, // 38: Ждем наполнения или T2</v>
       </c>
     </row>
     <row r="43" spans="1:24">
       <c r="A43">
         <f t="shared" si="5"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C43" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E43" s="49"/>
       <c r="F43" s="49"/>
@@ -6047,21 +6047,21 @@
       </c>
       <c r="W43" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="X43" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'P', 0x28}, // 26: Откл.моющую жидкость</v>
+        <v xml:space="preserve">   {'P', 0x28}, // 39: Откл.моющую жидкость</v>
       </c>
     </row>
     <row r="44" spans="1:24">
       <c r="A44">
         <f t="shared" si="5"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C44" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E44" s="49"/>
       <c r="F44" s="49"/>
@@ -6081,7 +6081,7 @@
       <c r="P44" s="47"/>
       <c r="Q44" s="47"/>
       <c r="R44" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="S44" s="1">
         <f>I44+G44*2^4</f>
@@ -6100,21 +6100,21 @@
       </c>
       <c r="W44" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="X44" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'T', 0x08}, // 27: Взводим таймер на t8 = 10 мин</v>
+        <v xml:space="preserve">   {'T', 0x08}, // 40: Взводим таймер на t8 = 10 мин</v>
       </c>
     </row>
     <row r="45" spans="1:24">
       <c r="A45">
         <f t="shared" si="5"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C45" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E45" s="49">
         <v>1</v>
@@ -6136,7 +6136,7 @@
       <c r="P45" s="47"/>
       <c r="Q45" s="47"/>
       <c r="R45" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="S45" s="1">
         <f>2^0*E45+2^1*F45+H45*2^7+G45*2^4</f>
@@ -6155,21 +6155,21 @@
       </c>
       <c r="W45" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="X45" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'W', 0x81}, // 28: Ждем наполнения или ошибки окончания таймера</v>
+        <v xml:space="preserve">   {'W', 0x81}, // 41: Ждем наполнения или ошибки окончания таймера</v>
       </c>
     </row>
     <row r="46" spans="1:24">
       <c r="A46">
         <f t="shared" si="5"/>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C46" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>2A</v>
       </c>
       <c r="E46" s="50"/>
       <c r="F46" s="49"/>
@@ -6220,21 +6220,21 @@
       </c>
       <c r="W46" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>29</v>
+        <v>2A</v>
       </c>
       <c r="X46" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'P', 0x70}, // 29: Мойка</v>
+        <v xml:space="preserve">   {'P', 0x70}, // 42: Мойка</v>
       </c>
     </row>
     <row r="47" spans="1:24">
       <c r="A47">
         <f t="shared" si="5"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C47" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>2A</v>
+        <v>2B</v>
       </c>
       <c r="E47" s="50"/>
       <c r="F47" s="49"/>
@@ -6254,7 +6254,7 @@
       <c r="P47" s="47"/>
       <c r="Q47" s="47"/>
       <c r="R47" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="S47" s="1">
         <f>I47+G47*2^4</f>
@@ -6273,21 +6273,21 @@
       </c>
       <c r="W47" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>2A</v>
+        <v>2B</v>
       </c>
       <c r="X47" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'T', 0x05}, // 2A: Взводим таймер на t5 = 15 мин</v>
+        <v xml:space="preserve">   {'T', 0x05}, // 43: Взводим таймер на t5 = 15 мин</v>
       </c>
     </row>
     <row r="48" spans="1:24">
       <c r="A48">
         <f t="shared" si="5"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C48" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>2B</v>
+        <v>2C</v>
       </c>
       <c r="E48" s="49"/>
       <c r="F48" s="49">
@@ -6326,24 +6326,24 @@
       </c>
       <c r="W48" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>2B</v>
+        <v>2C</v>
       </c>
       <c r="X48" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'W', 0x02}, // 2B: Кончилась вода|Закончилась мойка</v>
+        <v xml:space="preserve">   {'W', 0x02}, // 44: Кончилась вода|Закончилась мойка</v>
       </c>
     </row>
     <row r="49" spans="1:24">
       <c r="A49">
         <f t="shared" si="5"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C49" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>2C</v>
+        <v>2D</v>
       </c>
       <c r="D49" t="s">
-        <v>106</v>
+        <v>173</v>
       </c>
       <c r="E49" s="49"/>
       <c r="F49" s="49"/>
@@ -6380,24 +6380,24 @@
       </c>
       <c r="W49" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>2C</v>
+        <v>2D</v>
       </c>
       <c r="X49" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'I', 0x06}, // 2C: Если кончилась мойка - переход</v>
+        <v xml:space="preserve">   {'I', 0x06}, // 45: Если кончилась мойка - переход</v>
       </c>
     </row>
     <row r="50" spans="1:24">
       <c r="A50">
         <f t="shared" si="5"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C50" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>2D</v>
+        <v>2E</v>
       </c>
       <c r="D50" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E50" s="50"/>
       <c r="F50" s="50"/>
@@ -6429,7 +6429,7 @@
         <v>0</v>
       </c>
       <c r="R50" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="S50" s="1">
         <f>2^0*J50+2^1*K50+2^2*L50+2^3*M50+2^4*N50+2^5*O50+2^6*P50+2^7*Q50</f>
@@ -6448,24 +6448,24 @@
       </c>
       <c r="W50" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>2D</v>
+        <v>2E</v>
       </c>
       <c r="X50" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'P', 0x78}, // 2D: Иначе долив полбака горячей</v>
+        <v xml:space="preserve">   {'P', 0x78}, // 46: Иначе долив полбака горячей</v>
       </c>
     </row>
     <row r="51" spans="1:24">
       <c r="A51">
         <f t="shared" si="5"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C51" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>2E</v>
+        <v>2F</v>
       </c>
       <c r="D51" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E51" s="59"/>
       <c r="F51" s="59"/>
@@ -6485,7 +6485,7 @@
       <c r="P51" s="47"/>
       <c r="Q51" s="47"/>
       <c r="R51" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="S51" s="1">
         <f>I51+G51*2^4</f>
@@ -6504,24 +6504,24 @@
       </c>
       <c r="W51" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>2E</v>
+        <v>2F</v>
       </c>
       <c r="X51" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'T', 0x10}, // 2E: Взводим доп.таймер на посчитанную длительность полбака</v>
+        <v xml:space="preserve">   {'T', 0x10}, // 47: Взводим доп.таймер на посчитанную длительность полбака</v>
       </c>
     </row>
     <row r="52" spans="1:24">
       <c r="A52">
         <f t="shared" si="5"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C52" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>2F</v>
+        <v>30</v>
       </c>
       <c r="D52" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E52" s="49">
         <v>1</v>
@@ -6541,7 +6541,7 @@
       <c r="P52" s="48"/>
       <c r="Q52" s="48"/>
       <c r="R52" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S52" s="1">
         <f>2^0*E52+2^1*F52+H52*2^7+G52*2^4</f>
@@ -6560,24 +6560,24 @@
       </c>
       <c r="W52" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>2F</v>
+        <v>30</v>
       </c>
       <c r="X52" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'W', 0x11}, // 2F: Ждем таймер (полбака) или переполнение</v>
+        <v xml:space="preserve">   {'W', 0x11}, // 48: Ждем таймер (полбака) или переполнение</v>
       </c>
     </row>
     <row r="53" spans="1:24">
       <c r="A53">
         <f t="shared" si="5"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C53" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D53" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E53" s="49"/>
       <c r="F53" s="49"/>
@@ -6609,7 +6609,7 @@
         <v>0</v>
       </c>
       <c r="R53" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="S53" s="1">
         <f>2^0*J53+2^1*K53+2^2*L53+2^3*M53+2^4*N53+2^5*O53+2^6*P53+2^7*Q53</f>
@@ -6628,24 +6628,24 @@
       </c>
       <c r="W53" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="X53" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'P', 0x70}, // 30: Продолжаем мойку</v>
+        <v xml:space="preserve">   {'P', 0x70}, // 49: Продолжаем мойку</v>
       </c>
     </row>
     <row r="54" spans="1:24">
       <c r="A54">
         <f t="shared" si="5"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C54" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D54" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E54" s="49"/>
       <c r="F54" s="49">
@@ -6665,7 +6665,7 @@
       <c r="P54" s="47"/>
       <c r="Q54" s="47"/>
       <c r="R54" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S54" s="1">
         <f>2^0*E54+2^1*F54+H54*2^7+G54*2^4</f>
@@ -6684,24 +6684,24 @@
       </c>
       <c r="W54" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X54" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'W', 0x02}, // 31: Ждем окончания</v>
+        <v xml:space="preserve">   {'W', 0x02}, // 50: Ждем окончания</v>
       </c>
     </row>
     <row r="55" spans="1:24">
       <c r="A55">
         <f t="shared" si="5"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C55" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D55" s="46" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E55" s="49"/>
       <c r="F55" s="49"/>
@@ -6752,21 +6752,21 @@
       </c>
       <c r="W55" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X55" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'P', 0x50}, // 32: Слив</v>
+        <v xml:space="preserve">   {'P', 0x50}, // 51: Слив</v>
       </c>
     </row>
     <row r="56" spans="1:24">
       <c r="A56">
         <f t="shared" si="5"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C56" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D56" s="46"/>
       <c r="E56" s="49"/>
@@ -6787,7 +6787,7 @@
       <c r="P56" s="47"/>
       <c r="Q56" s="47"/>
       <c r="R56" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="S56" s="1">
         <f>I56+G56*2^4</f>
@@ -6806,21 +6806,21 @@
       </c>
       <c r="W56" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X56" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'T', 0x09}, // 33: Взводим таймер на t9 = 15 мин</v>
+        <v xml:space="preserve">   {'T', 0x09}, // 52: Взводим таймер на t9 = 15 мин</v>
       </c>
     </row>
     <row r="57" spans="1:24">
       <c r="A57">
         <f t="shared" si="5"/>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C57" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E57" s="49"/>
       <c r="F57" s="49">
@@ -6842,7 +6842,7 @@
       <c r="P57" s="47"/>
       <c r="Q57" s="47"/>
       <c r="R57" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S57" s="1">
         <f>2^0*E57+2^1*F57+H57*2^7+G57*2^4</f>
@@ -6861,21 +6861,21 @@
       </c>
       <c r="W57" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="X57" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'W', 0x02}, // 34: Ждем слива или ошибки окончания таймера</v>
+        <v xml:space="preserve">   {'W', 0x02}, // 53: Ждем слива или ошибки окончания таймера</v>
       </c>
     </row>
     <row r="58" spans="1:24">
       <c r="A58">
         <f t="shared" si="5"/>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C58" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E58" s="49"/>
       <c r="F58" s="49"/>
@@ -6926,21 +6926,21 @@
       </c>
       <c r="W58" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X58" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'P', 0x24}, // 35: Наполнение основного бака для полоскания - холодная вода</v>
+        <v xml:space="preserve">   {'P', 0x24}, // 54: Наполнение основного бака для полоскания - холодная вода</v>
       </c>
     </row>
     <row r="59" spans="1:24">
       <c r="A59">
         <f t="shared" si="5"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C59" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E59" s="49"/>
       <c r="F59" s="49"/>
@@ -6960,7 +6960,7 @@
       <c r="P59" s="47"/>
       <c r="Q59" s="47"/>
       <c r="R59" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="S59" s="1">
         <f>I59+G59*2^4</f>
@@ -6979,21 +6979,21 @@
       </c>
       <c r="W59" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X59" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'T', 0x08}, // 36: Взводим таймер на t8 = 10 мин</v>
+        <v xml:space="preserve">   {'T', 0x08}, // 55: Взводим таймер на t8 = 10 мин</v>
       </c>
     </row>
     <row r="60" spans="1:24">
       <c r="A60">
         <f t="shared" si="5"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C60" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E60" s="49">
         <v>1</v>
@@ -7015,7 +7015,7 @@
       <c r="P60" s="47"/>
       <c r="Q60" s="47"/>
       <c r="R60" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="S60" s="1">
         <f>2^0*E60+2^1*F60+H60*2^7+G60*2^4</f>
@@ -7034,21 +7034,21 @@
       </c>
       <c r="W60" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X60" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'W', 0x81}, // 37: Ждем наполнения или ошибки окончания таймера</v>
+        <v xml:space="preserve">   {'W', 0x81}, // 56: Ждем наполнения или ошибки окончания таймера</v>
       </c>
     </row>
     <row r="61" spans="1:24">
       <c r="A61">
         <f t="shared" si="5"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C61" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E61" s="49"/>
       <c r="F61" s="49"/>
@@ -7080,7 +7080,7 @@
         <v>0</v>
       </c>
       <c r="R61" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S61" s="1">
         <f>2^0*J61+2^1*K61+2^2*L61+2^3*M61+2^4*N61+2^5*O61+2^6*P61+2^7*Q61</f>
@@ -7099,21 +7099,21 @@
       </c>
       <c r="W61" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X61" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'P', 0x50}, // 38: Полоскание + слив</v>
+        <v xml:space="preserve">   {'P', 0x50}, // 57: Полоскание + слив</v>
       </c>
     </row>
     <row r="62" spans="1:24">
       <c r="A62">
         <f t="shared" si="5"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C62" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>39</v>
+        <v>3A</v>
       </c>
       <c r="E62" s="49"/>
       <c r="F62" s="49"/>
@@ -7133,7 +7133,7 @@
       <c r="P62" s="47"/>
       <c r="Q62" s="47"/>
       <c r="R62" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="S62" s="1">
         <f>I62+G62*2^4</f>
@@ -7152,21 +7152,21 @@
       </c>
       <c r="W62" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>39</v>
+        <v>3A</v>
       </c>
       <c r="X62" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'T', 0x09}, // 39: Взводим таймер на t9 = 15 мин</v>
+        <v xml:space="preserve">   {'T', 0x09}, // 58: Взводим таймер на t9 = 15 мин</v>
       </c>
     </row>
     <row r="63" spans="1:24">
       <c r="A63">
         <f t="shared" si="5"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C63" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>3A</v>
+        <v>3B</v>
       </c>
       <c r="E63" s="49"/>
       <c r="F63" s="49">
@@ -7188,7 +7188,7 @@
       <c r="P63" s="47"/>
       <c r="Q63" s="47"/>
       <c r="R63" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S63" s="1">
         <f>2^0*E63+2^1*F63+H63*2^7+G63*2^4</f>
@@ -7207,21 +7207,21 @@
       </c>
       <c r="W63" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>3A</v>
+        <v>3B</v>
       </c>
       <c r="X63" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'W', 0x02}, // 3A: Ждем слива или ошибки окончания таймера</v>
+        <v xml:space="preserve">   {'W', 0x02}, // 59: Ждем слива или ошибки окончания таймера</v>
       </c>
     </row>
     <row r="64" spans="1:24">
       <c r="A64">
         <f t="shared" si="5"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C64" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>3B</v>
+        <v>3C</v>
       </c>
       <c r="E64" s="49"/>
       <c r="F64" s="49"/>
@@ -7241,7 +7241,7 @@
       <c r="P64" s="47"/>
       <c r="Q64" s="47"/>
       <c r="R64" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S64" s="1">
         <f>I64+G64*2^4</f>
@@ -7260,21 +7260,21 @@
       </c>
       <c r="W64" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>3B</v>
+        <v>3C</v>
       </c>
       <c r="X64" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'T', 0x07}, // 3B: Взводим таймер на t7 = 2 мин</v>
+        <v xml:space="preserve">   {'T', 0x07}, // 60: Взводим таймер на t7 = 2 мин</v>
       </c>
     </row>
     <row r="65" spans="1:24">
       <c r="A65">
         <f t="shared" si="5"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C65" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>3C</v>
+        <v>3D</v>
       </c>
       <c r="E65" s="49"/>
       <c r="F65" s="49"/>
@@ -7292,7 +7292,7 @@
       <c r="P65" s="47"/>
       <c r="Q65" s="47"/>
       <c r="R65" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="S65" s="1">
         <f>2^0*E65+2^1*F65+H65*2^7+G65*2^4</f>
@@ -7311,21 +7311,21 @@
       </c>
       <c r="W65" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>3C</v>
+        <v>3D</v>
       </c>
       <c r="X65" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'W', 0x00}, // 3C: Ждем еще 2 минуты</v>
+        <v xml:space="preserve">   {'W', 0x00}, // 61: Ждем еще 2 минуты</v>
       </c>
     </row>
     <row r="66" spans="1:24">
       <c r="A66">
         <f t="shared" si="5"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C66" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>3D</v>
+        <v>3E</v>
       </c>
       <c r="E66" s="50"/>
       <c r="F66" s="50"/>
@@ -7357,7 +7357,7 @@
         <v>0</v>
       </c>
       <c r="R66" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S66" s="1">
         <f>2^0*J66+2^1*K66+2^2*L66+2^3*M66+2^4*N66+2^5*O66+2^6*P66+2^7*Q66</f>
@@ -7376,21 +7376,21 @@
       </c>
       <c r="W66" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>3D</v>
+        <v>3E</v>
       </c>
       <c r="X66" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'P', 0x00}, // 3D: Все отключаем и оставляем слив</v>
+        <v xml:space="preserve">   {'P', 0x00}, // 62: Все отключаем и оставляем слив</v>
       </c>
     </row>
     <row r="67" spans="1:24">
       <c r="A67">
         <f t="shared" si="5"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C67" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>3E</v>
+        <v>3F</v>
       </c>
       <c r="E67" s="50"/>
       <c r="F67" s="50"/>
@@ -7416,11 +7416,11 @@
     <row r="68" spans="1:24">
       <c r="A68">
         <f t="shared" si="5"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C68" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>3F</v>
+        <v>40</v>
       </c>
       <c r="E68" s="50"/>
       <c r="F68" s="50"/>
@@ -7445,10 +7445,10 @@
     </row>
     <row r="71" spans="1:24" ht="61.5">
       <c r="E71" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="F71" s="51" t="s">
         <v>117</v>
-      </c>
-      <c r="F71" s="51" t="s">
-        <v>118</v>
       </c>
       <c r="G71" s="54"/>
       <c r="H71" s="54"/>
@@ -7463,7 +7463,7 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="73" spans="1:24">
@@ -7476,7 +7476,7 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="74" spans="1:24">
@@ -7490,7 +7490,7 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="75" spans="1:24">
@@ -7532,7 +7532,7 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J77" s="45"/>
       <c r="K77" s="45"/>
@@ -7548,7 +7548,7 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L78" s="44"/>
       <c r="M78" s="44"/>
@@ -7563,7 +7563,7 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
@@ -7579,7 +7579,7 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
@@ -7592,7 +7592,7 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
@@ -7643,12 +7643,12 @@
   <sheetData>
     <row r="4" spans="3:5">
       <c r="C4" s="56" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="3:5">
       <c r="C8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="3:5">

--- a/docs/Алгоритм.xlsx
+++ b/docs/Алгоритм.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="135" windowWidth="20730" windowHeight="11760" tabRatio="309" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="135" windowWidth="19320" windowHeight="11760" tabRatio="309" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Порядок действий" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="Лист1" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">Программа!$X$5:$X$66</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">Программа!$X$5:$X$63</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -183,7 +183,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="168">
   <si>
     <t>Насос моющей жидкости 1</t>
   </si>
@@ -473,15 +473,6 @@
     <t>Кран гор.</t>
   </si>
   <si>
-    <t>Насос промыки</t>
-  </si>
-  <si>
-    <t>Слив-0/Циркуляция-1</t>
-  </si>
-  <si>
-    <t>Вакуум</t>
-  </si>
-  <si>
     <t>начать полоскание достаточно теплой водой</t>
   </si>
   <si>
@@ -497,15 +488,6 @@
     <t>Воздух (нету у нас)</t>
   </si>
   <si>
-    <t>Кончилась вода|Закончилась мойка</t>
-  </si>
-  <si>
-    <t>Если кончилась мойка - переход</t>
-  </si>
-  <si>
-    <t>Продолжаем мойку</t>
-  </si>
-  <si>
     <t>Ждем окончания</t>
   </si>
   <si>
@@ -524,9 +506,6 @@
     <t>Комментарий к фазе</t>
   </si>
   <si>
-    <t>Иначе долив полбака горячей</t>
-  </si>
-  <si>
     <t>Ждем наполнения или ошибки окончания таймера</t>
   </si>
   <si>
@@ -623,9 +602,6 @@
     <t>Взводим таймер на t1 = 30 сек</t>
   </si>
   <si>
-    <t>Взводим таймер на t4 = 15 мин</t>
-  </si>
-  <si>
     <t>Запустить таймер ttt с нуля, для замера времени</t>
   </si>
   <si>
@@ -665,12 +641,6 @@
     <t>Продолжаем мойку и слив</t>
   </si>
   <si>
-    <t>Ждем окончания или пустого бака</t>
-  </si>
-  <si>
-    <t>Запоминаем время заполнения бака / 2 в длительность N 0</t>
-  </si>
-  <si>
     <t>bits:0tttiddd</t>
   </si>
   <si>
@@ -689,9 +659,6 @@
     <t>Взводим таймер на t2 = 30 сек</t>
   </si>
   <si>
-    <t>Взводим таймер на t5 = 15 мин</t>
-  </si>
-  <si>
     <t>Расчет данных для команды</t>
   </si>
   <si>
@@ -704,7 +671,22 @@
     <t>Взводим таймер на t7 = 2 мин</t>
   </si>
   <si>
-    <t>G+6</t>
+    <t>Циркуляция</t>
+  </si>
+  <si>
+    <t>Насос промыки/вакуум</t>
+  </si>
+  <si>
+    <t>Взводим таймер на t4 = 5 мин</t>
+  </si>
+  <si>
+    <t>долив четверть бака горячей</t>
+  </si>
+  <si>
+    <t>Взводим таймер на t5 = 10 мин</t>
+  </si>
+  <si>
+    <t>Запоминаем время заполнения бака / 4 в длительность N 0</t>
   </si>
 </sst>
 </file>
@@ -1236,14 +1218,17 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1251,17 +1236,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1272,14 +1251,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2193,28 +2175,28 @@
   <sheetData>
     <row r="3" spans="1:16" ht="12" thickBot="1"/>
     <row r="4" spans="1:16" ht="15" customHeight="1">
-      <c r="A4" s="88"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="82" t="s">
+      <c r="A4" s="81"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="83"/>
-      <c r="F4" s="75" t="s">
+      <c r="E4" s="89"/>
+      <c r="F4" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
     </row>
     <row r="5" spans="1:16" s="20" customFormat="1" ht="78.75">
-      <c r="A5" s="88"/>
-      <c r="B5" s="88"/>
-      <c r="C5" s="89"/>
+      <c r="A5" s="81"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="82"/>
       <c r="D5" s="33" t="s">
         <v>6</v>
       </c>
@@ -2250,13 +2232,13 @@
       </c>
     </row>
     <row r="6" spans="1:16" s="21" customFormat="1">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="79"/>
+      <c r="C6" s="80"/>
       <c r="D6" s="33"/>
       <c r="E6" s="34"/>
       <c r="F6" s="32"/>
@@ -2282,11 +2264,11 @@
       </c>
     </row>
     <row r="7" spans="1:16" s="21" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A7" s="77"/>
-      <c r="B7" s="78" t="s">
+      <c r="A7" s="76"/>
+      <c r="B7" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="79"/>
+      <c r="C7" s="80"/>
       <c r="D7" s="33" t="s">
         <v>10</v>
       </c>
@@ -2318,11 +2300,11 @@
       </c>
     </row>
     <row r="8" spans="1:16" s="21" customFormat="1">
-      <c r="A8" s="77"/>
-      <c r="B8" s="80" t="s">
+      <c r="A8" s="76"/>
+      <c r="B8" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="81"/>
+      <c r="C8" s="78"/>
       <c r="D8" s="33"/>
       <c r="E8" s="34" t="s">
         <v>10</v>
@@ -2347,13 +2329,13 @@
       <c r="O8" s="28"/>
     </row>
     <row r="9" spans="1:16" s="21" customFormat="1">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="84" t="s">
+      <c r="B9" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="85"/>
+      <c r="C9" s="84"/>
       <c r="D9" s="33"/>
       <c r="E9" s="34"/>
       <c r="F9" s="32" t="s">
@@ -2374,11 +2356,11 @@
       <c r="O9" s="28"/>
     </row>
     <row r="10" spans="1:16" s="21" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A10" s="77"/>
-      <c r="B10" s="78" t="s">
+      <c r="A10" s="76"/>
+      <c r="B10" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="79"/>
+      <c r="C10" s="80"/>
       <c r="D10" s="33"/>
       <c r="E10" s="34"/>
       <c r="F10" s="32" t="s">
@@ -2399,11 +2381,11 @@
       </c>
     </row>
     <row r="11" spans="1:16" s="21" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A11" s="77"/>
-      <c r="B11" s="78" t="s">
+      <c r="A11" s="76"/>
+      <c r="B11" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="79"/>
+      <c r="C11" s="80"/>
       <c r="D11" s="33" t="s">
         <v>10</v>
       </c>
@@ -2433,8 +2415,8 @@
       </c>
     </row>
     <row r="12" spans="1:16" s="21" customFormat="1" ht="33.75">
-      <c r="A12" s="77"/>
-      <c r="B12" s="86" t="s">
+      <c r="A12" s="76"/>
+      <c r="B12" s="85" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="31" t="s">
@@ -2460,8 +2442,8 @@
       <c r="O12" s="28"/>
     </row>
     <row r="13" spans="1:16" s="21" customFormat="1">
-      <c r="A13" s="77"/>
-      <c r="B13" s="86"/>
+      <c r="A13" s="76"/>
+      <c r="B13" s="85"/>
       <c r="C13" s="31" t="s">
         <v>31</v>
       </c>
@@ -2483,11 +2465,11 @@
       <c r="O13" s="28"/>
     </row>
     <row r="14" spans="1:16" s="21" customFormat="1">
-      <c r="A14" s="77"/>
-      <c r="B14" s="78" t="s">
+      <c r="A14" s="76"/>
+      <c r="B14" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="79"/>
+      <c r="C14" s="80"/>
       <c r="D14" s="33"/>
       <c r="E14" s="34"/>
       <c r="F14" s="32"/>
@@ -2508,11 +2490,11 @@
       </c>
     </row>
     <row r="15" spans="1:16" s="21" customFormat="1">
-      <c r="A15" s="77"/>
-      <c r="B15" s="80" t="s">
+      <c r="A15" s="76"/>
+      <c r="B15" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="81"/>
+      <c r="C15" s="78"/>
       <c r="D15" s="33"/>
       <c r="E15" s="34" t="s">
         <v>10</v>
@@ -2535,13 +2517,13 @@
       <c r="O15" s="28"/>
     </row>
     <row r="16" spans="1:16" s="21" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A16" s="77" t="s">
+      <c r="A16" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="78" t="s">
+      <c r="B16" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="79"/>
+      <c r="C16" s="80"/>
       <c r="D16" s="33"/>
       <c r="E16" s="34"/>
       <c r="F16" s="32"/>
@@ -2564,11 +2546,11 @@
       </c>
     </row>
     <row r="17" spans="1:16" s="21" customFormat="1">
-      <c r="A17" s="77"/>
-      <c r="B17" s="78" t="s">
+      <c r="A17" s="76"/>
+      <c r="B17" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="79"/>
+      <c r="C17" s="80"/>
       <c r="D17" s="33" t="s">
         <v>10</v>
       </c>
@@ -2593,16 +2575,16 @@
         <v>12</v>
       </c>
       <c r="O17" s="28"/>
-      <c r="P17" s="87" t="s">
+      <c r="P17" s="75" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="21" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A18" s="77"/>
-      <c r="B18" s="80" t="s">
+      <c r="A18" s="76"/>
+      <c r="B18" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="81"/>
+      <c r="C18" s="78"/>
       <c r="D18" s="33"/>
       <c r="E18" s="34" t="s">
         <v>10</v>
@@ -2623,16 +2605,16 @@
         <v>13</v>
       </c>
       <c r="O18" s="28"/>
-      <c r="P18" s="87"/>
+      <c r="P18" s="75"/>
     </row>
     <row r="19" spans="1:16" s="21" customFormat="1">
-      <c r="A19" s="77" t="s">
+      <c r="A19" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="84" t="s">
+      <c r="B19" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="85"/>
+      <c r="C19" s="84"/>
       <c r="D19" s="33"/>
       <c r="E19" s="34"/>
       <c r="F19" s="32"/>
@@ -2653,14 +2635,14 @@
       <c r="O19" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="P19" s="87"/>
+      <c r="P19" s="75"/>
     </row>
     <row r="20" spans="1:16" s="21" customFormat="1">
-      <c r="A20" s="77"/>
-      <c r="B20" s="78" t="s">
+      <c r="A20" s="76"/>
+      <c r="B20" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="79"/>
+      <c r="C20" s="80"/>
       <c r="D20" s="33"/>
       <c r="E20" s="34"/>
       <c r="F20" s="32"/>
@@ -2677,14 +2659,14 @@
         <v>15</v>
       </c>
       <c r="O20" s="28"/>
-      <c r="P20" s="87"/>
+      <c r="P20" s="75"/>
     </row>
     <row r="21" spans="1:16" s="21" customFormat="1">
-      <c r="A21" s="77"/>
-      <c r="B21" s="78" t="s">
+      <c r="A21" s="76"/>
+      <c r="B21" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="79"/>
+      <c r="C21" s="80"/>
       <c r="D21" s="33" t="s">
         <v>10</v>
       </c>
@@ -2709,11 +2691,11 @@
         <v>16</v>
       </c>
       <c r="O21" s="28"/>
-      <c r="P21" s="87"/>
+      <c r="P21" s="75"/>
     </row>
     <row r="22" spans="1:16" s="21" customFormat="1" ht="33.75">
-      <c r="A22" s="77"/>
-      <c r="B22" s="86" t="s">
+      <c r="A22" s="76"/>
+      <c r="B22" s="85" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="31" t="s">
@@ -2737,11 +2719,11 @@
         <v>17</v>
       </c>
       <c r="O22" s="28"/>
-      <c r="P22" s="87"/>
+      <c r="P22" s="75"/>
     </row>
     <row r="23" spans="1:16" s="21" customFormat="1">
-      <c r="A23" s="77"/>
-      <c r="B23" s="86"/>
+      <c r="A23" s="76"/>
+      <c r="B23" s="85"/>
       <c r="C23" s="31" t="s">
         <v>31</v>
       </c>
@@ -2761,14 +2743,14 @@
         <v>18</v>
       </c>
       <c r="O23" s="28"/>
-      <c r="P23" s="87"/>
+      <c r="P23" s="75"/>
     </row>
     <row r="24" spans="1:16" s="21" customFormat="1">
-      <c r="A24" s="77"/>
-      <c r="B24" s="78" t="s">
+      <c r="A24" s="76"/>
+      <c r="B24" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="79"/>
+      <c r="C24" s="80"/>
       <c r="D24" s="33"/>
       <c r="E24" s="34"/>
       <c r="F24" s="32"/>
@@ -2787,14 +2769,14 @@
       <c r="O24" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="P24" s="87"/>
+      <c r="P24" s="75"/>
     </row>
     <row r="25" spans="1:16" s="21" customFormat="1">
-      <c r="A25" s="77"/>
-      <c r="B25" s="80" t="s">
+      <c r="A25" s="76"/>
+      <c r="B25" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="81"/>
+      <c r="C25" s="78"/>
       <c r="D25" s="33"/>
       <c r="E25" s="34" t="s">
         <v>10</v>
@@ -2815,16 +2797,16 @@
         <v>20</v>
       </c>
       <c r="O25" s="28"/>
-      <c r="P25" s="87"/>
+      <c r="P25" s="75"/>
     </row>
     <row r="26" spans="1:16" s="21" customFormat="1" ht="24" customHeight="1">
-      <c r="A26" s="77" t="s">
+      <c r="A26" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="78" t="s">
+      <c r="B26" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="79"/>
+      <c r="C26" s="80"/>
       <c r="D26" s="33"/>
       <c r="E26" s="34"/>
       <c r="F26" s="32"/>
@@ -2847,11 +2829,11 @@
       </c>
     </row>
     <row r="27" spans="1:16" s="21" customFormat="1">
-      <c r="A27" s="77"/>
-      <c r="B27" s="78" t="s">
+      <c r="A27" s="76"/>
+      <c r="B27" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="79"/>
+      <c r="C27" s="80"/>
       <c r="D27" s="33" t="s">
         <v>10</v>
       </c>
@@ -2878,11 +2860,11 @@
       <c r="O27" s="28"/>
     </row>
     <row r="28" spans="1:16" s="21" customFormat="1" ht="12" customHeight="1">
-      <c r="A28" s="77"/>
-      <c r="B28" s="80" t="s">
+      <c r="A28" s="76"/>
+      <c r="B28" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="81"/>
+      <c r="C28" s="78"/>
       <c r="D28" s="33"/>
       <c r="E28" s="34" t="s">
         <v>10</v>
@@ -2903,13 +2885,13 @@
       <c r="O28" s="28"/>
     </row>
     <row r="29" spans="1:16" s="21" customFormat="1">
-      <c r="A29" s="77" t="s">
+      <c r="A29" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="80" t="s">
+      <c r="B29" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="81"/>
+      <c r="C29" s="78"/>
       <c r="D29" s="33"/>
       <c r="E29" s="34"/>
       <c r="F29" s="32"/>
@@ -2930,11 +2912,11 @@
       </c>
     </row>
     <row r="30" spans="1:16" s="21" customFormat="1">
-      <c r="A30" s="77"/>
-      <c r="B30" s="78" t="s">
+      <c r="A30" s="76"/>
+      <c r="B30" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="79"/>
+      <c r="C30" s="80"/>
       <c r="D30" s="33"/>
       <c r="E30" s="34"/>
       <c r="F30" s="32"/>
@@ -3263,6 +3245,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="F4:M4"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B12:B13"/>
     <mergeCell ref="P17:P25"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="B29:C29"/>
@@ -3279,23 +3278,6 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="F4:M4"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D4:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3552,10 +3534,10 @@
         <v>82</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="E5" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -3566,10 +3548,10 @@
         <v>78</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E6" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="2:5">
@@ -3580,10 +3562,10 @@
         <v>84</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E7" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -3594,10 +3576,10 @@
         <v>88</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -3608,10 +3590,10 @@
         <v>77</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -3619,13 +3601,13 @@
         <v>7</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -3633,13 +3615,13 @@
         <v>8</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -3656,11 +3638,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA88"/>
+  <dimension ref="A1:AA85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R9" sqref="R9"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X5" sqref="X5:X63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3680,7 +3662,7 @@
     <row r="1" spans="1:27" hidden="1"/>
     <row r="2" spans="1:27" hidden="1">
       <c r="E2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Y2" s="1" t="str">
         <f>CHAR(9)</f>
@@ -3722,20 +3704,20 @@
         <v>7</v>
       </c>
       <c r="X3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="Y3" s="1" t="str">
         <f>CONCATENATE("},",CHAR(32),"// ")</f>
         <v xml:space="preserve">}, // </v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="107.25">
+    <row r="4" spans="1:27" ht="106.5">
       <c r="A4" s="66" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B4" s="66"/>
       <c r="C4" s="67" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="68" t="s">
@@ -3745,13 +3727,13 @@
         <v>91</v>
       </c>
       <c r="G4" s="68" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="H4" s="68" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I4" s="69" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="J4" s="70" t="s">
         <v>92</v>
@@ -3766,37 +3748,37 @@
         <v>95</v>
       </c>
       <c r="N4" s="70" t="s">
-        <v>96</v>
+        <v>163</v>
       </c>
       <c r="O4" s="70" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="P4" s="70" t="s">
-        <v>98</v>
+        <v>162</v>
       </c>
       <c r="Q4" s="70" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R4" s="71" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="S4" s="72" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="T4" s="73" t="s">
         <v>80</v>
       </c>
       <c r="U4" s="73" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="V4" s="74" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="W4" s="74" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="X4" s="62" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="Y4" s="61"/>
       <c r="Z4" s="61"/>
@@ -3850,7 +3832,7 @@
         <v>89</v>
       </c>
       <c r="U5" s="52" t="str">
-        <f t="shared" ref="U5:U66" si="0">DEC2HEX(S5,2)</f>
+        <f t="shared" ref="U5:U63" si="0">DEC2HEX(S5,2)</f>
         <v>2C</v>
       </c>
       <c r="V5" s="52" t="str">
@@ -3876,7 +3858,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="65" t="str">
-        <f t="shared" ref="C6:C68" si="1">DEC2HEX(A6,2)</f>
+        <f t="shared" ref="C6:C65" si="1">DEC2HEX(A6,2)</f>
         <v>02</v>
       </c>
       <c r="E6" s="49"/>
@@ -3897,7 +3879,7 @@
       <c r="P6" s="47"/>
       <c r="Q6" s="47"/>
       <c r="R6" s="4" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="S6" s="1">
         <f>I6+G6*2^4</f>
@@ -3911,21 +3893,21 @@
         <v>08</v>
       </c>
       <c r="V6" s="52" t="str">
-        <f t="shared" ref="V6:V66" si="2">DEC2HEX(0,2)</f>
+        <f t="shared" ref="V6:V63" si="2">DEC2HEX(0,2)</f>
         <v>00</v>
       </c>
       <c r="W6" s="52" t="str">
-        <f t="shared" ref="W6:W66" si="3">DEC2HEX(A6,2)</f>
+        <f t="shared" ref="W6:W63" si="3">DEC2HEX(A6,2)</f>
         <v>02</v>
       </c>
       <c r="X6" t="str">
-        <f t="shared" ref="X6:X66" si="4">CONCATENATE($X$3,"'",T6,"', 0x",U6,$Y$3,A6,": ",R6)</f>
+        <f t="shared" ref="X6:X63" si="4">CONCATENATE($X$3,"'",T6,"', 0x",U6,$Y$3,A6,": ",R6)</f>
         <v xml:space="preserve">   {'T', 0x08}, // 2: Взводим таймер на t8 = 10 мин</v>
       </c>
     </row>
     <row r="7" spans="1:27">
       <c r="A7">
-        <f t="shared" ref="A7:A68" si="5">A6+1</f>
+        <f t="shared" ref="A7:A65" si="5">A6+1</f>
         <v>3</v>
       </c>
       <c r="C7" s="65" t="str">
@@ -3952,7 +3934,7 @@
       <c r="P7" s="47"/>
       <c r="Q7" s="47"/>
       <c r="R7" s="4" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="S7" s="1">
         <f>2^0*E7+2^1*F7+H7*2^7+G7*2^4</f>
@@ -4011,24 +3993,24 @@
         <v>1</v>
       </c>
       <c r="P8" s="47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="47">
         <v>0</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="S8" s="1">
         <f>2^0*J8+2^1*K8+2^2*L8+2^3*M8+2^4*N8+2^5*O8+2^6*P8+2^7*Q8</f>
-        <v>112</v>
+        <v>48</v>
       </c>
       <c r="T8" s="52" t="s">
         <v>89</v>
       </c>
       <c r="U8" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="V8" s="52" t="str">
         <f t="shared" si="2"/>
@@ -4040,7 +4022,7 @@
       </c>
       <c r="X8" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'P', 0x70}, // 4: начать полоскание достаточно теплой водой</v>
+        <v xml:space="preserve">   {'P', 0x30}, // 4: начать полоскание достаточно теплой водой</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -4070,7 +4052,7 @@
       <c r="P9" s="47"/>
       <c r="Q9" s="47"/>
       <c r="R9" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="S9" s="1">
         <f>I9+G9*2^4</f>
@@ -4121,7 +4103,7 @@
       <c r="P10" s="47"/>
       <c r="Q10" s="47"/>
       <c r="R10" s="4" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="S10" s="1">
         <f>2^0*E10+2^1*F10+H10*2^7+G10*2^4</f>
@@ -4162,7 +4144,7 @@
       <c r="H11" s="49"/>
       <c r="I11" s="57"/>
       <c r="J11" s="47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="47">
         <v>0</v>
@@ -4171,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" s="47">
         <v>0</v>
@@ -4186,18 +4168,18 @@
         <v>0</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="S11" s="1">
         <f>2^0*J11+2^1*K11+2^2*L11+2^3*M11+2^4*N11+2^5*O11+2^6*P11+2^7*Q11</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="T11" s="52" t="s">
         <v>89</v>
       </c>
       <c r="U11" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>00</v>
+        <v>09</v>
       </c>
       <c r="V11" s="52" t="str">
         <f t="shared" si="2"/>
@@ -4209,7 +4191,7 @@
       </c>
       <c r="X11" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'P', 0x00}, // 7: Слив</v>
+        <v xml:space="preserve">   {'P', 0x09}, // 7: Наполнение основного бака для мойки 1</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -4224,12 +4206,10 @@
       <c r="E12" s="49"/>
       <c r="F12" s="49"/>
       <c r="G12" s="49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="49"/>
-      <c r="I12" s="57">
-        <v>9</v>
-      </c>
+      <c r="I12" s="57"/>
       <c r="J12" s="47"/>
       <c r="K12" s="47"/>
       <c r="L12" s="47"/>
@@ -4239,18 +4219,18 @@
       <c r="P12" s="47"/>
       <c r="Q12" s="47"/>
       <c r="R12" s="4" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="S12" s="1">
         <f>I12+G12*2^4</f>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="T12" s="52" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="U12" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>09</v>
+        <v>10</v>
       </c>
       <c r="V12" s="52" t="str">
         <f t="shared" si="2"/>
@@ -4262,7 +4242,7 @@
       </c>
       <c r="X12" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'T', 0x09}, // 8: Взводим таймер на t9 = 15 мин</v>
+        <v xml:space="preserve">   {'C', 0x10}, // 8: Засекаем время для расчетного периода, используя таймер 1</v>
       </c>
     </row>
     <row r="13" spans="1:27">
@@ -4275,16 +4255,14 @@
         <v>09</v>
       </c>
       <c r="E13" s="49"/>
-      <c r="F13" s="49">
-        <v>1</v>
-      </c>
+      <c r="F13" s="49"/>
       <c r="G13" s="49">
         <v>0</v>
       </c>
-      <c r="H13" s="49">
-        <v>0</v>
-      </c>
-      <c r="I13" s="57"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="57">
+        <v>1</v>
+      </c>
       <c r="J13" s="47"/>
       <c r="K13" s="47"/>
       <c r="L13" s="47"/>
@@ -4294,18 +4272,18 @@
       <c r="P13" s="47"/>
       <c r="Q13" s="47"/>
       <c r="R13" s="4" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="S13" s="1">
-        <f>2^0*E13+2^1*F13+H13*2^7+G13*2^4</f>
-        <v>2</v>
+        <f>I13+G13*2^4</f>
+        <v>1</v>
       </c>
       <c r="T13" s="52" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="U13" s="52" t="str">
-        <f t="shared" ref="U13" si="7">DEC2HEX(S13,2)</f>
-        <v>02</v>
+        <f t="shared" si="0"/>
+        <v>01</v>
       </c>
       <c r="V13" s="52" t="str">
         <f t="shared" si="2"/>
@@ -4317,7 +4295,7 @@
       </c>
       <c r="X13" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'W', 0x02}, // 9: Ждем слива или ошибки окончания таймера</v>
+        <v xml:space="preserve">   {'T', 0x01}, // 9: Взводим таймер на t1 = 30 сек</v>
       </c>
     </row>
     <row r="14" spans="1:27">
@@ -4329,48 +4307,36 @@
         <f t="shared" si="1"/>
         <v>0A</v>
       </c>
-      <c r="E14" s="49"/>
+      <c r="E14" s="49">
+        <v>1</v>
+      </c>
       <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
+      <c r="G14" s="49">
+        <v>0</v>
+      </c>
       <c r="H14" s="49"/>
       <c r="I14" s="57"/>
-      <c r="J14" s="47">
-        <v>1</v>
-      </c>
-      <c r="K14" s="47">
-        <v>0</v>
-      </c>
-      <c r="L14" s="47">
-        <v>0</v>
-      </c>
-      <c r="M14" s="47">
-        <v>1</v>
-      </c>
-      <c r="N14" s="47">
-        <v>0</v>
-      </c>
-      <c r="O14" s="47">
-        <v>1</v>
-      </c>
-      <c r="P14" s="47">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="47">
-        <v>0</v>
-      </c>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="47"/>
       <c r="R14" s="4" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="S14" s="1">
-        <f>2^0*J14+2^1*K14+2^2*L14+2^3*M14+2^4*N14+2^5*O14+2^6*P14+2^7*Q14</f>
-        <v>41</v>
+        <f>2^0*E14+2^1*F14+H14*2^7+G14*2^4</f>
+        <v>1</v>
       </c>
       <c r="T14" s="52" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="U14" s="52" t="str">
-        <f t="shared" si="0"/>
-        <v>29</v>
+        <f t="shared" ref="U14" si="7">DEC2HEX(S14,2)</f>
+        <v>01</v>
       </c>
       <c r="V14" s="52" t="str">
         <f t="shared" si="2"/>
@@ -4382,7 +4348,7 @@
       </c>
       <c r="X14" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'P', 0x29}, // 10: Наполнение основного бака для мойки 1</v>
+        <v xml:space="preserve">   {'W', 0x01}, // 10: Ждем наполнения или T1</v>
       </c>
     </row>
     <row r="15" spans="1:27">
@@ -4396,32 +4362,46 @@
       </c>
       <c r="E15" s="49"/>
       <c r="F15" s="49"/>
-      <c r="G15" s="49">
-        <v>1</v>
-      </c>
+      <c r="G15" s="49"/>
       <c r="H15" s="49"/>
       <c r="I15" s="57"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="47"/>
-      <c r="Q15" s="47"/>
+      <c r="J15" s="47">
+        <v>0</v>
+      </c>
+      <c r="K15" s="47">
+        <v>0</v>
+      </c>
+      <c r="L15" s="47">
+        <v>0</v>
+      </c>
+      <c r="M15" s="47">
+        <v>1</v>
+      </c>
+      <c r="N15" s="47">
+        <v>0</v>
+      </c>
+      <c r="O15" s="47">
+        <v>0</v>
+      </c>
+      <c r="P15" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="47">
+        <v>0</v>
+      </c>
       <c r="R15" s="4" t="s">
-        <v>164</v>
+        <v>98</v>
       </c>
       <c r="S15" s="1">
-        <f>I15+G15*2^4</f>
-        <v>16</v>
+        <f>2^0*J15+2^1*K15+2^2*L15+2^3*M15+2^4*N15+2^5*O15+2^6*P15+2^7*Q15</f>
+        <v>8</v>
       </c>
       <c r="T15" s="52" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="U15" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>08</v>
       </c>
       <c r="V15" s="52" t="str">
         <f t="shared" si="2"/>
@@ -4433,7 +4413,7 @@
       </c>
       <c r="X15" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'C', 0x10}, // 11: Засекаем время для расчетного периода, используя таймер 1</v>
+        <v xml:space="preserve">   {'P', 0x08}, // 11: Откл.моющую жидкость</v>
       </c>
     </row>
     <row r="16" spans="1:27">
@@ -4452,7 +4432,7 @@
       </c>
       <c r="H16" s="49"/>
       <c r="I16" s="57">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J16" s="47"/>
       <c r="K16" s="47"/>
@@ -4463,18 +4443,18 @@
       <c r="P16" s="47"/>
       <c r="Q16" s="47"/>
       <c r="R16" s="4" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="S16" s="1">
         <f>I16+G16*2^4</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="T16" s="52" t="s">
         <v>82</v>
       </c>
       <c r="U16" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>01</v>
+        <v>08</v>
       </c>
       <c r="V16" s="52" t="str">
         <f t="shared" si="2"/>
@@ -4486,7 +4466,7 @@
       </c>
       <c r="X16" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'T', 0x01}, // 12: Взводим таймер на t1 = 30 сек</v>
+        <v xml:space="preserve">   {'T', 0x08}, // 12: Взводим таймер на t8 = 10 мин</v>
       </c>
     </row>
     <row r="17" spans="1:24">
@@ -4505,7 +4485,9 @@
       <c r="G17" s="49">
         <v>0</v>
       </c>
-      <c r="H17" s="49"/>
+      <c r="H17" s="49">
+        <v>1</v>
+      </c>
       <c r="I17" s="57"/>
       <c r="J17" s="47"/>
       <c r="K17" s="47"/>
@@ -4516,18 +4498,18 @@
       <c r="P17" s="47"/>
       <c r="Q17" s="47"/>
       <c r="R17" s="4" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="S17" s="1">
         <f>2^0*E17+2^1*F17+H17*2^7+G17*2^4</f>
-        <v>1</v>
+        <v>129</v>
       </c>
       <c r="T17" s="52" t="s">
         <v>78</v>
       </c>
       <c r="U17" s="52" t="str">
         <f t="shared" ref="U17" si="8">DEC2HEX(S17,2)</f>
-        <v>01</v>
+        <v>81</v>
       </c>
       <c r="V17" s="52" t="str">
         <f t="shared" si="2"/>
@@ -4539,7 +4521,7 @@
       </c>
       <c r="X17" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'W', 0x01}, // 13: Ждем наполнения или T1</v>
+        <v xml:space="preserve">   {'W', 0x81}, // 13: Ждем наполнения или ошибки окончания таймера</v>
       </c>
     </row>
     <row r="18" spans="1:24">
@@ -4553,46 +4535,32 @@
       </c>
       <c r="E18" s="49"/>
       <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
+      <c r="G18" s="49">
+        <v>8</v>
+      </c>
       <c r="H18" s="49"/>
       <c r="I18" s="57"/>
-      <c r="J18" s="47">
-        <v>0</v>
-      </c>
-      <c r="K18" s="47">
-        <v>0</v>
-      </c>
-      <c r="L18" s="47">
-        <v>0</v>
-      </c>
-      <c r="M18" s="47">
-        <v>1</v>
-      </c>
-      <c r="N18" s="47">
-        <v>0</v>
-      </c>
-      <c r="O18" s="47">
-        <v>1</v>
-      </c>
-      <c r="P18" s="47">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="47">
-        <v>0</v>
-      </c>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="47"/>
       <c r="R18" s="4" t="s">
-        <v>101</v>
+        <v>167</v>
       </c>
       <c r="S18" s="1">
-        <f>2^0*J18+2^1*K18+2^2*L18+2^3*M18+2^4*N18+2^5*O18+2^6*P18+2^7*Q18</f>
-        <v>40</v>
+        <f>I18+G18*2^4+4</f>
+        <v>132</v>
       </c>
       <c r="T18" s="52" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="U18" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="V18" s="52" t="str">
         <f t="shared" si="2"/>
@@ -4604,7 +4572,7 @@
       </c>
       <c r="X18" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'P', 0x28}, // 14: Откл.моющую жидкость</v>
+        <v xml:space="preserve">   {'S', 0x84}, // 14: Запоминаем время заполнения бака / 4 в длительность N 0</v>
       </c>
     </row>
     <row r="19" spans="1:24">
@@ -4618,34 +4586,46 @@
       </c>
       <c r="E19" s="49"/>
       <c r="F19" s="49"/>
-      <c r="G19" s="49">
-        <v>0</v>
-      </c>
+      <c r="G19" s="49"/>
       <c r="H19" s="49"/>
-      <c r="I19" s="57">
-        <v>8</v>
-      </c>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="47"/>
-      <c r="Q19" s="47"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="47">
+        <v>0</v>
+      </c>
+      <c r="K19" s="47">
+        <v>0</v>
+      </c>
+      <c r="L19" s="47">
+        <v>0</v>
+      </c>
+      <c r="M19" s="47">
+        <v>0</v>
+      </c>
+      <c r="N19" s="47">
+        <v>1</v>
+      </c>
+      <c r="O19" s="47">
+        <v>0</v>
+      </c>
+      <c r="P19" s="47">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="47">
+        <v>1</v>
+      </c>
       <c r="R19" s="4" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="S19" s="1">
-        <f>I19+G19*2^4</f>
-        <v>8</v>
+        <f>2^0*J19+2^1*K19+2^2*L19+2^3*M19+2^4*N19+2^5*O19+2^6*P19+2^7*Q19</f>
+        <v>208</v>
       </c>
       <c r="T19" s="52" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="U19" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>08</v>
+        <v>D0</v>
       </c>
       <c r="V19" s="52" t="str">
         <f t="shared" si="2"/>
@@ -4657,7 +4637,7 @@
       </c>
       <c r="X19" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'T', 0x08}, // 15: Взводим таймер на t8 = 10 мин</v>
+        <v xml:space="preserve">   {'P', 0xD0}, // 15: Мойка</v>
       </c>
     </row>
     <row r="20" spans="1:24">
@@ -4669,17 +4649,15 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="E20" s="49">
-        <v>1</v>
-      </c>
+      <c r="E20" s="49"/>
       <c r="F20" s="49"/>
       <c r="G20" s="49">
         <v>0</v>
       </c>
-      <c r="H20" s="49">
-        <v>1</v>
-      </c>
-      <c r="I20" s="57"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="57">
+        <v>4</v>
+      </c>
       <c r="J20" s="47"/>
       <c r="K20" s="47"/>
       <c r="L20" s="47"/>
@@ -4689,18 +4667,18 @@
       <c r="P20" s="47"/>
       <c r="Q20" s="47"/>
       <c r="R20" s="4" t="s">
-        <v>114</v>
+        <v>164</v>
       </c>
       <c r="S20" s="1">
-        <f>2^0*E20+2^1*F20+H20*2^7+G20*2^4</f>
-        <v>129</v>
+        <f>I20+G20*2^4</f>
+        <v>4</v>
       </c>
       <c r="T20" s="52" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="U20" s="52" t="str">
-        <f t="shared" ref="U20" si="9">DEC2HEX(S20,2)</f>
-        <v>81</v>
+        <f t="shared" si="0"/>
+        <v>04</v>
       </c>
       <c r="V20" s="52" t="str">
         <f t="shared" si="2"/>
@@ -4712,7 +4690,7 @@
       </c>
       <c r="X20" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'W', 0x81}, // 16: Ждем наполнения или ошибки окончания таймера</v>
+        <v xml:space="preserve">   {'T', 0x04}, // 16: Взводим таймер на t4 = 5 мин</v>
       </c>
     </row>
     <row r="21" spans="1:24">
@@ -4721,18 +4699,18 @@
         <v>17</v>
       </c>
       <c r="C21" s="65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C21" si="9">DEC2HEX(A21,2)</f>
         <v>11</v>
       </c>
-      <c r="E21" s="49"/>
+      <c r="E21" s="49">
+        <v>1</v>
+      </c>
       <c r="F21" s="49"/>
       <c r="G21" s="49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" s="49"/>
-      <c r="I21" s="57">
-        <v>0</v>
-      </c>
+      <c r="I21" s="57"/>
       <c r="J21" s="47"/>
       <c r="K21" s="47"/>
       <c r="L21" s="47"/>
@@ -4742,30 +4720,30 @@
       <c r="P21" s="47"/>
       <c r="Q21" s="47"/>
       <c r="R21" s="4" t="s">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c r="S21" s="1">
-        <f>I21+G21*2^4+2</f>
-        <v>18</v>
+        <f>2^0*E21+2^1*F21+H21*2^7+G21*2^4</f>
+        <v>1</v>
       </c>
       <c r="T21" s="52" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U21" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>01</v>
       </c>
       <c r="V21" s="52" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
       <c r="W21" s="52" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="W21" si="10">DEC2HEX(A21,2)</f>
         <v>11</v>
       </c>
       <c r="X21" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'S', 0x12}, // 17: Запоминаем время заполнения бака / 2 в длительность N 0</v>
+        <f t="shared" ref="X21" si="11">CONCATENATE($X$3,"'",T21,"', 0x",U21,$Y$3,A21,": ",R21)</f>
+        <v xml:space="preserve">   {'W', 0x01}, // 17: Ждем таймер</v>
       </c>
     </row>
     <row r="22" spans="1:24">
@@ -4777,11 +4755,14 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="57"/>
+      <c r="D22" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="58"/>
       <c r="J22" s="47">
         <v>0</v>
       </c>
@@ -4792,33 +4773,33 @@
         <v>0</v>
       </c>
       <c r="M22" s="47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" s="47">
         <v>1</v>
       </c>
       <c r="O22" s="47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" s="47">
         <v>1</v>
       </c>
       <c r="Q22" s="47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="4" t="s">
-        <v>102</v>
+        <v>165</v>
       </c>
       <c r="S22" s="1">
         <f>2^0*J22+2^1*K22+2^2*L22+2^3*M22+2^4*N22+2^5*O22+2^6*P22+2^7*Q22</f>
-        <v>112</v>
+        <v>216</v>
       </c>
       <c r="T22" s="52" t="s">
         <v>89</v>
       </c>
       <c r="U22" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>D8</v>
       </c>
       <c r="V22" s="52" t="str">
         <f t="shared" si="2"/>
@@ -4830,7 +4811,7 @@
       </c>
       <c r="X22" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'P', 0x70}, // 18: Мойка</v>
+        <v xml:space="preserve">   {'P', 0xD8}, // 18: долив четверть бака горячей</v>
       </c>
     </row>
     <row r="23" spans="1:24">
@@ -4842,14 +4823,17 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49">
-        <v>0</v>
-      </c>
-      <c r="H23" s="49"/>
-      <c r="I23" s="57">
-        <v>4</v>
+      <c r="D23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59">
+        <v>0</v>
+      </c>
+      <c r="H23" s="59"/>
+      <c r="I23" s="60">
+        <v>0</v>
       </c>
       <c r="J23" s="47"/>
       <c r="K23" s="47"/>
@@ -4860,18 +4844,18 @@
       <c r="P23" s="47"/>
       <c r="Q23" s="47"/>
       <c r="R23" s="4" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="S23" s="1">
         <f>I23+G23*2^4</f>
-        <v>4</v>
-      </c>
-      <c r="T23" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="T23" s="64" t="s">
         <v>82</v>
       </c>
       <c r="U23" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>04</v>
+        <v>00</v>
       </c>
       <c r="V23" s="52" t="str">
         <f t="shared" si="2"/>
@@ -4883,7 +4867,7 @@
       </c>
       <c r="X23" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'T', 0x04}, // 19: Взводим таймер на t4 = 15 мин</v>
+        <v xml:space="preserve">   {'T', 0x00}, // 19: Взводим доп.таймер на посчитанную длительность полбака</v>
       </c>
     </row>
     <row r="24" spans="1:24">
@@ -4895,36 +4879,39 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49">
-        <v>1</v>
-      </c>
+      <c r="D24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" s="49">
+        <v>1</v>
+      </c>
+      <c r="F24" s="49"/>
       <c r="G24" s="49">
         <v>0</v>
       </c>
       <c r="H24" s="49"/>
       <c r="I24" s="57"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="47"/>
-      <c r="O24" s="47"/>
-      <c r="P24" s="47"/>
-      <c r="Q24" s="47"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="48"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="48"/>
+      <c r="P24" s="48"/>
+      <c r="Q24" s="48"/>
       <c r="R24" s="4" t="s">
-        <v>104</v>
+        <v>156</v>
       </c>
       <c r="S24" s="1">
         <f>2^0*E24+2^1*F24+H24*2^7+G24*2^4</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T24" s="52" t="s">
         <v>78</v>
       </c>
       <c r="U24" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>02</v>
+        <v>01</v>
       </c>
       <c r="V24" s="52" t="str">
         <f t="shared" si="2"/>
@@ -4936,7 +4923,7 @@
       </c>
       <c r="X24" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'W', 0x02}, // 20: Кончилась вода|Закончилась мойка</v>
+        <v xml:space="preserve">   {'W', 0x01}, // 20: Ждем таймер (полбака) или переполнение</v>
       </c>
     </row>
     <row r="25" spans="1:24">
@@ -4949,36 +4936,50 @@
         <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>173</v>
+        <v>104</v>
       </c>
       <c r="E25" s="49"/>
       <c r="F25" s="49"/>
-      <c r="G25" s="49">
-        <v>0</v>
-      </c>
+      <c r="G25" s="49"/>
       <c r="H25" s="49"/>
       <c r="I25" s="57"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="47"/>
-      <c r="Q25" s="47"/>
+      <c r="J25" s="47">
+        <v>0</v>
+      </c>
+      <c r="K25" s="47">
+        <v>0</v>
+      </c>
+      <c r="L25" s="47">
+        <v>0</v>
+      </c>
+      <c r="M25" s="47">
+        <v>0</v>
+      </c>
+      <c r="N25" s="47">
+        <v>1</v>
+      </c>
+      <c r="O25" s="47">
+        <v>0</v>
+      </c>
+      <c r="P25" s="47">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="47">
+        <v>1</v>
+      </c>
       <c r="R25" s="4" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="S25" s="1">
-        <f>I25+ROW(D31)-ROW(D25)</f>
-        <v>6</v>
+        <f>2^0*J25+2^1*K25+2^2*L25+2^3*M25+2^4*N25+2^5*O25+2^6*P25+2^7*Q25</f>
+        <v>208</v>
       </c>
       <c r="T25" s="52" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="U25" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>06</v>
+        <v>D0</v>
       </c>
       <c r="V25" s="52" t="str">
         <f t="shared" si="2"/>
@@ -4990,98 +4991,74 @@
       </c>
       <c r="X25" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'I', 0x06}, // 21: Если кончилась мойка - переход</v>
+        <v xml:space="preserve">   {'P', 0xD0}, // 21: Продолжаем мойку и слив</v>
       </c>
     </row>
     <row r="26" spans="1:24">
-      <c r="A26">
-        <f t="shared" si="5"/>
-        <v>22</v>
-      </c>
-      <c r="C26" s="65" t="str">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="D26" t="s">
-        <v>110</v>
-      </c>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="47">
-        <v>0</v>
-      </c>
-      <c r="K26" s="47">
-        <v>0</v>
-      </c>
-      <c r="L26" s="47">
-        <v>0</v>
-      </c>
-      <c r="M26" s="47">
-        <v>1</v>
-      </c>
-      <c r="N26" s="47">
-        <v>1</v>
-      </c>
-      <c r="O26" s="47">
-        <v>1</v>
-      </c>
-      <c r="P26" s="47">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="47">
-        <v>0</v>
-      </c>
+      <c r="C26" s="65"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49">
+        <v>0</v>
+      </c>
+      <c r="H26" s="49"/>
+      <c r="I26" s="57">
+        <v>5</v>
+      </c>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="47"/>
+      <c r="O26" s="47"/>
+      <c r="P26" s="47"/>
+      <c r="Q26" s="47"/>
       <c r="R26" s="4" t="s">
-        <v>113</v>
+        <v>166</v>
       </c>
       <c r="S26" s="1">
-        <f>2^0*J26+2^1*K26+2^2*L26+2^3*M26+2^4*N26+2^5*O26+2^6*P26+2^7*Q26</f>
-        <v>120</v>
+        <f>I26+G26*2^4</f>
+        <v>5</v>
       </c>
       <c r="T26" s="52" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="U26" s="52" t="str">
-        <f t="shared" si="0"/>
-        <v>78</v>
+        <f t="shared" ref="U26" si="12">DEC2HEX(S26,2)</f>
+        <v>05</v>
       </c>
       <c r="V26" s="52" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
       <c r="W26" s="52" t="str">
-        <f t="shared" si="3"/>
-        <v>16</v>
+        <f t="shared" ref="W26" si="13">DEC2HEX(A26,2)</f>
+        <v>00</v>
       </c>
       <c r="X26" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'P', 0x78}, // 22: Иначе долив полбака горячей</v>
+        <f t="shared" ref="X26" si="14">CONCATENATE($X$3,"'",T26,"', 0x",U26,$Y$3,A26,": ",R26)</f>
+        <v xml:space="preserve">   {'T', 0x05}, // : Взводим таймер на t5 = 10 мин</v>
       </c>
     </row>
     <row r="27" spans="1:24">
       <c r="A27">
-        <f t="shared" si="5"/>
-        <v>23</v>
+        <f>A25+1</f>
+        <v>22</v>
       </c>
       <c r="C27" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>110</v>
-      </c>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59">
-        <v>1</v>
-      </c>
-      <c r="H27" s="59"/>
-      <c r="I27" s="60">
-        <v>0</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49">
+        <v>0</v>
+      </c>
+      <c r="H27" s="49"/>
+      <c r="I27" s="57"/>
       <c r="J27" s="47"/>
       <c r="K27" s="47"/>
       <c r="L27" s="47"/>
@@ -5091,74 +5068,86 @@
       <c r="P27" s="47"/>
       <c r="Q27" s="47"/>
       <c r="R27" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="S27" s="1">
-        <f>I27+G27*2^4</f>
-        <v>16</v>
-      </c>
-      <c r="T27" s="64" t="s">
-        <v>82</v>
-      </c>
-      <c r="U27" s="52" t="str">
+        <v>101</v>
+      </c>
+      <c r="S27" s="63">
+        <f>2^0*E27+2^1*F27+H27*2^7+G27*2^4</f>
+        <v>0</v>
+      </c>
+      <c r="T27" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="U27" s="53" t="str">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="V27" s="52" t="str">
+        <v>00</v>
+      </c>
+      <c r="V27" s="53" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="W27" s="52" t="str">
+      <c r="W27" s="53" t="str">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="X27" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'T', 0x10}, // 23: Взводим доп.таймер на посчитанную длительность полбака</v>
+        <v xml:space="preserve">   {'W', 0x00}, // 22: Ждем окончания</v>
       </c>
     </row>
     <row r="28" spans="1:24">
       <c r="A28">
         <f t="shared" si="5"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C28" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="D28" t="s">
-        <v>110</v>
-      </c>
-      <c r="E28" s="49">
-        <v>1</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D28" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="E28" s="49"/>
       <c r="F28" s="49"/>
-      <c r="G28" s="49">
-        <v>1</v>
-      </c>
+      <c r="G28" s="49"/>
       <c r="H28" s="49"/>
       <c r="I28" s="57"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="48"/>
-      <c r="N28" s="48"/>
-      <c r="O28" s="48"/>
-      <c r="P28" s="48"/>
-      <c r="Q28" s="48"/>
+      <c r="J28" s="47">
+        <v>0</v>
+      </c>
+      <c r="K28" s="47">
+        <v>0</v>
+      </c>
+      <c r="L28" s="47">
+        <v>0</v>
+      </c>
+      <c r="M28" s="47">
+        <v>0</v>
+      </c>
+      <c r="N28" s="47">
+        <v>1</v>
+      </c>
+      <c r="O28" s="47">
+        <v>1</v>
+      </c>
+      <c r="P28" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="47">
+        <v>0</v>
+      </c>
       <c r="R28" s="4" t="s">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="S28" s="1">
-        <f>2^0*E28+2^1*F28+H28*2^7+G28*2^4</f>
-        <v>17</v>
+        <f>2^0*J28+2^1*K28+2^2*L28+2^3*M28+2^4*N28+2^5*O28+2^6*P28+2^7*Q28</f>
+        <v>48</v>
       </c>
       <c r="T28" s="52" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="U28" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="V28" s="52" t="str">
         <f t="shared" si="2"/>
@@ -5166,67 +5155,53 @@
       </c>
       <c r="W28" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="X28" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'W', 0x11}, // 24: Ждем таймер (полбака) или переполнение</v>
+        <v xml:space="preserve">   {'P', 0x30}, // 23: Слив</v>
       </c>
     </row>
     <row r="29" spans="1:24">
       <c r="A29">
         <f t="shared" si="5"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="D29" t="s">
-        <v>110</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D29" s="46"/>
       <c r="E29" s="49"/>
       <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
+      <c r="G29" s="49">
+        <v>0</v>
+      </c>
       <c r="H29" s="49"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="47">
-        <v>0</v>
-      </c>
-      <c r="K29" s="47">
-        <v>0</v>
-      </c>
-      <c r="L29" s="47">
-        <v>0</v>
-      </c>
-      <c r="M29" s="47">
-        <v>0</v>
-      </c>
-      <c r="N29" s="47">
-        <v>1</v>
-      </c>
-      <c r="O29" s="47">
-        <v>1</v>
-      </c>
-      <c r="P29" s="47">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="47">
-        <v>0</v>
-      </c>
+      <c r="I29" s="57">
+        <v>9</v>
+      </c>
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="47"/>
+      <c r="P29" s="47"/>
+      <c r="Q29" s="47"/>
       <c r="R29" s="4" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="S29" s="1">
-        <f>2^0*J29+2^1*K29+2^2*L29+2^3*M29+2^4*N29+2^5*O29+2^6*P29+2^7*Q29</f>
-        <v>112</v>
+        <f>I29+G29*2^4</f>
+        <v>9</v>
       </c>
       <c r="T29" s="52" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="U29" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>09</v>
       </c>
       <c r="V29" s="52" t="str">
         <f t="shared" si="2"/>
@@ -5234,33 +5209,30 @@
       </c>
       <c r="W29" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="X29" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'P', 0x70}, // 25: Продолжаем мойку и слив</v>
+        <v xml:space="preserve">   {'T', 0x09}, // 24: Взводим таймер на t9 = 15 мин</v>
       </c>
     </row>
     <row r="30" spans="1:24">
       <c r="A30">
         <f t="shared" si="5"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>1A</v>
-      </c>
-      <c r="D30" t="s">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="E30" s="49"/>
-      <c r="F30" s="49">
-        <v>1</v>
-      </c>
+      <c r="F30" s="49"/>
       <c r="G30" s="49">
         <v>0</v>
       </c>
-      <c r="H30" s="49"/>
+      <c r="H30" s="49">
+        <v>0</v>
+      </c>
       <c r="I30" s="57"/>
       <c r="J30" s="47"/>
       <c r="K30" s="47"/>
@@ -5271,43 +5243,40 @@
       <c r="P30" s="47"/>
       <c r="Q30" s="47"/>
       <c r="R30" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="S30" s="63">
+        <v>118</v>
+      </c>
+      <c r="S30" s="1">
         <f>2^0*E30+2^1*F30+H30*2^7+G30*2^4</f>
-        <v>2</v>
-      </c>
-      <c r="T30" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="T30" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="U30" s="53" t="str">
+      <c r="U30" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>02</v>
-      </c>
-      <c r="V30" s="53" t="str">
+        <v>00</v>
+      </c>
+      <c r="V30" s="52" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="W30" s="53" t="str">
+      <c r="W30" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>1A</v>
+        <v>19</v>
       </c>
       <c r="X30" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'W', 0x02}, // 26: Ждем окончания или пустого бака</v>
+        <v xml:space="preserve">   {'W', 0x00}, // 25: Ждем слива или ошибки окончания таймера</v>
       </c>
     </row>
     <row r="31" spans="1:24">
       <c r="A31">
         <f t="shared" si="5"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C31" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>1B</v>
-      </c>
-      <c r="D31" s="46" t="s">
-        <v>111</v>
+        <v>1A</v>
       </c>
       <c r="E31" s="49"/>
       <c r="F31" s="49"/>
@@ -5321,36 +5290,36 @@
         <v>0</v>
       </c>
       <c r="L31" s="47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" s="47">
         <v>0</v>
       </c>
       <c r="N31" s="47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31" s="47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" s="47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="47">
         <v>0</v>
       </c>
       <c r="R31" s="4" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="S31" s="1">
         <f>2^0*J31+2^1*K31+2^2*L31+2^3*M31+2^4*N31+2^5*O31+2^6*P31+2^7*Q31</f>
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="T31" s="52" t="s">
         <v>89</v>
       </c>
       <c r="U31" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="V31" s="52" t="str">
         <f t="shared" si="2"/>
@@ -5358,31 +5327,28 @@
       </c>
       <c r="W31" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>1B</v>
+        <v>1A</v>
       </c>
       <c r="X31" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'P', 0x50}, // 27: Слив</v>
+        <v xml:space="preserve">   {'P', 0x24}, // 26: Наполнение основного бака для полоскания - холодная вода</v>
       </c>
     </row>
     <row r="32" spans="1:24">
       <c r="A32">
         <f t="shared" si="5"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C32" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>1C</v>
-      </c>
-      <c r="D32" s="46"/>
+        <v>1B</v>
+      </c>
       <c r="E32" s="49"/>
       <c r="F32" s="49"/>
-      <c r="G32" s="49">
-        <v>0</v>
-      </c>
+      <c r="G32" s="49"/>
       <c r="H32" s="49"/>
       <c r="I32" s="57">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J32" s="47"/>
       <c r="K32" s="47"/>
@@ -5393,18 +5359,18 @@
       <c r="P32" s="47"/>
       <c r="Q32" s="47"/>
       <c r="R32" s="4" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="S32" s="1">
         <f>I32+G32*2^4</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T32" s="52" t="s">
         <v>82</v>
       </c>
       <c r="U32" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>09</v>
+        <v>08</v>
       </c>
       <c r="V32" s="52" t="str">
         <f t="shared" si="2"/>
@@ -5412,31 +5378,31 @@
       </c>
       <c r="W32" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>1C</v>
+        <v>1B</v>
       </c>
       <c r="X32" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'T', 0x09}, // 28: Взводим таймер на t9 = 15 мин</v>
+        <v xml:space="preserve">   {'T', 0x08}, // 27: Взводим таймер на t8 = 10 мин</v>
       </c>
     </row>
     <row r="33" spans="1:24">
       <c r="A33">
         <f t="shared" si="5"/>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C33" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>1D</v>
-      </c>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49">
-        <v>1</v>
-      </c>
+        <v>1C</v>
+      </c>
+      <c r="E33" s="49">
+        <v>1</v>
+      </c>
+      <c r="F33" s="49"/>
       <c r="G33" s="49">
         <v>0</v>
       </c>
       <c r="H33" s="49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" s="57"/>
       <c r="J33" s="47"/>
@@ -5448,18 +5414,18 @@
       <c r="P33" s="47"/>
       <c r="Q33" s="47"/>
       <c r="R33" s="4" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="S33" s="1">
         <f>2^0*E33+2^1*F33+H33*2^7+G33*2^4</f>
-        <v>2</v>
+        <v>129</v>
       </c>
       <c r="T33" s="52" t="s">
         <v>78</v>
       </c>
       <c r="U33" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>02</v>
+        <v>81</v>
       </c>
       <c r="V33" s="52" t="str">
         <f t="shared" si="2"/>
@@ -5467,21 +5433,21 @@
       </c>
       <c r="W33" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>1D</v>
+        <v>1C</v>
       </c>
       <c r="X33" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'W', 0x02}, // 29: Ждем слива или ошибки окончания таймера</v>
+        <v xml:space="preserve">   {'W', 0x81}, // 28: Ждем наполнения или ошибки окончания таймера</v>
       </c>
     </row>
     <row r="34" spans="1:24">
       <c r="A34">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C34" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>1E</v>
+        <v>1D</v>
       </c>
       <c r="E34" s="49"/>
       <c r="F34" s="49"/>
@@ -5495,36 +5461,36 @@
         <v>0</v>
       </c>
       <c r="L34" s="47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34" s="47">
         <v>0</v>
       </c>
       <c r="N34" s="47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O34" s="47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" s="47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34" s="47">
         <v>0</v>
       </c>
       <c r="R34" s="4" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="S34" s="1">
         <f>2^0*J34+2^1*K34+2^2*L34+2^3*M34+2^4*N34+2^5*O34+2^6*P34+2^7*Q34</f>
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="T34" s="52" t="s">
         <v>89</v>
       </c>
       <c r="U34" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="V34" s="52" t="str">
         <f t="shared" si="2"/>
@@ -5532,28 +5498,30 @@
       </c>
       <c r="W34" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>1E</v>
+        <v>1D</v>
       </c>
       <c r="X34" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'P', 0x24}, // 30: Наполнение основного бака для полоскания - холодная вода</v>
+        <v xml:space="preserve">   {'P', 0x50}, // 29: Полоскание + слив</v>
       </c>
     </row>
     <row r="35" spans="1:24">
       <c r="A35">
         <f t="shared" si="5"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C35" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>1F</v>
+        <v>1E</v>
       </c>
       <c r="E35" s="49"/>
       <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
+      <c r="G35" s="49">
+        <v>0</v>
+      </c>
       <c r="H35" s="49"/>
       <c r="I35" s="57">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J35" s="47"/>
       <c r="K35" s="47"/>
@@ -5564,18 +5532,18 @@
       <c r="P35" s="47"/>
       <c r="Q35" s="47"/>
       <c r="R35" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="S35" s="1">
         <f>I35+G35*2^4</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="T35" s="52" t="s">
         <v>82</v>
       </c>
       <c r="U35" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>08</v>
+        <v>03</v>
       </c>
       <c r="V35" s="52" t="str">
         <f t="shared" si="2"/>
@@ -5583,31 +5551,31 @@
       </c>
       <c r="W35" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>1F</v>
+        <v>1E</v>
       </c>
       <c r="X35" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'T', 0x08}, // 31: Взводим таймер на t8 = 10 мин</v>
+        <v xml:space="preserve">   {'T', 0x03}, // 30: Взводим таймер на t9 = 15 мин</v>
       </c>
     </row>
     <row r="36" spans="1:24">
       <c r="A36">
         <f t="shared" si="5"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C36" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="E36" s="49">
-        <v>1</v>
-      </c>
-      <c r="F36" s="49"/>
+        <v>1F</v>
+      </c>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49">
+        <v>1</v>
+      </c>
       <c r="G36" s="49">
         <v>0</v>
       </c>
       <c r="H36" s="49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" s="57"/>
       <c r="J36" s="47"/>
@@ -5619,18 +5587,18 @@
       <c r="P36" s="47"/>
       <c r="Q36" s="47"/>
       <c r="R36" s="4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="S36" s="1">
         <f>2^0*E36+2^1*F36+H36*2^7+G36*2^4</f>
-        <v>129</v>
+        <v>2</v>
       </c>
       <c r="T36" s="52" t="s">
         <v>78</v>
       </c>
       <c r="U36" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>81</v>
+        <v>02</v>
       </c>
       <c r="V36" s="52" t="str">
         <f t="shared" si="2"/>
@@ -5638,21 +5606,21 @@
       </c>
       <c r="W36" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>1F</v>
       </c>
       <c r="X36" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'W', 0x81}, // 32: Ждем наполнения или ошибки окончания таймера</v>
+        <v xml:space="preserve">   {'W', 0x02}, // 31: Ждем слива или ошибки окончания таймера</v>
       </c>
     </row>
     <row r="37" spans="1:24">
       <c r="A37">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C37" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E37" s="49"/>
       <c r="F37" s="49"/>
@@ -5663,39 +5631,39 @@
         <v>0</v>
       </c>
       <c r="K37" s="47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37" s="47">
         <v>0</v>
       </c>
       <c r="M37" s="47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N37" s="47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O37" s="47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37" s="47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37" s="47">
         <v>0</v>
       </c>
       <c r="R37" s="4" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="S37" s="1">
         <f>2^0*J37+2^1*K37+2^2*L37+2^3*M37+2^4*N37+2^5*O37+2^6*P37+2^7*Q37</f>
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="T37" s="52" t="s">
         <v>89</v>
       </c>
       <c r="U37" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>2A</v>
       </c>
       <c r="V37" s="52" t="str">
         <f t="shared" si="2"/>
@@ -5703,21 +5671,21 @@
       </c>
       <c r="W37" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X37" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'P', 0x50}, // 33: Полоскание + слив</v>
+        <v xml:space="preserve">   {'P', 0x2A}, // 32: Наполнение основного бака для мойки 2</v>
       </c>
     </row>
     <row r="38" spans="1:24">
       <c r="A38">
         <f t="shared" si="5"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C38" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E38" s="49"/>
       <c r="F38" s="49"/>
@@ -5726,7 +5694,7 @@
       </c>
       <c r="H38" s="49"/>
       <c r="I38" s="57">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J38" s="47"/>
       <c r="K38" s="47"/>
@@ -5737,18 +5705,18 @@
       <c r="P38" s="47"/>
       <c r="Q38" s="47"/>
       <c r="R38" s="4" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="S38" s="1">
         <f>I38+G38*2^4</f>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="T38" s="52" t="s">
         <v>82</v>
       </c>
       <c r="U38" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>09</v>
+        <v>02</v>
       </c>
       <c r="V38" s="52" t="str">
         <f t="shared" si="2"/>
@@ -5756,32 +5724,30 @@
       </c>
       <c r="W38" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X38" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'T', 0x09}, // 34: Взводим таймер на t9 = 15 мин</v>
+        <v xml:space="preserve">   {'T', 0x02}, // 33: Взводим таймер на t2 = 30 сек</v>
       </c>
     </row>
     <row r="39" spans="1:24">
       <c r="A39">
         <f t="shared" si="5"/>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C39" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49">
-        <v>1</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E39" s="49">
+        <v>1</v>
+      </c>
+      <c r="F39" s="49"/>
       <c r="G39" s="49">
         <v>0</v>
       </c>
-      <c r="H39" s="49">
-        <v>0</v>
-      </c>
+      <c r="H39" s="49"/>
       <c r="I39" s="57"/>
       <c r="J39" s="47"/>
       <c r="K39" s="47"/>
@@ -5792,18 +5758,18 @@
       <c r="P39" s="47"/>
       <c r="Q39" s="47"/>
       <c r="R39" s="4" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="S39" s="1">
         <f>2^0*E39+2^1*F39+H39*2^7+G39*2^4</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T39" s="52" t="s">
         <v>78</v>
       </c>
       <c r="U39" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>02</v>
+        <v>01</v>
       </c>
       <c r="V39" s="52" t="str">
         <f t="shared" si="2"/>
@@ -5811,21 +5777,21 @@
       </c>
       <c r="W39" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X39" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'W', 0x02}, // 35: Ждем слива или ошибки окончания таймера</v>
+        <v xml:space="preserve">   {'W', 0x01}, // 34: Ждем наполнения или T2</v>
       </c>
     </row>
     <row r="40" spans="1:24">
       <c r="A40">
         <f t="shared" si="5"/>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C40" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E40" s="49"/>
       <c r="F40" s="49"/>
@@ -5836,7 +5802,7 @@
         <v>0</v>
       </c>
       <c r="K40" s="47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40" s="47">
         <v>0</v>
@@ -5857,18 +5823,18 @@
         <v>0</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="S40" s="1">
         <f>2^0*J40+2^1*K40+2^2*L40+2^3*M40+2^4*N40+2^5*O40+2^6*P40+2^7*Q40</f>
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="T40" s="52" t="s">
         <v>89</v>
       </c>
       <c r="U40" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>2A</v>
+        <v>28</v>
       </c>
       <c r="V40" s="52" t="str">
         <f t="shared" si="2"/>
@@ -5876,21 +5842,21 @@
       </c>
       <c r="W40" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="X40" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'P', 0x2A}, // 36: Наполнение основного бака для мойки 2</v>
+        <v xml:space="preserve">   {'P', 0x28}, // 35: Откл.моющую жидкость</v>
       </c>
     </row>
     <row r="41" spans="1:24">
       <c r="A41">
         <f t="shared" si="5"/>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C41" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E41" s="49"/>
       <c r="F41" s="49"/>
@@ -5899,7 +5865,7 @@
       </c>
       <c r="H41" s="49"/>
       <c r="I41" s="57">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J41" s="47"/>
       <c r="K41" s="47"/>
@@ -5910,18 +5876,18 @@
       <c r="P41" s="47"/>
       <c r="Q41" s="47"/>
       <c r="R41" s="4" t="s">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="S41" s="1">
         <f>I41+G41*2^4</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="T41" s="52" t="s">
         <v>82</v>
       </c>
       <c r="U41" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>02</v>
+        <v>08</v>
       </c>
       <c r="V41" s="52" t="str">
         <f t="shared" si="2"/>
@@ -5929,21 +5895,21 @@
       </c>
       <c r="W41" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X41" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'T', 0x02}, // 37: Взводим таймер на t2 = 30 сек</v>
+        <v xml:space="preserve">   {'T', 0x08}, // 36: Взводим таймер на t8 = 10 мин</v>
       </c>
     </row>
     <row r="42" spans="1:24">
       <c r="A42">
         <f t="shared" si="5"/>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C42" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E42" s="49">
         <v>1</v>
@@ -5952,7 +5918,9 @@
       <c r="G42" s="49">
         <v>0</v>
       </c>
-      <c r="H42" s="49"/>
+      <c r="H42" s="49">
+        <v>1</v>
+      </c>
       <c r="I42" s="57"/>
       <c r="J42" s="47"/>
       <c r="K42" s="47"/>
@@ -5963,18 +5931,18 @@
       <c r="P42" s="47"/>
       <c r="Q42" s="47"/>
       <c r="R42" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="S42" s="1">
         <f>2^0*E42+2^1*F42+H42*2^7+G42*2^4</f>
-        <v>1</v>
+        <v>129</v>
       </c>
       <c r="T42" s="52" t="s">
         <v>78</v>
       </c>
       <c r="U42" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>01</v>
+        <v>81</v>
       </c>
       <c r="V42" s="52" t="str">
         <f t="shared" si="2"/>
@@ -5982,21 +5950,21 @@
       </c>
       <c r="W42" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X42" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'W', 0x01}, // 38: Ждем наполнения или T2</v>
+        <v xml:space="preserve">   {'W', 0x81}, // 37: Ждем наполнения или ошибки окончания таймера</v>
       </c>
     </row>
     <row r="43" spans="1:24">
       <c r="A43">
         <f t="shared" si="5"/>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C43" s="65" t="str">
-        <f t="shared" si="1"/>
-        <v>27</v>
+        <f t="shared" ref="C43:C51" si="15">DEC2HEX(A43,2)</f>
+        <v>26</v>
       </c>
       <c r="E43" s="49"/>
       <c r="F43" s="49"/>
@@ -6013,55 +5981,55 @@
         <v>0</v>
       </c>
       <c r="M43" s="47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N43" s="47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O43" s="47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P43" s="47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43" s="47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R43" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="S43" s="1">
         <f>2^0*J43+2^1*K43+2^2*L43+2^3*M43+2^4*N43+2^5*O43+2^6*P43+2^7*Q43</f>
-        <v>40</v>
+        <v>208</v>
       </c>
       <c r="T43" s="52" t="s">
         <v>89</v>
       </c>
       <c r="U43" s="52" t="str">
-        <f t="shared" si="0"/>
-        <v>28</v>
+        <f t="shared" ref="U43:U51" si="16">DEC2HEX(S43,2)</f>
+        <v>D0</v>
       </c>
       <c r="V43" s="52" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
       <c r="W43" s="52" t="str">
-        <f t="shared" si="3"/>
-        <v>27</v>
+        <f t="shared" ref="W43:W51" si="17">DEC2HEX(A43,2)</f>
+        <v>26</v>
       </c>
       <c r="X43" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'P', 0x28}, // 39: Откл.моющую жидкость</v>
+        <f t="shared" ref="X43:X51" si="18">CONCATENATE($X$3,"'",T43,"', 0x",U43,$Y$3,A43,": ",R43)</f>
+        <v xml:space="preserve">   {'P', 0xD0}, // 38: Мойка</v>
       </c>
     </row>
     <row r="44" spans="1:24">
       <c r="A44">
         <f t="shared" si="5"/>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C44" s="65" t="str">
-        <f t="shared" si="1"/>
-        <v>28</v>
+        <f t="shared" si="15"/>
+        <v>27</v>
       </c>
       <c r="E44" s="49"/>
       <c r="F44" s="49"/>
@@ -6070,7 +6038,7 @@
       </c>
       <c r="H44" s="49"/>
       <c r="I44" s="57">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J44" s="47"/>
       <c r="K44" s="47"/>
@@ -6081,40 +6049,40 @@
       <c r="P44" s="47"/>
       <c r="Q44" s="47"/>
       <c r="R44" s="4" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="S44" s="1">
         <f>I44+G44*2^4</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T44" s="52" t="s">
         <v>82</v>
       </c>
       <c r="U44" s="52" t="str">
-        <f t="shared" si="0"/>
-        <v>08</v>
+        <f t="shared" si="16"/>
+        <v>04</v>
       </c>
       <c r="V44" s="52" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
       <c r="W44" s="52" t="str">
-        <f t="shared" si="3"/>
-        <v>28</v>
+        <f t="shared" si="17"/>
+        <v>27</v>
       </c>
       <c r="X44" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'T', 0x08}, // 40: Взводим таймер на t8 = 10 мин</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">   {'T', 0x04}, // 39: Взводим таймер на t4 = 5 мин</v>
       </c>
     </row>
     <row r="45" spans="1:24">
       <c r="A45">
         <f t="shared" si="5"/>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C45" s="65" t="str">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <f t="shared" si="15"/>
+        <v>28</v>
       </c>
       <c r="E45" s="49">
         <v>1</v>
@@ -6123,9 +6091,7 @@
       <c r="G45" s="49">
         <v>0</v>
       </c>
-      <c r="H45" s="49">
-        <v>1</v>
-      </c>
+      <c r="H45" s="49"/>
       <c r="I45" s="57"/>
       <c r="J45" s="47"/>
       <c r="K45" s="47"/>
@@ -6136,46 +6102,49 @@
       <c r="P45" s="47"/>
       <c r="Q45" s="47"/>
       <c r="R45" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="S45" s="1">
         <f>2^0*E45+2^1*F45+H45*2^7+G45*2^4</f>
-        <v>129</v>
+        <v>1</v>
       </c>
       <c r="T45" s="52" t="s">
         <v>78</v>
       </c>
       <c r="U45" s="52" t="str">
-        <f t="shared" si="0"/>
-        <v>81</v>
+        <f t="shared" si="16"/>
+        <v>01</v>
       </c>
       <c r="V45" s="52" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
       <c r="W45" s="52" t="str">
-        <f t="shared" si="3"/>
-        <v>29</v>
+        <f t="shared" si="17"/>
+        <v>28</v>
       </c>
       <c r="X45" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'W', 0x81}, // 41: Ждем наполнения или ошибки окончания таймера</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">   {'W', 0x01}, // 40: Ждем таймер</v>
       </c>
     </row>
     <row r="46" spans="1:24">
       <c r="A46">
         <f t="shared" si="5"/>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C46" s="65" t="str">
-        <f t="shared" si="1"/>
-        <v>2A</v>
+        <f t="shared" si="15"/>
+        <v>29</v>
+      </c>
+      <c r="D46" t="s">
+        <v>104</v>
       </c>
       <c r="E46" s="50"/>
-      <c r="F46" s="49"/>
-      <c r="G46" s="49"/>
-      <c r="H46" s="49"/>
-      <c r="I46" s="57"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="50"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="58"/>
       <c r="J46" s="47">
         <v>0</v>
       </c>
@@ -6186,64 +6155,67 @@
         <v>0</v>
       </c>
       <c r="M46" s="47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N46" s="47">
         <v>1</v>
       </c>
       <c r="O46" s="47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P46" s="47">
         <v>1</v>
       </c>
       <c r="Q46" s="47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R46" s="4" t="s">
-        <v>102</v>
+        <v>165</v>
       </c>
       <c r="S46" s="1">
         <f>2^0*J46+2^1*K46+2^2*L46+2^3*M46+2^4*N46+2^5*O46+2^6*P46+2^7*Q46</f>
-        <v>112</v>
+        <v>216</v>
       </c>
       <c r="T46" s="52" t="s">
         <v>89</v>
       </c>
       <c r="U46" s="52" t="str">
-        <f t="shared" si="0"/>
-        <v>70</v>
+        <f t="shared" si="16"/>
+        <v>D8</v>
       </c>
       <c r="V46" s="52" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
       <c r="W46" s="52" t="str">
-        <f t="shared" si="3"/>
-        <v>2A</v>
+        <f t="shared" si="17"/>
+        <v>29</v>
       </c>
       <c r="X46" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'P', 0x70}, // 42: Мойка</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">   {'P', 0xD8}, // 41: долив четверть бака горячей</v>
       </c>
     </row>
     <row r="47" spans="1:24">
       <c r="A47">
         <f t="shared" si="5"/>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C47" s="65" t="str">
-        <f t="shared" si="1"/>
-        <v>2B</v>
-      </c>
-      <c r="E47" s="50"/>
-      <c r="F47" s="49"/>
-      <c r="G47" s="49">
-        <v>0</v>
-      </c>
-      <c r="H47" s="49"/>
-      <c r="I47" s="57">
-        <v>5</v>
+        <f t="shared" si="15"/>
+        <v>2A</v>
+      </c>
+      <c r="D47" t="s">
+        <v>104</v>
+      </c>
+      <c r="E47" s="59"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="59">
+        <v>0</v>
+      </c>
+      <c r="H47" s="59"/>
+      <c r="I47" s="60">
+        <v>0</v>
       </c>
       <c r="J47" s="47"/>
       <c r="K47" s="47"/>
@@ -6254,228 +6226,225 @@
       <c r="P47" s="47"/>
       <c r="Q47" s="47"/>
       <c r="R47" s="4" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="S47" s="1">
         <f>I47+G47*2^4</f>
-        <v>5</v>
-      </c>
-      <c r="T47" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="T47" s="64" t="s">
         <v>82</v>
       </c>
       <c r="U47" s="52" t="str">
-        <f t="shared" si="0"/>
-        <v>05</v>
+        <f t="shared" si="16"/>
+        <v>00</v>
       </c>
       <c r="V47" s="52" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
       <c r="W47" s="52" t="str">
-        <f t="shared" si="3"/>
-        <v>2B</v>
+        <f t="shared" si="17"/>
+        <v>2A</v>
       </c>
       <c r="X47" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'T', 0x05}, // 43: Взводим таймер на t5 = 15 мин</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">   {'T', 0x00}, // 42: Взводим доп.таймер на посчитанную длительность полбака</v>
       </c>
     </row>
     <row r="48" spans="1:24">
       <c r="A48">
         <f t="shared" si="5"/>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C48" s="65" t="str">
-        <f t="shared" si="1"/>
-        <v>2C</v>
-      </c>
-      <c r="E48" s="49"/>
-      <c r="F48" s="49">
-        <v>1</v>
-      </c>
+        <f t="shared" si="15"/>
+        <v>2B</v>
+      </c>
+      <c r="D48" t="s">
+        <v>104</v>
+      </c>
+      <c r="E48" s="49">
+        <v>1</v>
+      </c>
+      <c r="F48" s="49"/>
       <c r="G48" s="49">
         <v>0</v>
       </c>
       <c r="H48" s="49"/>
       <c r="I48" s="57"/>
-      <c r="J48" s="47"/>
-      <c r="K48" s="47"/>
-      <c r="L48" s="47"/>
-      <c r="M48" s="47"/>
-      <c r="N48" s="47"/>
-      <c r="O48" s="47"/>
-      <c r="P48" s="47"/>
-      <c r="Q48" s="47"/>
+      <c r="J48" s="48"/>
+      <c r="K48" s="48"/>
+      <c r="L48" s="48"/>
+      <c r="M48" s="48"/>
+      <c r="N48" s="48"/>
+      <c r="O48" s="48"/>
+      <c r="P48" s="48"/>
+      <c r="Q48" s="48"/>
       <c r="R48" s="4" t="s">
-        <v>104</v>
+        <v>156</v>
       </c>
       <c r="S48" s="1">
         <f>2^0*E48+2^1*F48+H48*2^7+G48*2^4</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T48" s="52" t="s">
         <v>78</v>
       </c>
       <c r="U48" s="52" t="str">
-        <f t="shared" si="0"/>
-        <v>02</v>
+        <f t="shared" si="16"/>
+        <v>01</v>
       </c>
       <c r="V48" s="52" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
       <c r="W48" s="52" t="str">
-        <f t="shared" si="3"/>
-        <v>2C</v>
+        <f t="shared" si="17"/>
+        <v>2B</v>
       </c>
       <c r="X48" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'W', 0x02}, // 44: Кончилась вода|Закончилась мойка</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">   {'W', 0x01}, // 43: Ждем таймер (полбака) или переполнение</v>
       </c>
     </row>
     <row r="49" spans="1:24">
       <c r="A49">
         <f t="shared" si="5"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C49" s="65" t="str">
-        <f t="shared" si="1"/>
-        <v>2D</v>
+        <f t="shared" si="15"/>
+        <v>2C</v>
       </c>
       <c r="D49" t="s">
-        <v>173</v>
+        <v>104</v>
       </c>
       <c r="E49" s="49"/>
       <c r="F49" s="49"/>
-      <c r="G49" s="49">
-        <v>0</v>
-      </c>
+      <c r="G49" s="49"/>
       <c r="H49" s="49"/>
       <c r="I49" s="57"/>
-      <c r="J49" s="47"/>
-      <c r="K49" s="47"/>
-      <c r="L49" s="47"/>
-      <c r="M49" s="47"/>
-      <c r="N49" s="47"/>
-      <c r="O49" s="47"/>
-      <c r="P49" s="47"/>
-      <c r="Q49" s="47"/>
+      <c r="J49" s="47">
+        <v>0</v>
+      </c>
+      <c r="K49" s="47">
+        <v>0</v>
+      </c>
+      <c r="L49" s="47">
+        <v>0</v>
+      </c>
+      <c r="M49" s="47">
+        <v>0</v>
+      </c>
+      <c r="N49" s="47">
+        <v>1</v>
+      </c>
+      <c r="O49" s="47">
+        <v>0</v>
+      </c>
+      <c r="P49" s="47">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="47">
+        <v>1</v>
+      </c>
       <c r="R49" s="4" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="S49" s="1">
-        <f>I49+ROW(D55)-ROW(D49)</f>
-        <v>6</v>
+        <f>2^0*J49+2^1*K49+2^2*L49+2^3*M49+2^4*N49+2^5*O49+2^6*P49+2^7*Q49</f>
+        <v>208</v>
       </c>
       <c r="T49" s="52" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="U49" s="52" t="str">
-        <f t="shared" si="0"/>
-        <v>06</v>
+        <f t="shared" si="16"/>
+        <v>D0</v>
       </c>
       <c r="V49" s="52" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
       <c r="W49" s="52" t="str">
-        <f t="shared" si="3"/>
-        <v>2D</v>
+        <f t="shared" si="17"/>
+        <v>2C</v>
       </c>
       <c r="X49" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'I', 0x06}, // 45: Если кончилась мойка - переход</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">   {'P', 0xD0}, // 44: Продолжаем мойку и слив</v>
       </c>
     </row>
     <row r="50" spans="1:24">
       <c r="A50">
         <f t="shared" si="5"/>
-        <v>46</v>
-      </c>
-      <c r="C50" s="65" t="str">
-        <f t="shared" si="1"/>
-        <v>2E</v>
-      </c>
-      <c r="D50" t="s">
-        <v>110</v>
-      </c>
-      <c r="E50" s="50"/>
-      <c r="F50" s="50"/>
-      <c r="G50" s="50"/>
-      <c r="H50" s="50"/>
-      <c r="I50" s="58"/>
-      <c r="J50" s="47">
-        <v>0</v>
-      </c>
-      <c r="K50" s="47">
-        <v>0</v>
-      </c>
-      <c r="L50" s="47">
-        <v>0</v>
-      </c>
-      <c r="M50" s="47">
-        <v>1</v>
-      </c>
-      <c r="N50" s="47">
-        <v>1</v>
-      </c>
-      <c r="O50" s="47">
-        <v>1</v>
-      </c>
-      <c r="P50" s="47">
-        <v>1</v>
-      </c>
-      <c r="Q50" s="47">
-        <v>0</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C50" s="65"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="49">
+        <v>0</v>
+      </c>
+      <c r="H50" s="49"/>
+      <c r="I50" s="57">
+        <v>5</v>
+      </c>
+      <c r="J50" s="47"/>
+      <c r="K50" s="47"/>
+      <c r="L50" s="47"/>
+      <c r="M50" s="47"/>
+      <c r="N50" s="47"/>
+      <c r="O50" s="47"/>
+      <c r="P50" s="47"/>
+      <c r="Q50" s="47"/>
       <c r="R50" s="4" t="s">
-        <v>113</v>
+        <v>166</v>
       </c>
       <c r="S50" s="1">
-        <f>2^0*J50+2^1*K50+2^2*L50+2^3*M50+2^4*N50+2^5*O50+2^6*P50+2^7*Q50</f>
-        <v>120</v>
+        <f>I50+G50*2^4</f>
+        <v>5</v>
       </c>
       <c r="T50" s="52" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="U50" s="52" t="str">
-        <f t="shared" si="0"/>
-        <v>78</v>
+        <f t="shared" si="16"/>
+        <v>05</v>
       </c>
       <c r="V50" s="52" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
       <c r="W50" s="52" t="str">
-        <f t="shared" si="3"/>
-        <v>2E</v>
+        <f t="shared" si="17"/>
+        <v>2D</v>
       </c>
       <c r="X50" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'P', 0x78}, // 46: Иначе долив полбака горячей</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">   {'T', 0x05}, // 45: Взводим таймер на t5 = 10 мин</v>
       </c>
     </row>
     <row r="51" spans="1:24">
       <c r="A51">
         <f t="shared" si="5"/>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C51" s="65" t="str">
-        <f t="shared" si="1"/>
-        <v>2F</v>
+        <f t="shared" ref="C51" si="19">DEC2HEX(A51,2)</f>
+        <v>2E</v>
       </c>
       <c r="D51" t="s">
-        <v>110</v>
-      </c>
-      <c r="E51" s="59"/>
-      <c r="F51" s="59"/>
-      <c r="G51" s="59">
-        <v>1</v>
-      </c>
-      <c r="H51" s="59"/>
-      <c r="I51" s="60">
-        <v>0</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="E51" s="49"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="49">
+        <v>0</v>
+      </c>
+      <c r="H51" s="49"/>
+      <c r="I51" s="57"/>
       <c r="J51" s="47"/>
       <c r="K51" s="47"/>
       <c r="L51" s="47"/>
@@ -6485,74 +6454,86 @@
       <c r="P51" s="47"/>
       <c r="Q51" s="47"/>
       <c r="R51" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="S51" s="1">
-        <f>I51+G51*2^4</f>
-        <v>16</v>
-      </c>
-      <c r="T51" s="64" t="s">
-        <v>82</v>
-      </c>
-      <c r="U51" s="52" t="str">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="V51" s="52" t="str">
+        <v>101</v>
+      </c>
+      <c r="S51" s="63">
+        <f>2^0*E51+2^1*F51+H51*2^7+G51*2^4</f>
+        <v>0</v>
+      </c>
+      <c r="T51" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="U51" s="53" t="str">
+        <f t="shared" ref="U51" si="20">DEC2HEX(S51,2)</f>
+        <v>00</v>
+      </c>
+      <c r="V51" s="53" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="W51" s="52" t="str">
-        <f t="shared" si="3"/>
-        <v>2F</v>
+      <c r="W51" s="53" t="str">
+        <f t="shared" ref="W51" si="21">DEC2HEX(A51,2)</f>
+        <v>2E</v>
       </c>
       <c r="X51" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'T', 0x10}, // 47: Взводим доп.таймер на посчитанную длительность полбака</v>
+        <f t="shared" ref="X51" si="22">CONCATENATE($X$3,"'",T51,"', 0x",U51,$Y$3,A51,": ",R51)</f>
+        <v xml:space="preserve">   {'W', 0x00}, // 46: Ждем окончания</v>
       </c>
     </row>
     <row r="52" spans="1:24">
       <c r="A52">
         <f t="shared" si="5"/>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C52" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="D52" t="s">
-        <v>110</v>
-      </c>
-      <c r="E52" s="49">
-        <v>1</v>
-      </c>
+        <v>2F</v>
+      </c>
+      <c r="D52" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="E52" s="49"/>
       <c r="F52" s="49"/>
-      <c r="G52" s="49">
-        <v>1</v>
-      </c>
+      <c r="G52" s="49"/>
       <c r="H52" s="49"/>
       <c r="I52" s="57"/>
-      <c r="J52" s="48"/>
-      <c r="K52" s="48"/>
-      <c r="L52" s="48"/>
-      <c r="M52" s="48"/>
-      <c r="N52" s="48"/>
-      <c r="O52" s="48"/>
-      <c r="P52" s="48"/>
-      <c r="Q52" s="48"/>
+      <c r="J52" s="47">
+        <v>0</v>
+      </c>
+      <c r="K52" s="47">
+        <v>0</v>
+      </c>
+      <c r="L52" s="47">
+        <v>0</v>
+      </c>
+      <c r="M52" s="47">
+        <v>0</v>
+      </c>
+      <c r="N52" s="47">
+        <v>1</v>
+      </c>
+      <c r="O52" s="47">
+        <v>1</v>
+      </c>
+      <c r="P52" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="47">
+        <v>0</v>
+      </c>
       <c r="R52" s="4" t="s">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="S52" s="1">
-        <f>2^0*E52+2^1*F52+H52*2^7+G52*2^4</f>
-        <v>17</v>
+        <f>2^0*J52+2^1*K52+2^2*L52+2^3*M52+2^4*N52+2^5*O52+2^6*P52+2^7*Q52</f>
+        <v>48</v>
       </c>
       <c r="T52" s="52" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="U52" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="V52" s="52" t="str">
         <f t="shared" si="2"/>
@@ -6560,67 +6541,53 @@
       </c>
       <c r="W52" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>2F</v>
       </c>
       <c r="X52" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'W', 0x11}, // 48: Ждем таймер (полбака) или переполнение</v>
+        <v xml:space="preserve">   {'P', 0x30}, // 47: Слив</v>
       </c>
     </row>
     <row r="53" spans="1:24">
       <c r="A53">
         <f t="shared" si="5"/>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C53" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="D53" t="s">
-        <v>110</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D53" s="46"/>
       <c r="E53" s="49"/>
       <c r="F53" s="49"/>
-      <c r="G53" s="49"/>
+      <c r="G53" s="49">
+        <v>0</v>
+      </c>
       <c r="H53" s="49"/>
-      <c r="I53" s="57"/>
-      <c r="J53" s="47">
-        <v>0</v>
-      </c>
-      <c r="K53" s="47">
-        <v>0</v>
-      </c>
-      <c r="L53" s="47">
-        <v>0</v>
-      </c>
-      <c r="M53" s="47">
-        <v>0</v>
-      </c>
-      <c r="N53" s="47">
-        <v>1</v>
-      </c>
-      <c r="O53" s="47">
-        <v>1</v>
-      </c>
-      <c r="P53" s="47">
-        <v>1</v>
-      </c>
-      <c r="Q53" s="47">
-        <v>0</v>
-      </c>
+      <c r="I53" s="57">
+        <v>9</v>
+      </c>
+      <c r="J53" s="47"/>
+      <c r="K53" s="47"/>
+      <c r="L53" s="47"/>
+      <c r="M53" s="47"/>
+      <c r="N53" s="47"/>
+      <c r="O53" s="47"/>
+      <c r="P53" s="47"/>
+      <c r="Q53" s="47"/>
       <c r="R53" s="4" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="S53" s="1">
-        <f>2^0*J53+2^1*K53+2^2*L53+2^3*M53+2^4*N53+2^5*O53+2^6*P53+2^7*Q53</f>
-        <v>112</v>
+        <f>I53+G53*2^4</f>
+        <v>9</v>
       </c>
       <c r="T53" s="52" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="U53" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>09</v>
       </c>
       <c r="V53" s="52" t="str">
         <f t="shared" si="2"/>
@@ -6628,24 +6595,21 @@
       </c>
       <c r="W53" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="X53" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'P', 0x70}, // 49: Продолжаем мойку</v>
+        <v xml:space="preserve">   {'T', 0x09}, // 48: Взводим таймер на t9 = 15 мин</v>
       </c>
     </row>
     <row r="54" spans="1:24">
       <c r="A54">
         <f t="shared" si="5"/>
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C54" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="D54" t="s">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="E54" s="49"/>
       <c r="F54" s="49">
@@ -6654,7 +6618,9 @@
       <c r="G54" s="49">
         <v>0</v>
       </c>
-      <c r="H54" s="49"/>
+      <c r="H54" s="49">
+        <v>0</v>
+      </c>
       <c r="I54" s="57"/>
       <c r="J54" s="47"/>
       <c r="K54" s="47"/>
@@ -6665,7 +6631,7 @@
       <c r="P54" s="47"/>
       <c r="Q54" s="47"/>
       <c r="R54" s="4" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="S54" s="1">
         <f>2^0*E54+2^1*F54+H54*2^7+G54*2^4</f>
@@ -6684,24 +6650,21 @@
       </c>
       <c r="W54" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X54" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'W', 0x02}, // 50: Ждем окончания</v>
+        <v xml:space="preserve">   {'W', 0x02}, // 49: Ждем слива или ошибки окончания таймера</v>
       </c>
     </row>
     <row r="55" spans="1:24">
       <c r="A55">
         <f t="shared" si="5"/>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C55" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="D55" s="46" t="s">
-        <v>111</v>
+        <v>32</v>
       </c>
       <c r="E55" s="49"/>
       <c r="F55" s="49"/>
@@ -6715,7 +6678,7 @@
         <v>0</v>
       </c>
       <c r="L55" s="47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M55" s="47">
         <v>0</v>
@@ -6724,27 +6687,27 @@
         <v>1</v>
       </c>
       <c r="O55" s="47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P55" s="47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55" s="47">
         <v>0</v>
       </c>
       <c r="R55" s="4" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="S55" s="1">
         <f>2^0*J55+2^1*K55+2^2*L55+2^3*M55+2^4*N55+2^5*O55+2^6*P55+2^7*Q55</f>
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="T55" s="52" t="s">
         <v>89</v>
       </c>
       <c r="U55" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="V55" s="52" t="str">
         <f t="shared" si="2"/>
@@ -6752,23 +6715,22 @@
       </c>
       <c r="W55" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X55" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'P', 0x50}, // 51: Слив</v>
+        <v xml:space="preserve">   {'P', 0x34}, // 50: Наполнение основного бака для полоскания - холодная вода</v>
       </c>
     </row>
     <row r="56" spans="1:24">
       <c r="A56">
         <f t="shared" si="5"/>
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C56" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="D56" s="46"/>
+        <v>33</v>
+      </c>
       <c r="E56" s="49"/>
       <c r="F56" s="49"/>
       <c r="G56" s="49">
@@ -6776,7 +6738,7 @@
       </c>
       <c r="H56" s="49"/>
       <c r="I56" s="57">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J56" s="47"/>
       <c r="K56" s="47"/>
@@ -6787,18 +6749,18 @@
       <c r="P56" s="47"/>
       <c r="Q56" s="47"/>
       <c r="R56" s="4" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="S56" s="1">
         <f>I56+G56*2^4</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T56" s="52" t="s">
         <v>82</v>
       </c>
       <c r="U56" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>09</v>
+        <v>08</v>
       </c>
       <c r="V56" s="52" t="str">
         <f t="shared" si="2"/>
@@ -6806,31 +6768,31 @@
       </c>
       <c r="W56" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X56" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'T', 0x09}, // 52: Взводим таймер на t9 = 15 мин</v>
+        <v xml:space="preserve">   {'T', 0x08}, // 51: Взводим таймер на t8 = 10 мин</v>
       </c>
     </row>
     <row r="57" spans="1:24">
       <c r="A57">
         <f t="shared" si="5"/>
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C57" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="E57" s="49"/>
-      <c r="F57" s="49">
-        <v>1</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E57" s="49">
+        <v>1</v>
+      </c>
+      <c r="F57" s="49"/>
       <c r="G57" s="49">
         <v>0</v>
       </c>
       <c r="H57" s="49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" s="57"/>
       <c r="J57" s="47"/>
@@ -6842,18 +6804,18 @@
       <c r="P57" s="47"/>
       <c r="Q57" s="47"/>
       <c r="R57" s="4" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="S57" s="1">
         <f>2^0*E57+2^1*F57+H57*2^7+G57*2^4</f>
-        <v>2</v>
+        <v>129</v>
       </c>
       <c r="T57" s="52" t="s">
         <v>78</v>
       </c>
       <c r="U57" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>02</v>
+        <v>81</v>
       </c>
       <c r="V57" s="52" t="str">
         <f t="shared" si="2"/>
@@ -6861,21 +6823,21 @@
       </c>
       <c r="W57" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="X57" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'W', 0x02}, // 53: Ждем слива или ошибки окончания таймера</v>
+        <v xml:space="preserve">   {'W', 0x81}, // 52: Ждем наполнения или ошибки окончания таймера</v>
       </c>
     </row>
     <row r="58" spans="1:24">
       <c r="A58">
         <f t="shared" si="5"/>
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C58" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E58" s="49"/>
       <c r="F58" s="49"/>
@@ -6889,36 +6851,36 @@
         <v>0</v>
       </c>
       <c r="L58" s="47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M58" s="47">
         <v>0</v>
       </c>
       <c r="N58" s="47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O58" s="47">
         <v>1</v>
       </c>
       <c r="P58" s="47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58" s="47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R58" s="4" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="S58" s="1">
         <f>2^0*J58+2^1*K58+2^2*L58+2^3*M58+2^4*N58+2^5*O58+2^6*P58+2^7*Q58</f>
-        <v>36</v>
+        <v>240</v>
       </c>
       <c r="T58" s="52" t="s">
         <v>89</v>
       </c>
       <c r="U58" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>F0</v>
       </c>
       <c r="V58" s="52" t="str">
         <f t="shared" si="2"/>
@@ -6926,21 +6888,21 @@
       </c>
       <c r="W58" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X58" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'P', 0x24}, // 54: Наполнение основного бака для полоскания - холодная вода</v>
+        <v xml:space="preserve">   {'P', 0xF0}, // 53: Полоскание + слив</v>
       </c>
     </row>
     <row r="59" spans="1:24">
       <c r="A59">
         <f t="shared" si="5"/>
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C59" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E59" s="49"/>
       <c r="F59" s="49"/>
@@ -6949,7 +6911,7 @@
       </c>
       <c r="H59" s="49"/>
       <c r="I59" s="57">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J59" s="47"/>
       <c r="K59" s="47"/>
@@ -6960,18 +6922,18 @@
       <c r="P59" s="47"/>
       <c r="Q59" s="47"/>
       <c r="R59" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="S59" s="1">
         <f>I59+G59*2^4</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T59" s="52" t="s">
         <v>82</v>
       </c>
       <c r="U59" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>08</v>
+        <v>09</v>
       </c>
       <c r="V59" s="52" t="str">
         <f t="shared" si="2"/>
@@ -6979,31 +6941,31 @@
       </c>
       <c r="W59" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X59" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'T', 0x08}, // 55: Взводим таймер на t8 = 10 мин</v>
+        <v xml:space="preserve">   {'T', 0x09}, // 54: Взводим таймер на t9 = 15 мин</v>
       </c>
     </row>
     <row r="60" spans="1:24">
       <c r="A60">
         <f t="shared" si="5"/>
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C60" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="E60" s="49">
-        <v>1</v>
-      </c>
-      <c r="F60" s="49"/>
+        <v>37</v>
+      </c>
+      <c r="E60" s="49"/>
+      <c r="F60" s="49">
+        <v>1</v>
+      </c>
       <c r="G60" s="49">
         <v>0</v>
       </c>
       <c r="H60" s="49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" s="57"/>
       <c r="J60" s="47"/>
@@ -7015,18 +6977,18 @@
       <c r="P60" s="47"/>
       <c r="Q60" s="47"/>
       <c r="R60" s="4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="S60" s="1">
         <f>2^0*E60+2^1*F60+H60*2^7+G60*2^4</f>
-        <v>129</v>
+        <v>2</v>
       </c>
       <c r="T60" s="52" t="s">
         <v>78</v>
       </c>
       <c r="U60" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>81</v>
+        <v>02</v>
       </c>
       <c r="V60" s="52" t="str">
         <f t="shared" si="2"/>
@@ -7034,64 +6996,52 @@
       </c>
       <c r="W60" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X60" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'W', 0x81}, // 56: Ждем наполнения или ошибки окончания таймера</v>
+        <v xml:space="preserve">   {'W', 0x02}, // 55: Ждем слива или ошибки окончания таймера</v>
       </c>
     </row>
     <row r="61" spans="1:24">
       <c r="A61">
         <f t="shared" si="5"/>
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C61" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E61" s="49"/>
       <c r="F61" s="49"/>
-      <c r="G61" s="49"/>
+      <c r="G61" s="49">
+        <v>0</v>
+      </c>
       <c r="H61" s="49"/>
-      <c r="I61" s="57"/>
-      <c r="J61" s="47">
-        <v>0</v>
-      </c>
-      <c r="K61" s="47">
-        <v>0</v>
-      </c>
-      <c r="L61" s="47">
-        <v>0</v>
-      </c>
-      <c r="M61" s="47">
-        <v>0</v>
-      </c>
-      <c r="N61" s="47">
-        <v>1</v>
-      </c>
-      <c r="O61" s="47">
-        <v>0</v>
-      </c>
-      <c r="P61" s="47">
-        <v>1</v>
-      </c>
-      <c r="Q61" s="47">
-        <v>0</v>
-      </c>
+      <c r="I61" s="57">
+        <v>7</v>
+      </c>
+      <c r="J61" s="47"/>
+      <c r="K61" s="47"/>
+      <c r="L61" s="47"/>
+      <c r="M61" s="47"/>
+      <c r="N61" s="47"/>
+      <c r="O61" s="47"/>
+      <c r="P61" s="47"/>
+      <c r="Q61" s="47"/>
       <c r="R61" s="4" t="s">
-        <v>108</v>
+        <v>161</v>
       </c>
       <c r="S61" s="1">
-        <f>2^0*J61+2^1*K61+2^2*L61+2^3*M61+2^4*N61+2^5*O61+2^6*P61+2^7*Q61</f>
-        <v>80</v>
+        <f>I61+G61*2^4</f>
+        <v>7</v>
       </c>
       <c r="T61" s="52" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="U61" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>07</v>
       </c>
       <c r="V61" s="52" t="str">
         <f t="shared" si="2"/>
@@ -7099,21 +7049,21 @@
       </c>
       <c r="W61" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="X61" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'P', 0x50}, // 57: Полоскание + слив</v>
+        <v xml:space="preserve">   {'T', 0x07}, // 56: Взводим таймер на t7 = 2 мин</v>
       </c>
     </row>
     <row r="62" spans="1:24">
       <c r="A62">
         <f t="shared" si="5"/>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C62" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>3A</v>
+        <v>39</v>
       </c>
       <c r="E62" s="49"/>
       <c r="F62" s="49"/>
@@ -7121,9 +7071,7 @@
         <v>0</v>
       </c>
       <c r="H62" s="49"/>
-      <c r="I62" s="57">
-        <v>9</v>
-      </c>
+      <c r="I62" s="57"/>
       <c r="J62" s="47"/>
       <c r="K62" s="47"/>
       <c r="L62" s="47"/>
@@ -7133,18 +7081,18 @@
       <c r="P62" s="47"/>
       <c r="Q62" s="47"/>
       <c r="R62" s="4" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="S62" s="1">
-        <f>I62+G62*2^4</f>
-        <v>9</v>
+        <f>2^0*E62+2^1*F62+H62*2^7+G62*2^4</f>
+        <v>0</v>
       </c>
       <c r="T62" s="52" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="U62" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>09</v>
+        <v>00</v>
       </c>
       <c r="V62" s="52" t="str">
         <f t="shared" si="2"/>
@@ -7152,54 +7100,64 @@
       </c>
       <c r="W62" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>3A</v>
+        <v>39</v>
       </c>
       <c r="X62" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'T', 0x09}, // 58: Взводим таймер на t9 = 15 мин</v>
+        <v xml:space="preserve">   {'W', 0x00}, // 57: Ждем еще 2 минуты</v>
       </c>
     </row>
     <row r="63" spans="1:24">
       <c r="A63">
         <f t="shared" si="5"/>
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C63" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>3B</v>
-      </c>
-      <c r="E63" s="49"/>
-      <c r="F63" s="49">
-        <v>1</v>
-      </c>
-      <c r="G63" s="49">
-        <v>0</v>
-      </c>
-      <c r="H63" s="49">
-        <v>0</v>
-      </c>
-      <c r="I63" s="57"/>
-      <c r="J63" s="47"/>
-      <c r="K63" s="47"/>
-      <c r="L63" s="47"/>
-      <c r="M63" s="47"/>
-      <c r="N63" s="47"/>
-      <c r="O63" s="47"/>
-      <c r="P63" s="47"/>
-      <c r="Q63" s="47"/>
+        <v>3A</v>
+      </c>
+      <c r="E63" s="50"/>
+      <c r="F63" s="50"/>
+      <c r="G63" s="50"/>
+      <c r="H63" s="50"/>
+      <c r="I63" s="58"/>
+      <c r="J63" s="47">
+        <v>0</v>
+      </c>
+      <c r="K63" s="47">
+        <v>0</v>
+      </c>
+      <c r="L63" s="47">
+        <v>0</v>
+      </c>
+      <c r="M63" s="47">
+        <v>0</v>
+      </c>
+      <c r="N63" s="47">
+        <v>0</v>
+      </c>
+      <c r="O63" s="47">
+        <v>0</v>
+      </c>
+      <c r="P63" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="47">
+        <v>0</v>
+      </c>
       <c r="R63" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="S63" s="1">
-        <f>2^0*E63+2^1*F63+H63*2^7+G63*2^4</f>
-        <v>2</v>
+        <f>2^0*J63+2^1*K63+2^2*L63+2^3*M63+2^4*N63+2^5*O63+2^6*P63+2^7*Q63</f>
+        <v>0</v>
       </c>
       <c r="T63" s="52" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="U63" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>02</v>
+        <v>00</v>
       </c>
       <c r="V63" s="52" t="str">
         <f t="shared" si="2"/>
@@ -7207,423 +7165,254 @@
       </c>
       <c r="W63" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>3B</v>
+        <v>3A</v>
       </c>
       <c r="X63" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'W', 0x02}, // 59: Ждем слива или ошибки окончания таймера</v>
+        <v xml:space="preserve">   {'P', 0x00}, // 58: Все отключаем и оставляем слив</v>
       </c>
     </row>
     <row r="64" spans="1:24">
       <c r="A64">
         <f t="shared" si="5"/>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C64" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>3C</v>
-      </c>
-      <c r="E64" s="49"/>
-      <c r="F64" s="49"/>
-      <c r="G64" s="49">
-        <v>0</v>
-      </c>
-      <c r="H64" s="49"/>
-      <c r="I64" s="57">
-        <v>7</v>
-      </c>
-      <c r="J64" s="47"/>
-      <c r="K64" s="47"/>
-      <c r="L64" s="47"/>
-      <c r="M64" s="47"/>
-      <c r="N64" s="47"/>
-      <c r="O64" s="47"/>
-      <c r="P64" s="47"/>
-      <c r="Q64" s="47"/>
+        <v>3B</v>
+      </c>
+      <c r="E64" s="50"/>
+      <c r="F64" s="50"/>
+      <c r="G64" s="50"/>
+      <c r="H64" s="50"/>
+      <c r="I64" s="58"/>
+      <c r="J64" s="48"/>
+      <c r="K64" s="48"/>
+      <c r="L64" s="48"/>
+      <c r="M64" s="48"/>
+      <c r="N64" s="48"/>
+      <c r="O64" s="48"/>
+      <c r="P64" s="48"/>
+      <c r="Q64" s="48"/>
       <c r="R64" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="S64" s="1">
-        <f>I64+G64*2^4</f>
-        <v>7</v>
-      </c>
-      <c r="T64" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="U64" s="52" t="str">
-        <f t="shared" si="0"/>
-        <v>07</v>
-      </c>
-      <c r="V64" s="52" t="str">
-        <f t="shared" si="2"/>
-        <v>00</v>
-      </c>
-      <c r="W64" s="52" t="str">
-        <f t="shared" si="3"/>
-        <v>3C</v>
-      </c>
-      <c r="X64" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'T', 0x07}, // 60: Взводим таймер на t7 = 2 мин</v>
-      </c>
-    </row>
-    <row r="65" spans="1:24">
+        <v>33</v>
+      </c>
+      <c r="T64" s="52"/>
+      <c r="U64" s="52"/>
+      <c r="V64" s="55"/>
+      <c r="W64" s="55"/>
+    </row>
+    <row r="65" spans="1:23">
       <c r="A65">
         <f t="shared" si="5"/>
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C65" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>3D</v>
-      </c>
-      <c r="E65" s="49"/>
-      <c r="F65" s="49"/>
-      <c r="G65" s="49">
-        <v>0</v>
-      </c>
-      <c r="H65" s="49"/>
-      <c r="I65" s="57"/>
-      <c r="J65" s="47"/>
-      <c r="K65" s="47"/>
-      <c r="L65" s="47"/>
-      <c r="M65" s="47"/>
-      <c r="N65" s="47"/>
-      <c r="O65" s="47"/>
-      <c r="P65" s="47"/>
-      <c r="Q65" s="47"/>
+        <v>3C</v>
+      </c>
+      <c r="E65" s="50"/>
+      <c r="F65" s="50"/>
+      <c r="G65" s="50"/>
+      <c r="H65" s="50"/>
+      <c r="I65" s="58"/>
+      <c r="J65" s="48"/>
+      <c r="K65" s="48"/>
+      <c r="L65" s="48"/>
+      <c r="M65" s="48"/>
+      <c r="N65" s="48"/>
+      <c r="O65" s="48"/>
+      <c r="P65" s="48"/>
+      <c r="Q65" s="48"/>
       <c r="R65" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="S65" s="1">
-        <f>2^0*E65+2^1*F65+H65*2^7+G65*2^4</f>
-        <v>0</v>
-      </c>
-      <c r="T65" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="U65" s="52" t="str">
-        <f t="shared" si="0"/>
-        <v>00</v>
-      </c>
-      <c r="V65" s="52" t="str">
-        <f t="shared" si="2"/>
-        <v>00</v>
-      </c>
-      <c r="W65" s="52" t="str">
-        <f t="shared" si="3"/>
-        <v>3D</v>
-      </c>
-      <c r="X65" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'W', 0x00}, // 61: Ждем еще 2 минуты</v>
-      </c>
-    </row>
-    <row r="66" spans="1:24">
-      <c r="A66">
-        <f t="shared" si="5"/>
-        <v>62</v>
-      </c>
-      <c r="C66" s="65" t="str">
-        <f t="shared" si="1"/>
-        <v>3E</v>
-      </c>
-      <c r="E66" s="50"/>
-      <c r="F66" s="50"/>
-      <c r="G66" s="50"/>
-      <c r="H66" s="50"/>
-      <c r="I66" s="58"/>
-      <c r="J66" s="47">
-        <v>0</v>
-      </c>
-      <c r="K66" s="47">
-        <v>0</v>
-      </c>
-      <c r="L66" s="47">
-        <v>0</v>
-      </c>
-      <c r="M66" s="47">
-        <v>0</v>
-      </c>
-      <c r="N66" s="47">
-        <v>0</v>
-      </c>
-      <c r="O66" s="47">
-        <v>0</v>
-      </c>
-      <c r="P66" s="47">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="47">
-        <v>0</v>
-      </c>
-      <c r="R66" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="S66" s="1">
-        <f>2^0*J66+2^1*K66+2^2*L66+2^3*M66+2^4*N66+2^5*O66+2^6*P66+2^7*Q66</f>
-        <v>0</v>
-      </c>
-      <c r="T66" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="U66" s="52" t="str">
-        <f t="shared" si="0"/>
-        <v>00</v>
-      </c>
-      <c r="V66" s="52" t="str">
-        <f t="shared" si="2"/>
-        <v>00</v>
-      </c>
-      <c r="W66" s="52" t="str">
-        <f t="shared" si="3"/>
-        <v>3E</v>
-      </c>
-      <c r="X66" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">   {'P', 0x00}, // 62: Все отключаем и оставляем слив</v>
-      </c>
-    </row>
-    <row r="67" spans="1:24">
-      <c r="A67">
-        <f t="shared" si="5"/>
-        <v>63</v>
-      </c>
-      <c r="C67" s="65" t="str">
-        <f t="shared" si="1"/>
-        <v>3F</v>
-      </c>
-      <c r="E67" s="50"/>
-      <c r="F67" s="50"/>
-      <c r="G67" s="50"/>
-      <c r="H67" s="50"/>
-      <c r="I67" s="58"/>
-      <c r="J67" s="48"/>
-      <c r="K67" s="48"/>
-      <c r="L67" s="48"/>
-      <c r="M67" s="48"/>
-      <c r="N67" s="48"/>
-      <c r="O67" s="48"/>
-      <c r="P67" s="48"/>
-      <c r="Q67" s="48"/>
-      <c r="R67" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="T67" s="52"/>
-      <c r="U67" s="52"/>
-      <c r="V67" s="55"/>
-      <c r="W67" s="55"/>
-    </row>
-    <row r="68" spans="1:24">
-      <c r="A68">
-        <f t="shared" si="5"/>
-        <v>64</v>
-      </c>
-      <c r="C68" s="65" t="str">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="E68" s="50"/>
-      <c r="F68" s="50"/>
-      <c r="G68" s="50"/>
-      <c r="H68" s="50"/>
-      <c r="I68" s="58"/>
-      <c r="J68" s="48"/>
-      <c r="K68" s="48"/>
-      <c r="L68" s="48"/>
-      <c r="M68" s="48"/>
-      <c r="N68" s="48"/>
-      <c r="O68" s="48"/>
-      <c r="P68" s="48"/>
-      <c r="Q68" s="48"/>
-      <c r="R68" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="T68" s="52"/>
-      <c r="U68" s="52"/>
-      <c r="V68" s="55"/>
-      <c r="W68" s="55"/>
-    </row>
-    <row r="71" spans="1:24" ht="61.5">
-      <c r="E71" s="51" t="s">
+      <c r="T65" s="52"/>
+      <c r="U65" s="52"/>
+      <c r="V65" s="55"/>
+      <c r="W65" s="55"/>
+    </row>
+    <row r="68" spans="1:23" ht="61.5">
+      <c r="E68" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="F68" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="G68" s="54"/>
+      <c r="H68" s="54"/>
+    </row>
+    <row r="69" spans="1:23">
+      <c r="E69" s="1">
+        <v>1</v>
+      </c>
+      <c r="F69" s="1">
+        <v>30</v>
+      </c>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23">
+      <c r="E70" s="1">
+        <v>2</v>
+      </c>
+      <c r="F70" s="1">
+        <v>30</v>
+      </c>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23">
+      <c r="E71" s="1">
+        <v>3</v>
+      </c>
+      <c r="F71" s="1">
+        <f>5*60</f>
+        <v>300</v>
+      </c>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" t="s">
         <v>116</v>
       </c>
-      <c r="F71" s="51" t="s">
-        <v>117</v>
-      </c>
-      <c r="G71" s="54"/>
-      <c r="H71" s="54"/>
-    </row>
-    <row r="72" spans="1:24">
+    </row>
+    <row r="72" spans="1:23">
       <c r="E72" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F72" s="1">
-        <v>30</v>
+        <f>15*60</f>
+        <v>900</v>
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="73" spans="1:24">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23">
       <c r="E73" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F73" s="1">
-        <v>30</v>
+        <f>15*60</f>
+        <v>900</v>
       </c>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="74" spans="1:24">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23">
       <c r="E74" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F74" s="1">
-        <f>5*60</f>
-        <v>300</v>
+        <f>11*60</f>
+        <v>660</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="75" spans="1:24">
+        <v>113</v>
+      </c>
+      <c r="J74" s="45"/>
+      <c r="K74" s="45"/>
+      <c r="L74" s="45"/>
+    </row>
+    <row r="75" spans="1:23">
       <c r="E75" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F75" s="1">
-        <f>15*60</f>
-        <v>900</v>
+        <v>120</v>
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="76" spans="1:24">
+        <v>121</v>
+      </c>
+      <c r="L75" s="44"/>
+      <c r="M75" s="44"/>
+    </row>
+    <row r="76" spans="1:23">
       <c r="E76" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F76" s="1">
-        <f>15*60</f>
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="77" spans="1:24">
+        <v>114</v>
+      </c>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+    </row>
+    <row r="77" spans="1:23">
       <c r="E77" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F77" s="1">
-        <f>11*60</f>
-        <v>660</v>
+        <f>15*60</f>
+        <v>900</v>
       </c>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" t="s">
-        <v>120</v>
-      </c>
-      <c r="J77" s="45"/>
-      <c r="K77" s="45"/>
-      <c r="L77" s="45"/>
-    </row>
-    <row r="78" spans="1:24">
+        <v>115</v>
+      </c>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+    </row>
+    <row r="78" spans="1:23">
       <c r="E78" s="1">
-        <v>7</v>
-      </c>
-      <c r="F78" s="1">
-        <v>120</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" t="s">
-        <v>128</v>
-      </c>
-      <c r="L78" s="44"/>
-      <c r="M78" s="44"/>
-    </row>
-    <row r="79" spans="1:24">
-      <c r="E79" s="1">
-        <v>8</v>
-      </c>
-      <c r="F79" s="1">
-        <v>600</v>
-      </c>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="I79" t="s">
-        <v>121</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+    </row>
+    <row r="79" spans="1:23">
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
     </row>
-    <row r="80" spans="1:24">
-      <c r="E80" s="1">
-        <v>9</v>
-      </c>
-      <c r="F80" s="1">
-        <f>15*60</f>
-        <v>900</v>
-      </c>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-      <c r="I80" t="s">
-        <v>122</v>
-      </c>
+    <row r="80" spans="1:23">
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
     </row>
-    <row r="81" spans="5:13">
-      <c r="E81" s="1">
-        <v>0</v>
-      </c>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-      <c r="I81" t="s">
-        <v>127</v>
-      </c>
+    <row r="81" spans="12:13">
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
     </row>
-    <row r="82" spans="5:13">
+    <row r="82" spans="12:13">
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
     </row>
-    <row r="83" spans="5:13">
+    <row r="83" spans="12:13">
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
     </row>
-    <row r="84" spans="5:13">
+    <row r="84" spans="12:13">
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
     </row>
-    <row r="85" spans="5:13">
+    <row r="85" spans="12:13">
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
-    </row>
-    <row r="86" spans="5:13">
-      <c r="L86" s="1"/>
-      <c r="M86" s="1"/>
-    </row>
-    <row r="87" spans="5:13">
-      <c r="L87" s="1"/>
-      <c r="M87" s="1"/>
-    </row>
-    <row r="88" spans="5:13">
-      <c r="L88" s="1"/>
-      <c r="M88" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="2.04" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7643,12 +7432,12 @@
   <sheetData>
     <row r="4" spans="3:5">
       <c r="C4" s="56" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="3:5">
       <c r="C8" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="3:5">

--- a/docs/Алгоритм.xlsx
+++ b/docs/Алгоритм.xlsx
@@ -1016,7 +1016,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1193,11 +1193,20 @@
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1205,17 +1214,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1226,17 +1229,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1247,6 +1247,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2155,28 +2159,28 @@
   <sheetData>
     <row r="3" spans="1:16" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="78"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="85" t="s">
+      <c r="A4" s="85"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="86"/>
-      <c r="F4" s="83" t="s">
+      <c r="E4" s="80"/>
+      <c r="F4" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="84"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
     </row>
     <row r="5" spans="1:16" s="20" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="79"/>
+      <c r="A5" s="85"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="86"/>
       <c r="D5" s="33" t="s">
         <v>6</v>
       </c>
@@ -2212,13 +2216,13 @@
       </c>
     </row>
     <row r="6" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="77"/>
+      <c r="C6" s="76"/>
       <c r="D6" s="33"/>
       <c r="E6" s="34"/>
       <c r="F6" s="32"/>
@@ -2244,11 +2248,11 @@
       </c>
     </row>
     <row r="7" spans="1:16" s="21" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="73"/>
-      <c r="B7" s="76" t="s">
+      <c r="A7" s="74"/>
+      <c r="B7" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="77"/>
+      <c r="C7" s="76"/>
       <c r="D7" s="33" t="s">
         <v>10</v>
       </c>
@@ -2280,11 +2284,11 @@
       </c>
     </row>
     <row r="8" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="73"/>
-      <c r="B8" s="74" t="s">
+      <c r="A8" s="74"/>
+      <c r="B8" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="75"/>
+      <c r="C8" s="78"/>
       <c r="D8" s="33"/>
       <c r="E8" s="34" t="s">
         <v>10</v>
@@ -2309,13 +2313,13 @@
       <c r="O8" s="28"/>
     </row>
     <row r="9" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="81"/>
+      <c r="C9" s="82"/>
       <c r="D9" s="33"/>
       <c r="E9" s="34"/>
       <c r="F9" s="32" t="s">
@@ -2336,11 +2340,11 @@
       <c r="O9" s="28"/>
     </row>
     <row r="10" spans="1:16" s="21" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="73"/>
-      <c r="B10" s="76" t="s">
+      <c r="A10" s="74"/>
+      <c r="B10" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="77"/>
+      <c r="C10" s="76"/>
       <c r="D10" s="33"/>
       <c r="E10" s="34"/>
       <c r="F10" s="32" t="s">
@@ -2361,11 +2365,11 @@
       </c>
     </row>
     <row r="11" spans="1:16" s="21" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="73"/>
-      <c r="B11" s="76" t="s">
+      <c r="A11" s="74"/>
+      <c r="B11" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="77"/>
+      <c r="C11" s="76"/>
       <c r="D11" s="33" t="s">
         <v>10</v>
       </c>
@@ -2395,8 +2399,8 @@
       </c>
     </row>
     <row r="12" spans="1:16" s="21" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="73"/>
-      <c r="B12" s="82" t="s">
+      <c r="A12" s="74"/>
+      <c r="B12" s="83" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="31" t="s">
@@ -2422,8 +2426,8 @@
       <c r="O12" s="28"/>
     </row>
     <row r="13" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="73"/>
-      <c r="B13" s="82"/>
+      <c r="A13" s="74"/>
+      <c r="B13" s="83"/>
       <c r="C13" s="31" t="s">
         <v>31</v>
       </c>
@@ -2445,11 +2449,11 @@
       <c r="O13" s="28"/>
     </row>
     <row r="14" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="73"/>
-      <c r="B14" s="76" t="s">
+      <c r="A14" s="74"/>
+      <c r="B14" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="77"/>
+      <c r="C14" s="76"/>
       <c r="D14" s="33"/>
       <c r="E14" s="34"/>
       <c r="F14" s="32"/>
@@ -2470,11 +2474,11 @@
       </c>
     </row>
     <row r="15" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="73"/>
-      <c r="B15" s="74" t="s">
+      <c r="A15" s="74"/>
+      <c r="B15" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="75"/>
+      <c r="C15" s="78"/>
       <c r="D15" s="33"/>
       <c r="E15" s="34" t="s">
         <v>10</v>
@@ -2497,13 +2501,13 @@
       <c r="O15" s="28"/>
     </row>
     <row r="16" spans="1:16" s="21" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="73" t="s">
+      <c r="A16" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="76" t="s">
+      <c r="B16" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="77"/>
+      <c r="C16" s="76"/>
       <c r="D16" s="33"/>
       <c r="E16" s="34"/>
       <c r="F16" s="32"/>
@@ -2526,11 +2530,11 @@
       </c>
     </row>
     <row r="17" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="73"/>
-      <c r="B17" s="76" t="s">
+      <c r="A17" s="74"/>
+      <c r="B17" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="77"/>
+      <c r="C17" s="76"/>
       <c r="D17" s="33" t="s">
         <v>10</v>
       </c>
@@ -2555,16 +2559,16 @@
         <v>12</v>
       </c>
       <c r="O17" s="28"/>
-      <c r="P17" s="72" t="s">
+      <c r="P17" s="84" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="73"/>
-      <c r="B18" s="74" t="s">
+      <c r="A18" s="74"/>
+      <c r="B18" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="75"/>
+      <c r="C18" s="78"/>
       <c r="D18" s="33"/>
       <c r="E18" s="34" t="s">
         <v>10</v>
@@ -2585,16 +2589,16 @@
         <v>13</v>
       </c>
       <c r="O18" s="28"/>
-      <c r="P18" s="72"/>
+      <c r="P18" s="84"/>
     </row>
     <row r="19" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="73" t="s">
+      <c r="A19" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="80" t="s">
+      <c r="B19" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="81"/>
+      <c r="C19" s="82"/>
       <c r="D19" s="33"/>
       <c r="E19" s="34"/>
       <c r="F19" s="32"/>
@@ -2615,14 +2619,14 @@
       <c r="O19" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="P19" s="72"/>
+      <c r="P19" s="84"/>
     </row>
     <row r="20" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="73"/>
-      <c r="B20" s="76" t="s">
+      <c r="A20" s="74"/>
+      <c r="B20" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="77"/>
+      <c r="C20" s="76"/>
       <c r="D20" s="33"/>
       <c r="E20" s="34"/>
       <c r="F20" s="32"/>
@@ -2639,14 +2643,14 @@
         <v>15</v>
       </c>
       <c r="O20" s="28"/>
-      <c r="P20" s="72"/>
+      <c r="P20" s="84"/>
     </row>
     <row r="21" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="73"/>
-      <c r="B21" s="76" t="s">
+      <c r="A21" s="74"/>
+      <c r="B21" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="77"/>
+      <c r="C21" s="76"/>
       <c r="D21" s="33" t="s">
         <v>10</v>
       </c>
@@ -2671,11 +2675,11 @@
         <v>16</v>
       </c>
       <c r="O21" s="28"/>
-      <c r="P21" s="72"/>
+      <c r="P21" s="84"/>
     </row>
     <row r="22" spans="1:16" s="21" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="73"/>
-      <c r="B22" s="82" t="s">
+      <c r="A22" s="74"/>
+      <c r="B22" s="83" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="31" t="s">
@@ -2699,11 +2703,11 @@
         <v>17</v>
       </c>
       <c r="O22" s="28"/>
-      <c r="P22" s="72"/>
+      <c r="P22" s="84"/>
     </row>
     <row r="23" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="73"/>
-      <c r="B23" s="82"/>
+      <c r="A23" s="74"/>
+      <c r="B23" s="83"/>
       <c r="C23" s="31" t="s">
         <v>31</v>
       </c>
@@ -2723,14 +2727,14 @@
         <v>18</v>
       </c>
       <c r="O23" s="28"/>
-      <c r="P23" s="72"/>
+      <c r="P23" s="84"/>
     </row>
     <row r="24" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="73"/>
-      <c r="B24" s="76" t="s">
+      <c r="A24" s="74"/>
+      <c r="B24" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="77"/>
+      <c r="C24" s="76"/>
       <c r="D24" s="33"/>
       <c r="E24" s="34"/>
       <c r="F24" s="32"/>
@@ -2749,14 +2753,14 @@
       <c r="O24" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="P24" s="72"/>
+      <c r="P24" s="84"/>
     </row>
     <row r="25" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="73"/>
-      <c r="B25" s="74" t="s">
+      <c r="A25" s="74"/>
+      <c r="B25" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="75"/>
+      <c r="C25" s="78"/>
       <c r="D25" s="33"/>
       <c r="E25" s="34" t="s">
         <v>10</v>
@@ -2777,16 +2781,16 @@
         <v>20</v>
       </c>
       <c r="O25" s="28"/>
-      <c r="P25" s="72"/>
+      <c r="P25" s="84"/>
     </row>
     <row r="26" spans="1:16" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="73" t="s">
+      <c r="A26" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="76" t="s">
+      <c r="B26" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="77"/>
+      <c r="C26" s="76"/>
       <c r="D26" s="33"/>
       <c r="E26" s="34"/>
       <c r="F26" s="32"/>
@@ -2809,11 +2813,11 @@
       </c>
     </row>
     <row r="27" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="73"/>
-      <c r="B27" s="76" t="s">
+      <c r="A27" s="74"/>
+      <c r="B27" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="77"/>
+      <c r="C27" s="76"/>
       <c r="D27" s="33" t="s">
         <v>10</v>
       </c>
@@ -2840,11 +2844,11 @@
       <c r="O27" s="28"/>
     </row>
     <row r="28" spans="1:16" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="73"/>
-      <c r="B28" s="74" t="s">
+      <c r="A28" s="74"/>
+      <c r="B28" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="75"/>
+      <c r="C28" s="78"/>
       <c r="D28" s="33"/>
       <c r="E28" s="34" t="s">
         <v>10</v>
@@ -2865,13 +2869,13 @@
       <c r="O28" s="28"/>
     </row>
     <row r="29" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="73" t="s">
+      <c r="A29" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="74" t="s">
+      <c r="B29" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="75"/>
+      <c r="C29" s="78"/>
       <c r="D29" s="33"/>
       <c r="E29" s="34"/>
       <c r="F29" s="32"/>
@@ -2892,11 +2896,11 @@
       </c>
     </row>
     <row r="30" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="73"/>
-      <c r="B30" s="76" t="s">
+      <c r="A30" s="74"/>
+      <c r="B30" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="77"/>
+      <c r="C30" s="76"/>
       <c r="D30" s="33"/>
       <c r="E30" s="34"/>
       <c r="F30" s="32"/>
@@ -3225,23 +3229,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="F4:M4"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B12:B13"/>
     <mergeCell ref="P17:P25"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="B29:C29"/>
@@ -3258,6 +3245,23 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="F4:M4"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D4:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3622,7 +3626,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L22" sqref="L22"/>
+      <selection pane="bottomLeft" activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3809,11 +3813,11 @@
         <v>00</v>
       </c>
       <c r="U5" s="51" t="str">
-        <f>DEC2HEX(A5,2)</f>
+        <f t="shared" ref="U5:U50" si="1">DEC2HEX(A5,2)</f>
         <v>01</v>
       </c>
       <c r="V5" t="str">
-        <f>CONCATENATE($U$3,"'",R5,"', 0x",S5,$V$3,A5,": ",P5)</f>
+        <f t="shared" ref="V5:V36" si="2">CONCATENATE($U$3,"'",R5,"', 0x",S5,$V$3,A5,": ",P5)</f>
         <v xml:space="preserve">   {'P', 0x2C}, // 1: Наполнение основного бака для полоскания</v>
       </c>
       <c r="W5" s="71" t="s">
@@ -3859,15 +3863,15 @@
         <v>08</v>
       </c>
       <c r="T6" s="51" t="str">
-        <f t="shared" ref="T6:T63" si="1">DEC2HEX(0,2)</f>
+        <f t="shared" ref="T6:T63" si="3">DEC2HEX(0,2)</f>
         <v>00</v>
       </c>
       <c r="U6" s="51" t="str">
-        <f>DEC2HEX(A6,2)</f>
+        <f t="shared" si="1"/>
         <v>02</v>
       </c>
       <c r="V6" t="str">
-        <f>CONCATENATE($U$3,"'",R6,"', 0x",S6,$V$3,A6,": ",P6)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">   {'T', 0x08}, // 2: [0] на цикл [Макс.время наполения танка]</v>
       </c>
       <c r="W6" s="71" t="s">
@@ -3876,7 +3880,7 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f t="shared" ref="A7:A65" si="2">A6+1</f>
+        <f t="shared" ref="A7:A65" si="4">A6+1</f>
         <v>3</v>
       </c>
       <c r="B7" s="48">
@@ -3915,15 +3919,15 @@
         <v>81</v>
       </c>
       <c r="T7" s="51" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="U7" s="51" t="str">
         <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-      <c r="U7" s="51" t="str">
-        <f>DEC2HEX(A7,2)</f>
         <v>03</v>
       </c>
       <c r="V7" t="str">
-        <f>CONCATENATE($U$3,"'",R7,"', 0x",S7,$V$3,A7,": ",P7)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">   {'W', 0x81}, // 3: Ждем датчик наполнения или Ошибка по таймеру [0]</v>
       </c>
       <c r="W7" s="71" t="s">
@@ -3932,7 +3936,7 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="B8" s="48"/>
@@ -3980,15 +3984,15 @@
         <v>30</v>
       </c>
       <c r="T8" s="51" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="U8" s="51" t="str">
         <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-      <c r="U8" s="51" t="str">
-        <f>DEC2HEX(A8,2)</f>
         <v>04</v>
       </c>
       <c r="V8" t="str">
-        <f>CONCATENATE($U$3,"'",R8,"', 0x",S8,$V$3,A8,": ",P8)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">   {'P', 0x30}, // 4: Начать полоскание теплой водой</v>
       </c>
       <c r="W8" s="71" t="s">
@@ -3997,7 +4001,7 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="B9" s="48"/>
@@ -4034,15 +4038,15 @@
         <v>03</v>
       </c>
       <c r="T9" s="51" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="U9" s="51" t="str">
         <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-      <c r="U9" s="51" t="str">
-        <f>DEC2HEX(A9,2)</f>
         <v>05</v>
       </c>
       <c r="V9" t="str">
-        <f>CONCATENATE($U$3,"'",R9,"', 0x",S9,$V$3,A9,": ",P9)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">   {'T', 0x03}, // 5: [0] на цикл [Полоскание]</v>
       </c>
       <c r="W9" s="71" t="s">
@@ -4051,7 +4055,7 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B10" s="48"/>
@@ -4082,19 +4086,19 @@
         <v>78</v>
       </c>
       <c r="S10" s="51" t="str">
-        <f t="shared" ref="S10" si="3">DEC2HEX(Q10,2)</f>
+        <f t="shared" ref="S10" si="5">DEC2HEX(Q10,2)</f>
         <v>00</v>
       </c>
       <c r="T10" s="51" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="U10" s="51" t="str">
         <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-      <c r="U10" s="51" t="str">
-        <f>DEC2HEX(A10,2)</f>
         <v>06</v>
       </c>
       <c r="V10" t="str">
-        <f>CONCATENATE($U$3,"'",R10,"', 0x",S10,$V$3,A10,": ",P10)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">   {'W', 0x00}, // 6: Ждем пока обнулиться таймер [0]</v>
       </c>
       <c r="W10" s="71" t="s">
@@ -4103,7 +4107,7 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B11" s="48"/>
@@ -4151,15 +4155,15 @@
         <v>09</v>
       </c>
       <c r="T11" s="51" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="U11" s="51" t="str">
         <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-      <c r="U11" s="51" t="str">
-        <f>DEC2HEX(A11,2)</f>
         <v>07</v>
       </c>
       <c r="V11" t="str">
-        <f>CONCATENATE($U$3,"'",R11,"', 0x",S11,$V$3,A11,": ",P11)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">   {'P', 0x09}, // 7: Наполнение основного бака горячей водой</v>
       </c>
       <c r="W11" s="71" t="s">
@@ -4168,7 +4172,7 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B12" s="48"/>
@@ -4187,7 +4191,7 @@
       <c r="M12" s="46"/>
       <c r="N12" s="46"/>
       <c r="O12" s="46"/>
-      <c r="P12" s="4" t="s">
+      <c r="P12" s="91" t="s">
         <v>133</v>
       </c>
       <c r="Q12" s="1">
@@ -4202,15 +4206,15 @@
         <v>10</v>
       </c>
       <c r="T12" s="51" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="U12" s="51" t="str">
         <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-      <c r="U12" s="51" t="str">
-        <f>DEC2HEX(A12,2)</f>
         <v>08</v>
       </c>
       <c r="V12" t="str">
-        <f>CONCATENATE($U$3,"'",R12,"', 0x",S12,$V$3,A12,": ",P12)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">   {'C', 0x10}, // 8: Засекаем время для расчетного периода, используя таймер 1</v>
       </c>
       <c r="W12" s="71" t="s">
@@ -4219,7 +4223,7 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="B13" s="48"/>
@@ -4240,7 +4244,7 @@
       <c r="M13" s="46"/>
       <c r="N13" s="46"/>
       <c r="O13" s="46"/>
-      <c r="P13" s="4" t="str">
+      <c r="P13" s="91" t="str">
         <f>CONCATENATE(VLOOKUP(R13,$I$68:$P$75,2,0),"[",D13,"]"," на цикл [",VLOOKUP(F13,$B$68:$E$77,3,0),"]")</f>
         <v>[0] на цикл [Залив моющ.р-р 1]</v>
       </c>
@@ -4256,15 +4260,15 @@
         <v>01</v>
       </c>
       <c r="T13" s="51" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="U13" s="51" t="str">
         <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-      <c r="U13" s="51" t="str">
-        <f>DEC2HEX(A13,2)</f>
         <v>09</v>
       </c>
       <c r="V13" t="str">
-        <f>CONCATENATE($U$3,"'",R13,"', 0x",S13,$V$3,A13,": ",P13)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">   {'T', 0x01}, // 9: [0] на цикл [Залив моющ.р-р 1]</v>
       </c>
       <c r="W13" s="71" t="s">
@@ -4273,7 +4277,7 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="B14" s="48">
@@ -4294,7 +4298,7 @@
       <c r="M14" s="46"/>
       <c r="N14" s="46"/>
       <c r="O14" s="46"/>
-      <c r="P14" s="4" t="str">
+      <c r="P14" s="91" t="str">
         <f>CONCATENATE(IF(B14=1,"Ждем датчик наполнения или ",""),IF(E14=1,"Ошибка по таймеру ","Ждем пока обнулиться таймер "),"[",D14,"]")</f>
         <v>Ждем датчик наполнения или Ждем пока обнулиться таймер [0]</v>
       </c>
@@ -4306,19 +4310,19 @@
         <v>78</v>
       </c>
       <c r="S14" s="51" t="str">
-        <f t="shared" ref="S14" si="4">DEC2HEX(Q14,2)</f>
+        <f t="shared" ref="S14" si="6">DEC2HEX(Q14,2)</f>
         <v>01</v>
       </c>
       <c r="T14" s="51" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="U14" s="51" t="str">
         <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-      <c r="U14" s="51" t="str">
-        <f>DEC2HEX(A14,2)</f>
         <v>0A</v>
       </c>
       <c r="V14" t="str">
-        <f>CONCATENATE($U$3,"'",R14,"', 0x",S14,$V$3,A14,": ",P14)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">   {'W', 0x01}, // 10: Ждем датчик наполнения или Ждем пока обнулиться таймер [0]</v>
       </c>
       <c r="W14" s="71" t="s">
@@ -4327,7 +4331,7 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="B15" s="48"/>
@@ -4360,7 +4364,7 @@
       <c r="O15" s="46">
         <v>0</v>
       </c>
-      <c r="P15" s="4" t="s">
+      <c r="P15" s="91" t="s">
         <v>96</v>
       </c>
       <c r="Q15" s="1">
@@ -4375,15 +4379,15 @@
         <v>08</v>
       </c>
       <c r="T15" s="51" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="U15" s="51" t="str">
         <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-      <c r="U15" s="51" t="str">
-        <f>DEC2HEX(A15,2)</f>
         <v>0B</v>
       </c>
       <c r="V15" t="str">
-        <f>CONCATENATE($U$3,"'",R15,"', 0x",S15,$V$3,A15,": ",P15)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">   {'P', 0x08}, // 11: Откл.моющую жидкость</v>
       </c>
       <c r="W15" s="71" t="s">
@@ -4392,7 +4396,7 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="B16" s="48"/>
@@ -4413,7 +4417,7 @@
       <c r="M16" s="46"/>
       <c r="N16" s="46"/>
       <c r="O16" s="46"/>
-      <c r="P16" s="4" t="str">
+      <c r="P16" s="91" t="str">
         <f>CONCATENATE(VLOOKUP(R16,$I$68:$P$75,2,0),"[",D16,"]"," на цикл [",VLOOKUP(F16,$B$68:$E$77,3,0),"]")</f>
         <v>[0] на цикл [Макс.время наполения танка]</v>
       </c>
@@ -4429,15 +4433,15 @@
         <v>08</v>
       </c>
       <c r="T16" s="51" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="U16" s="51" t="str">
         <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-      <c r="U16" s="51" t="str">
-        <f>DEC2HEX(A16,2)</f>
         <v>0C</v>
       </c>
       <c r="V16" t="str">
-        <f>CONCATENATE($U$3,"'",R16,"', 0x",S16,$V$3,A16,": ",P16)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">   {'T', 0x08}, // 12: [0] на цикл [Макс.время наполения танка]</v>
       </c>
       <c r="W16" s="71" t="s">
@@ -4446,7 +4450,7 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="B17" s="48">
@@ -4469,7 +4473,7 @@
       <c r="M17" s="46"/>
       <c r="N17" s="46"/>
       <c r="O17" s="46"/>
-      <c r="P17" s="4" t="str">
+      <c r="P17" s="91" t="str">
         <f>CONCATENATE(IF(B17=1,"Ждем датчик наполнения или ",""),IF(E17=1,"Ошибка по таймеру ","Ждем пока обнулиться таймер "),"[",D17,"]")</f>
         <v>Ждем датчик наполнения или Ошибка по таймеру [0]</v>
       </c>
@@ -4481,19 +4485,19 @@
         <v>78</v>
       </c>
       <c r="S17" s="51" t="str">
-        <f t="shared" ref="S17" si="5">DEC2HEX(Q17,2)</f>
+        <f t="shared" ref="S17" si="7">DEC2HEX(Q17,2)</f>
         <v>81</v>
       </c>
       <c r="T17" s="51" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="U17" s="51" t="str">
         <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-      <c r="U17" s="51" t="str">
-        <f>DEC2HEX(A17,2)</f>
         <v>0D</v>
       </c>
       <c r="V17" t="str">
-        <f>CONCATENATE($U$3,"'",R17,"', 0x",S17,$V$3,A17,": ",P17)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">   {'W', 0x81}, // 13: Ждем датчик наполнения или Ошибка по таймеру [0]</v>
       </c>
       <c r="W17" s="71" t="s">
@@ -4502,7 +4506,7 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="B18" s="48"/>
@@ -4523,7 +4527,7 @@
       <c r="M18" s="46"/>
       <c r="N18" s="46"/>
       <c r="O18" s="46"/>
-      <c r="P18" s="4" t="str">
+      <c r="P18" s="91" t="str">
         <f>CONCATENATE("Запоминаем время заполн.бака/",G18," в цикл [",D77,"]")</f>
         <v>Запоминаем время заполн.бака/4 в цикл [Расчетн.время]</v>
       </c>
@@ -4539,15 +4543,15 @@
         <v>14</v>
       </c>
       <c r="T18" s="51" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="U18" s="51" t="str">
         <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-      <c r="U18" s="51" t="str">
-        <f>DEC2HEX(A18,2)</f>
         <v>0E</v>
       </c>
       <c r="V18" t="str">
-        <f>CONCATENATE($U$3,"'",R18,"', 0x",S18,$V$3,A18,": ",P18)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">   {'S', 0x14}, // 14: Запоминаем время заполн.бака/4 в цикл [Расчетн.время]</v>
       </c>
       <c r="W18" s="71" t="s">
@@ -4556,7 +4560,7 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="B19" s="48"/>
@@ -4604,15 +4608,15 @@
         <v>D0</v>
       </c>
       <c r="T19" s="51" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="U19" s="51" t="str">
         <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-      <c r="U19" s="51" t="str">
-        <f>DEC2HEX(A19,2)</f>
         <v>0F</v>
       </c>
       <c r="V19" t="str">
-        <f>CONCATENATE($U$3,"'",R19,"', 0x",S19,$V$3,A19,": ",P19)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">   {'P', 0xD0}, // 15: Мойка</v>
       </c>
       <c r="W19" s="71" t="s">
@@ -4621,7 +4625,7 @@
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="B20" s="48"/>
@@ -4658,15 +4662,15 @@
         <v>04</v>
       </c>
       <c r="T20" s="51" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="U20" s="51" t="str">
         <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-      <c r="U20" s="51" t="str">
-        <f>DEC2HEX(A20,2)</f>
         <v>10</v>
       </c>
       <c r="V20" t="str">
-        <f>CONCATENATE($U$3,"'",R20,"', 0x",S20,$V$3,A20,": ",P20)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">   {'T', 0x04}, // 16: [0] на цикл [Мойка 1]</v>
       </c>
       <c r="W20" s="71" t="s">
@@ -4675,7 +4679,7 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="B21" s="48"/>
@@ -4710,15 +4714,15 @@
         <v>00</v>
       </c>
       <c r="T21" s="51" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="U21" s="51" t="str">
         <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-      <c r="U21" s="51" t="str">
-        <f>DEC2HEX(A21,2)</f>
         <v>11</v>
       </c>
       <c r="V21" t="str">
-        <f>CONCATENATE($U$3,"'",R21,"', 0x",S21,$V$3,A21,": ",P21)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">   {'W', 0x00}, // 17: Ждем пока обнулиться таймер [0]</v>
       </c>
       <c r="W21" s="71" t="s">
@@ -4727,7 +4731,7 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="B22" s="49"/>
@@ -4775,15 +4779,15 @@
         <v>D8</v>
       </c>
       <c r="T22" s="51" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="U22" s="51" t="str">
         <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-      <c r="U22" s="51" t="str">
-        <f>DEC2HEX(A22,2)</f>
         <v>12</v>
       </c>
       <c r="V22" t="str">
-        <f>CONCATENATE($U$3,"'",R22,"', 0x",S22,$V$3,A22,": ",P22)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">   {'P', 0xD8}, // 18: долив четверть бака горячей</v>
       </c>
       <c r="W22" s="71" t="s">
@@ -4792,13 +4796,13 @@
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="B23" s="58"/>
       <c r="C23" s="58"/>
       <c r="D23" s="58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" s="58"/>
       <c r="F23" s="59">
@@ -4815,30 +4819,30 @@
       <c r="O23" s="46"/>
       <c r="P23" s="4" t="str">
         <f>CONCATENATE(VLOOKUP(R23,$I$68:$P$75,2,0),"[",D23,"]"," на цикл [",VLOOKUP(F23,$B$68:$E$77,3,0),"]")</f>
-        <v>[1] на цикл [Расчетн.время]</v>
+        <v>[0] на цикл [Расчетн.время]</v>
       </c>
       <c r="Q23" s="1">
         <f>F23+D23*2^4</f>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="R23" s="62" t="s">
         <v>82</v>
       </c>
       <c r="S23" s="51" t="str">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>00</v>
       </c>
       <c r="T23" s="51" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="U23" s="51" t="str">
         <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-      <c r="U23" s="51" t="str">
-        <f>DEC2HEX(A23,2)</f>
         <v>13</v>
       </c>
       <c r="V23" t="str">
-        <f>CONCATENATE($U$3,"'",R23,"', 0x",S23,$V$3,A23,": ",P23)</f>
-        <v xml:space="preserve">   {'T', 0x10}, // 19: [1] на цикл [Расчетн.время]</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">   {'T', 0x00}, // 19: [0] на цикл [Расчетн.время]</v>
       </c>
       <c r="W23" s="71" t="s">
         <v>161</v>
@@ -4846,7 +4850,7 @@
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="B24" s="48">
@@ -4854,7 +4858,7 @@
       </c>
       <c r="C24" s="48"/>
       <c r="D24" s="48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" s="48"/>
       <c r="F24" s="56"/>
@@ -4869,30 +4873,30 @@
       <c r="O24" s="47"/>
       <c r="P24" s="4" t="str">
         <f>CONCATENATE(IF(B24=1,"Ждем датчик наполнения или ",""),IF(E24=1,"Ошибка по таймеру ","Ждем пока обнулиться таймер "),"[",D24,"]")</f>
-        <v>Ждем датчик наполнения или Ждем пока обнулиться таймер [1]</v>
+        <v>Ждем датчик наполнения или Ждем пока обнулиться таймер [0]</v>
       </c>
       <c r="Q24" s="1">
         <f>2^0*B24+2^1*C24+E24*2^7+D24*2^4</f>
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="R24" s="51" t="s">
         <v>78</v>
       </c>
       <c r="S24" s="51" t="str">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>01</v>
       </c>
       <c r="T24" s="51" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="U24" s="51" t="str">
         <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-      <c r="U24" s="51" t="str">
-        <f>DEC2HEX(A24,2)</f>
         <v>14</v>
       </c>
       <c r="V24" t="str">
-        <f>CONCATENATE($U$3,"'",R24,"', 0x",S24,$V$3,A24,": ",P24)</f>
-        <v xml:space="preserve">   {'W', 0x11}, // 20: Ждем датчик наполнения или Ждем пока обнулиться таймер [1]</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">   {'W', 0x01}, // 20: Ждем датчик наполнения или Ждем пока обнулиться таймер [0]</v>
       </c>
       <c r="W24" s="71" t="s">
         <v>161</v>
@@ -4900,7 +4904,7 @@
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="B25" s="48"/>
@@ -4948,15 +4952,15 @@
         <v>D0</v>
       </c>
       <c r="T25" s="51" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="U25" s="51" t="str">
         <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-      <c r="U25" s="51" t="str">
-        <f>DEC2HEX(A25,2)</f>
         <v>15</v>
       </c>
       <c r="V25" t="str">
-        <f>CONCATENATE($U$3,"'",R25,"', 0x",S25,$V$3,A25,": ",P25)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">   {'P', 0xD0}, // 21: Продолжаем мойку и слив</v>
       </c>
       <c r="W25" s="71" t="s">
@@ -4965,7 +4969,7 @@
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="B26" s="48"/>
@@ -4998,19 +5002,19 @@
         <v>82</v>
       </c>
       <c r="S26" s="51" t="str">
-        <f t="shared" ref="S26" si="6">DEC2HEX(Q26,2)</f>
+        <f t="shared" ref="S26" si="8">DEC2HEX(Q26,2)</f>
         <v>05</v>
       </c>
       <c r="T26" s="51" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="U26" s="51" t="str">
         <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-      <c r="U26" s="51" t="str">
-        <f>DEC2HEX(A26,2)</f>
         <v>16</v>
       </c>
       <c r="V26" t="str">
-        <f>CONCATENATE($U$3,"'",R26,"', 0x",S26,$V$3,A26,": ",P26)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">   {'T', 0x05}, // 22: [0] на цикл [Мойка 2]</v>
       </c>
       <c r="W26" s="71" t="s">
@@ -5019,7 +5023,7 @@
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="B27" s="48"/>
@@ -5042,27 +5046,27 @@
         <f>CONCATENATE(IF(B27=1,"Ждем датчик наполнения или ",""),IF(E27=1,"Ошибка по таймеру ","Ждем пока обнулиться таймер "),"[",D27,"]")</f>
         <v>Ждем пока обнулиться таймер [0]</v>
       </c>
-      <c r="Q27" s="61">
+      <c r="Q27" s="90">
         <f>2^0*B27+2^1*C27+E27*2^7+D27*2^4</f>
         <v>0</v>
       </c>
-      <c r="R27" s="52" t="s">
+      <c r="R27" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="S27" s="52" t="str">
+      <c r="S27" s="62" t="str">
         <f t="shared" si="0"/>
         <v>00</v>
       </c>
-      <c r="T27" s="52" t="str">
+      <c r="T27" s="62" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="U27" s="62" t="str">
         <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-      <c r="U27" s="52" t="str">
-        <f>DEC2HEX(A27,2)</f>
         <v>17</v>
       </c>
       <c r="V27" t="str">
-        <f>CONCATENATE($U$3,"'",R27,"', 0x",S27,$V$3,A27,": ",P27)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">   {'W', 0x00}, // 23: Ждем пока обнулиться таймер [0]</v>
       </c>
       <c r="W27" s="71" t="s">
@@ -5071,7 +5075,7 @@
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="B28" s="48"/>
@@ -5119,15 +5123,15 @@
         <v>30</v>
       </c>
       <c r="T28" s="51" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="U28" s="51" t="str">
         <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-      <c r="U28" s="51" t="str">
-        <f>DEC2HEX(A28,2)</f>
         <v>18</v>
       </c>
       <c r="V28" t="str">
-        <f>CONCATENATE($U$3,"'",R28,"', 0x",S28,$V$3,A28,": ",P28)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">   {'P', 0x30}, // 24: Слив</v>
       </c>
       <c r="W28" s="71" t="s">
@@ -5136,7 +5140,7 @@
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="B29" s="48"/>
@@ -5173,15 +5177,15 @@
         <v>09</v>
       </c>
       <c r="T29" s="51" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="U29" s="51" t="str">
         <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-      <c r="U29" s="51" t="str">
-        <f>DEC2HEX(A29,2)</f>
         <v>19</v>
       </c>
       <c r="V29" t="str">
-        <f>CONCATENATE($U$3,"'",R29,"', 0x",S29,$V$3,A29,": ",P29)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">   {'T', 0x09}, // 25: [0] на цикл [Макс.время слива танка]</v>
       </c>
       <c r="W29" s="71" t="s">
@@ -5190,7 +5194,7 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="B30" s="48"/>
@@ -5227,15 +5231,15 @@
         <v>00</v>
       </c>
       <c r="T30" s="51" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="U30" s="51" t="str">
         <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-      <c r="U30" s="51" t="str">
-        <f>DEC2HEX(A30,2)</f>
         <v>1A</v>
       </c>
       <c r="V30" t="str">
-        <f>CONCATENATE($U$3,"'",R30,"', 0x",S30,$V$3,A30,": ",P30)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">   {'W', 0x00}, // 26: Ждем пока обнулиться таймер [0]</v>
       </c>
       <c r="W30" s="71" t="s">
@@ -5244,7 +5248,7 @@
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="B31" s="48"/>
@@ -5292,15 +5296,15 @@
         <v>24</v>
       </c>
       <c r="T31" s="51" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="U31" s="51" t="str">
         <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-      <c r="U31" s="51" t="str">
-        <f>DEC2HEX(A31,2)</f>
         <v>1B</v>
       </c>
       <c r="V31" t="str">
-        <f>CONCATENATE($U$3,"'",R31,"', 0x",S31,$V$3,A31,": ",P31)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">   {'P', 0x24}, // 27: Наполнение основного бака для полоскания - холодная вода</v>
       </c>
       <c r="W31" s="71" t="s">
@@ -5309,7 +5313,7 @@
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="B32" s="48"/>
@@ -5346,15 +5350,15 @@
         <v>08</v>
       </c>
       <c r="T32" s="51" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="U32" s="51" t="str">
         <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-      <c r="U32" s="51" t="str">
-        <f>DEC2HEX(A32,2)</f>
         <v>1C</v>
       </c>
       <c r="V32" t="str">
-        <f>CONCATENATE($U$3,"'",R32,"', 0x",S32,$V$3,A32,": ",P32)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">   {'T', 0x08}, // 28: [0] на цикл [Макс.время наполения танка]</v>
       </c>
       <c r="W32" s="71" t="s">
@@ -5363,7 +5367,7 @@
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="B33" s="48">
@@ -5402,15 +5406,15 @@
         <v>81</v>
       </c>
       <c r="T33" s="51" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="U33" s="51" t="str">
         <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-      <c r="U33" s="51" t="str">
-        <f>DEC2HEX(A33,2)</f>
         <v>1D</v>
       </c>
       <c r="V33" t="str">
-        <f>CONCATENATE($U$3,"'",R33,"', 0x",S33,$V$3,A33,": ",P33)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">   {'W', 0x81}, // 29: Ждем датчик наполнения или Ошибка по таймеру [0]</v>
       </c>
       <c r="W33" s="71" t="s">
@@ -5419,7 +5423,7 @@
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="B34" s="48"/>
@@ -5467,15 +5471,15 @@
         <v>50</v>
       </c>
       <c r="T34" s="51" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="U34" s="51" t="str">
         <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-      <c r="U34" s="51" t="str">
-        <f>DEC2HEX(A34,2)</f>
         <v>1E</v>
       </c>
       <c r="V34" t="str">
-        <f>CONCATENATE($U$3,"'",R34,"', 0x",S34,$V$3,A34,": ",P34)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">   {'P', 0x50}, // 30: Полоскание + слив</v>
       </c>
       <c r="W34" s="71" t="s">
@@ -5484,7 +5488,7 @@
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="B35" s="48"/>
@@ -5521,15 +5525,15 @@
         <v>03</v>
       </c>
       <c r="T35" s="51" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="U35" s="51" t="str">
         <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-      <c r="U35" s="51" t="str">
-        <f>DEC2HEX(A35,2)</f>
         <v>1F</v>
       </c>
       <c r="V35" t="str">
-        <f>CONCATENATE($U$3,"'",R35,"', 0x",S35,$V$3,A35,": ",P35)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">   {'T', 0x03}, // 31: [0] на цикл [Полоскание]</v>
       </c>
       <c r="W35" s="71" t="s">
@@ -5538,7 +5542,7 @@
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="B36" s="48"/>
@@ -5575,15 +5579,15 @@
         <v>00</v>
       </c>
       <c r="T36" s="51" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="U36" s="51" t="str">
         <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-      <c r="U36" s="51" t="str">
-        <f>DEC2HEX(A36,2)</f>
         <v>20</v>
       </c>
       <c r="V36" t="str">
-        <f>CONCATENATE($U$3,"'",R36,"', 0x",S36,$V$3,A36,": ",P36)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">   {'W', 0x00}, // 32: Ждем пока обнулиться таймер [0]</v>
       </c>
       <c r="W36" s="71" t="s">
@@ -5592,7 +5596,7 @@
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="B37" s="48"/>
@@ -5640,15 +5644,15 @@
         <v>2A</v>
       </c>
       <c r="T37" s="51" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="U37" s="51" t="str">
         <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-      <c r="U37" s="51" t="str">
-        <f>DEC2HEX(A37,2)</f>
         <v>21</v>
       </c>
       <c r="V37" t="str">
-        <f>CONCATENATE($U$3,"'",R37,"', 0x",S37,$V$3,A37,": ",P37)</f>
+        <f t="shared" ref="V37:V63" si="9">CONCATENATE($U$3,"'",R37,"', 0x",S37,$V$3,A37,": ",P37)</f>
         <v xml:space="preserve">   {'P', 0x2A}, // 33: Наполнение основного бака для мойки 2</v>
       </c>
       <c r="W37" s="71" t="s">
@@ -5657,7 +5661,7 @@
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="B38" s="48"/>
@@ -5694,15 +5698,15 @@
         <v>02</v>
       </c>
       <c r="T38" s="51" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="U38" s="51" t="str">
         <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-      <c r="U38" s="51" t="str">
-        <f>DEC2HEX(A38,2)</f>
         <v>22</v>
       </c>
       <c r="V38" t="str">
-        <f>CONCATENATE($U$3,"'",R38,"', 0x",S38,$V$3,A38,": ",P38)</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">   {'T', 0x02}, // 34: [0] на цикл [Залив моющ.р-р 2]</v>
       </c>
       <c r="W38" s="71" t="s">
@@ -5711,7 +5715,7 @@
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="B39" s="48">
@@ -5748,15 +5752,15 @@
         <v>01</v>
       </c>
       <c r="T39" s="51" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="U39" s="51" t="str">
         <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-      <c r="U39" s="51" t="str">
-        <f>DEC2HEX(A39,2)</f>
         <v>23</v>
       </c>
       <c r="V39" t="str">
-        <f>CONCATENATE($U$3,"'",R39,"', 0x",S39,$V$3,A39,": ",P39)</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">   {'W', 0x01}, // 35: Ждем датчик наполнения или Ждем пока обнулиться таймер [0]</v>
       </c>
       <c r="W39" s="71" t="s">
@@ -5765,7 +5769,7 @@
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="B40" s="48"/>
@@ -5813,15 +5817,15 @@
         <v>28</v>
       </c>
       <c r="T40" s="51" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="U40" s="51" t="str">
         <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-      <c r="U40" s="51" t="str">
-        <f>DEC2HEX(A40,2)</f>
         <v>24</v>
       </c>
       <c r="V40" t="str">
-        <f>CONCATENATE($U$3,"'",R40,"', 0x",S40,$V$3,A40,": ",P40)</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">   {'P', 0x28}, // 36: Откл.моющую жидкость</v>
       </c>
       <c r="W40" s="71" t="s">
@@ -5830,7 +5834,7 @@
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="B41" s="48"/>
@@ -5867,15 +5871,15 @@
         <v>08</v>
       </c>
       <c r="T41" s="51" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="U41" s="51" t="str">
         <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-      <c r="U41" s="51" t="str">
-        <f>DEC2HEX(A41,2)</f>
         <v>25</v>
       </c>
       <c r="V41" t="str">
-        <f>CONCATENATE($U$3,"'",R41,"', 0x",S41,$V$3,A41,": ",P41)</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">   {'T', 0x08}, // 37: [0] на цикл [Макс.время наполения танка]</v>
       </c>
       <c r="W41" s="71" t="s">
@@ -5884,7 +5888,7 @@
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
       <c r="B42" s="48">
@@ -5923,15 +5927,15 @@
         <v>81</v>
       </c>
       <c r="T42" s="51" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="U42" s="51" t="str">
         <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-      <c r="U42" s="51" t="str">
-        <f>DEC2HEX(A42,2)</f>
         <v>26</v>
       </c>
       <c r="V42" t="str">
-        <f>CONCATENATE($U$3,"'",R42,"', 0x",S42,$V$3,A42,": ",P42)</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">   {'W', 0x81}, // 38: Ждем датчик наполнения или Ошибка по таймеру [0]</v>
       </c>
       <c r="W42" s="71" t="s">
@@ -5940,7 +5944,7 @@
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>39</v>
       </c>
       <c r="B43" s="48"/>
@@ -5984,19 +5988,19 @@
         <v>89</v>
       </c>
       <c r="S43" s="51" t="str">
-        <f t="shared" ref="S43:S50" si="7">DEC2HEX(Q43,2)</f>
+        <f t="shared" ref="S43:S50" si="10">DEC2HEX(Q43,2)</f>
         <v>D0</v>
       </c>
       <c r="T43" s="51" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="U43" s="51" t="str">
         <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-      <c r="U43" s="51" t="str">
-        <f>DEC2HEX(A43,2)</f>
         <v>27</v>
       </c>
       <c r="V43" t="str">
-        <f>CONCATENATE($U$3,"'",R43,"', 0x",S43,$V$3,A43,": ",P43)</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">   {'P', 0xD0}, // 39: Мойка</v>
       </c>
       <c r="W43" s="71" t="s">
@@ -6005,7 +6009,7 @@
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="B44" s="48"/>
@@ -6038,19 +6042,19 @@
         <v>82</v>
       </c>
       <c r="S44" s="51" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>04</v>
       </c>
       <c r="T44" s="51" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="U44" s="51" t="str">
         <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-      <c r="U44" s="51" t="str">
-        <f>DEC2HEX(A44,2)</f>
         <v>28</v>
       </c>
       <c r="V44" t="str">
-        <f>CONCATENATE($U$3,"'",R44,"', 0x",S44,$V$3,A44,": ",P44)</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">   {'T', 0x04}, // 40: [0] на цикл [Мойка 1]</v>
       </c>
       <c r="W44" s="71" t="s">
@@ -6059,7 +6063,7 @@
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>41</v>
       </c>
       <c r="B45" s="48"/>
@@ -6090,19 +6094,19 @@
         <v>78</v>
       </c>
       <c r="S45" s="51" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>00</v>
       </c>
       <c r="T45" s="51" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="U45" s="51" t="str">
         <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-      <c r="U45" s="51" t="str">
-        <f>DEC2HEX(A45,2)</f>
         <v>29</v>
       </c>
       <c r="V45" t="str">
-        <f>CONCATENATE($U$3,"'",R45,"', 0x",S45,$V$3,A45,": ",P45)</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">   {'W', 0x00}, // 41: Ждем пока обнулиться таймер [0]</v>
       </c>
       <c r="W45" s="71" t="s">
@@ -6111,7 +6115,7 @@
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="B46" s="49"/>
@@ -6155,19 +6159,19 @@
         <v>89</v>
       </c>
       <c r="S46" s="51" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>D8</v>
       </c>
       <c r="T46" s="51" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="U46" s="51" t="str">
         <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-      <c r="U46" s="51" t="str">
-        <f>DEC2HEX(A46,2)</f>
         <v>2A</v>
       </c>
       <c r="V46" t="str">
-        <f>CONCATENATE($U$3,"'",R46,"', 0x",S46,$V$3,A46,": ",P46)</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">   {'P', 0xD8}, // 42: долив четверть бака горячей</v>
       </c>
       <c r="W46" s="71" t="s">
@@ -6176,7 +6180,7 @@
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>43</v>
       </c>
       <c r="B47" s="58"/>
@@ -6209,19 +6213,19 @@
         <v>82</v>
       </c>
       <c r="S47" s="51" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>00</v>
       </c>
       <c r="T47" s="51" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="U47" s="51" t="str">
         <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-      <c r="U47" s="51" t="str">
-        <f>DEC2HEX(A47,2)</f>
         <v>2B</v>
       </c>
       <c r="V47" t="str">
-        <f>CONCATENATE($U$3,"'",R47,"', 0x",S47,$V$3,A47,": ",P47)</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">   {'T', 0x00}, // 43: [0] на цикл [Расчетн.время]</v>
       </c>
       <c r="W47" s="71" t="s">
@@ -6230,7 +6234,7 @@
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="B48" s="48">
@@ -6263,19 +6267,19 @@
         <v>78</v>
       </c>
       <c r="S48" s="51" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>01</v>
       </c>
       <c r="T48" s="51" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="U48" s="51" t="str">
         <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-      <c r="U48" s="51" t="str">
-        <f>DEC2HEX(A48,2)</f>
         <v>2C</v>
       </c>
       <c r="V48" t="str">
-        <f>CONCATENATE($U$3,"'",R48,"', 0x",S48,$V$3,A48,": ",P48)</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">   {'W', 0x01}, // 44: Ждем датчик наполнения или Ждем пока обнулиться таймер [0]</v>
       </c>
       <c r="W48" s="71" t="s">
@@ -6284,7 +6288,7 @@
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="B49" s="48"/>
@@ -6328,19 +6332,19 @@
         <v>89</v>
       </c>
       <c r="S49" s="51" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>D0</v>
       </c>
       <c r="T49" s="51" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="U49" s="51" t="str">
         <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-      <c r="U49" s="51" t="str">
-        <f>DEC2HEX(A49,2)</f>
         <v>2D</v>
       </c>
       <c r="V49" t="str">
-        <f>CONCATENATE($U$3,"'",R49,"', 0x",S49,$V$3,A49,": ",P49)</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">   {'P', 0xD0}, // 45: Продолжаем мойку и слив</v>
       </c>
       <c r="W49" s="71" t="s">
@@ -6349,7 +6353,7 @@
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>46</v>
       </c>
       <c r="B50" s="48"/>
@@ -6382,19 +6386,19 @@
         <v>82</v>
       </c>
       <c r="S50" s="51" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>05</v>
       </c>
       <c r="T50" s="51" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="U50" s="51" t="str">
         <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-      <c r="U50" s="51" t="str">
-        <f>DEC2HEX(A50,2)</f>
         <v>2E</v>
       </c>
       <c r="V50" t="str">
-        <f>CONCATENATE($U$3,"'",R50,"', 0x",S50,$V$3,A50,": ",P50)</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">   {'T', 0x05}, // 46: [0] на цикл [Мойка 2]</v>
       </c>
       <c r="W50" s="71" t="s">
@@ -6403,7 +6407,7 @@
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>47</v>
       </c>
       <c r="B51" s="48"/>
@@ -6434,19 +6438,19 @@
         <v>78</v>
       </c>
       <c r="S51" s="52" t="str">
-        <f t="shared" ref="S51" si="8">DEC2HEX(Q51,2)</f>
+        <f t="shared" ref="S51" si="11">DEC2HEX(Q51,2)</f>
         <v>00</v>
       </c>
       <c r="T51" s="52" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>00</v>
       </c>
       <c r="U51" s="52" t="str">
-        <f t="shared" ref="U51" si="9">DEC2HEX(A51,2)</f>
+        <f t="shared" ref="U51" si="12">DEC2HEX(A51,2)</f>
         <v>2F</v>
       </c>
       <c r="V51" t="str">
-        <f>CONCATENATE($U$3,"'",R51,"', 0x",S51,$V$3,A51,": ",P51)</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">   {'W', 0x00}, // 47: Ждем пока обнулиться таймер [0]</v>
       </c>
       <c r="W51" s="71" t="s">
@@ -6455,7 +6459,7 @@
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
       <c r="B52" s="48"/>
@@ -6503,15 +6507,15 @@
         <v>30</v>
       </c>
       <c r="T52" s="51" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>00</v>
       </c>
       <c r="U52" s="51" t="str">
-        <f t="shared" ref="U52:U63" si="10">DEC2HEX(A52,2)</f>
+        <f t="shared" ref="U52:U63" si="13">DEC2HEX(A52,2)</f>
         <v>30</v>
       </c>
       <c r="V52" t="str">
-        <f>CONCATENATE($U$3,"'",R52,"', 0x",S52,$V$3,A52,": ",P52)</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">   {'P', 0x30}, // 48: Слив</v>
       </c>
       <c r="W52" s="71" t="s">
@@ -6520,7 +6524,7 @@
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>49</v>
       </c>
       <c r="B53" s="48"/>
@@ -6557,15 +6561,15 @@
         <v>09</v>
       </c>
       <c r="T53" s="51" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>00</v>
       </c>
       <c r="U53" s="51" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>31</v>
       </c>
       <c r="V53" t="str">
-        <f>CONCATENATE($U$3,"'",R53,"', 0x",S53,$V$3,A53,": ",P53)</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">   {'T', 0x09}, // 49: [0] на цикл [Макс.время слива танка]</v>
       </c>
       <c r="W53" s="71" t="s">
@@ -6574,7 +6578,7 @@
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="B54" s="48"/>
@@ -6611,15 +6615,15 @@
         <v>00</v>
       </c>
       <c r="T54" s="51" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>00</v>
       </c>
       <c r="U54" s="51" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>32</v>
       </c>
       <c r="V54" t="str">
-        <f>CONCATENATE($U$3,"'",R54,"', 0x",S54,$V$3,A54,": ",P54)</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">   {'W', 0x00}, // 50: Ждем пока обнулиться таймер [0]</v>
       </c>
       <c r="W54" s="71" t="s">
@@ -6628,7 +6632,7 @@
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>51</v>
       </c>
       <c r="B55" s="48"/>
@@ -6676,15 +6680,15 @@
         <v>34</v>
       </c>
       <c r="T55" s="51" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>00</v>
       </c>
       <c r="U55" s="51" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>33</v>
       </c>
       <c r="V55" t="str">
-        <f>CONCATENATE($U$3,"'",R55,"', 0x",S55,$V$3,A55,": ",P55)</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">   {'P', 0x34}, // 51: Наполнение основного бака для полоскания - холодная вода</v>
       </c>
       <c r="W55" s="71" t="s">
@@ -6693,7 +6697,7 @@
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>52</v>
       </c>
       <c r="B56" s="48"/>
@@ -6730,15 +6734,15 @@
         <v>08</v>
       </c>
       <c r="T56" s="51" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>00</v>
       </c>
       <c r="U56" s="51" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>34</v>
       </c>
       <c r="V56" t="str">
-        <f>CONCATENATE($U$3,"'",R56,"', 0x",S56,$V$3,A56,": ",P56)</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">   {'T', 0x08}, // 52: [0] на цикл [Макс.время наполения танка]</v>
       </c>
       <c r="W56" s="71" t="s">
@@ -6747,7 +6751,7 @@
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>53</v>
       </c>
       <c r="B57" s="48">
@@ -6786,15 +6790,15 @@
         <v>81</v>
       </c>
       <c r="T57" s="51" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>00</v>
       </c>
       <c r="U57" s="51" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>35</v>
       </c>
       <c r="V57" t="str">
-        <f>CONCATENATE($U$3,"'",R57,"', 0x",S57,$V$3,A57,": ",P57)</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">   {'W', 0x81}, // 53: Ждем датчик наполнения или Ошибка по таймеру [0]</v>
       </c>
       <c r="W57" s="71" t="s">
@@ -6803,7 +6807,7 @@
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
       <c r="B58" s="48"/>
@@ -6851,15 +6855,15 @@
         <v>F0</v>
       </c>
       <c r="T58" s="51" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>00</v>
       </c>
       <c r="U58" s="51" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>36</v>
       </c>
       <c r="V58" t="str">
-        <f>CONCATENATE($U$3,"'",R58,"', 0x",S58,$V$3,A58,": ",P58)</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">   {'P', 0xF0}, // 54: Полоскание + слив</v>
       </c>
       <c r="W58" s="71" t="s">
@@ -6868,7 +6872,7 @@
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="B59" s="48"/>
@@ -6905,15 +6909,15 @@
         <v>09</v>
       </c>
       <c r="T59" s="51" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>00</v>
       </c>
       <c r="U59" s="51" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>37</v>
       </c>
       <c r="V59" t="str">
-        <f>CONCATENATE($U$3,"'",R59,"', 0x",S59,$V$3,A59,": ",P59)</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">   {'T', 0x09}, // 55: [0] на цикл [Макс.время слива танка]</v>
       </c>
       <c r="W59" s="71" t="s">
@@ -6922,7 +6926,7 @@
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>56</v>
       </c>
       <c r="B60" s="48"/>
@@ -6959,15 +6963,15 @@
         <v>00</v>
       </c>
       <c r="T60" s="51" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>00</v>
       </c>
       <c r="U60" s="51" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>38</v>
       </c>
       <c r="V60" t="str">
-        <f>CONCATENATE($U$3,"'",R60,"', 0x",S60,$V$3,A60,": ",P60)</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">   {'W', 0x00}, // 56: Ждем пока обнулиться таймер [0]</v>
       </c>
       <c r="W60" s="71" t="s">
@@ -6976,7 +6980,7 @@
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>57</v>
       </c>
       <c r="B61" s="48"/>
@@ -7013,15 +7017,15 @@
         <v>07</v>
       </c>
       <c r="T61" s="51" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>00</v>
       </c>
       <c r="U61" s="51" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>39</v>
       </c>
       <c r="V61" t="str">
-        <f>CONCATENATE($U$3,"'",R61,"', 0x",S61,$V$3,A61,": ",P61)</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">   {'T', 0x07}, // 57: [0] на цикл [2 минуты после мойки]</v>
       </c>
       <c r="W61" s="71" t="s">
@@ -7030,7 +7034,7 @@
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>58</v>
       </c>
       <c r="B62" s="48"/>
@@ -7065,15 +7069,15 @@
         <v>00</v>
       </c>
       <c r="T62" s="51" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>00</v>
       </c>
       <c r="U62" s="51" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3A</v>
       </c>
       <c r="V62" t="str">
-        <f>CONCATENATE($U$3,"'",R62,"', 0x",S62,$V$3,A62,": ",P62)</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">   {'W', 0x00}, // 58: Ждем пока обнулиться таймер [0]</v>
       </c>
       <c r="W62" s="71" t="s">
@@ -7082,7 +7086,7 @@
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>59</v>
       </c>
       <c r="B63" s="49"/>
@@ -7130,15 +7134,15 @@
         <v>00</v>
       </c>
       <c r="T63" s="51" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>00</v>
       </c>
       <c r="U63" s="51" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3B</v>
       </c>
       <c r="V63" t="str">
-        <f>CONCATENATE($U$3,"'",R63,"', 0x",S63,$V$3,A63,": ",P63)</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">   {'P', 0x00}, // 59: Все отключаем и оставляем слив</v>
       </c>
       <c r="W63" s="71" t="s">
@@ -7147,7 +7151,7 @@
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="B64" s="49"/>
@@ -7177,7 +7181,7 @@
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>61</v>
       </c>
       <c r="B65" s="49"/>
